--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_0_branch_ward34_impedance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_0_branch_ward34_impedance.xlsx
@@ -1050,40 +1050,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>6.451026010115471E-29</v>
+        <v>-5.731711525857139E-14</v>
       </c>
       <c r="O2">
-        <v>2.084254351699379E-14</v>
+        <v>4.168513090061141E-14</v>
       </c>
       <c r="P2">
-        <v>1.042124915140882E-14</v>
+        <v>-7.294910034354926E-14</v>
       </c>
       <c r="Q2">
-        <v>-1.563194052506518E-14</v>
+        <v>4.168517473350634E-14</v>
       </c>
       <c r="R2">
-        <v>-2.604851335189882E-15</v>
+        <v>-2.084211529496252E-14</v>
       </c>
       <c r="S2">
-        <v>-1.042082090060242E-14</v>
+        <v>6.252823490665141E-14</v>
       </c>
       <c r="T2">
-        <v>-5.210646841688372E-15</v>
+        <v>-5.210646841688453E-14</v>
       </c>
       <c r="U2">
-        <v>5.763371413985835E-09</v>
+        <v>5.763376624632682E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763387050089312E-09</v>
+        <v>-5.763407892676701E-09</v>
       </c>
       <c r="W2">
-        <v>5.210646841688178E-15</v>
+        <v>4.689582157519596E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763366202853099E-09</v>
+        <v>-5.763381834793624E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763397471868894E-09</v>
+        <v>5.763402682515755E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1107,37 +1107,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057475</v>
+        <v>0.5500000117057481</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.5500000121030199</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593786</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493894</v>
       </c>
       <c r="AL2">
-        <v>7.093487145426187E-13</v>
+        <v>7.993156825706E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995568</v>
+        <v>-179.9999999995571</v>
       </c>
       <c r="AN2">
         <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>7.172809081992514E-13</v>
+        <v>8.013809326450106E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952998</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1181,40 +1181,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.898436390184559E-28</v>
+        <v>-1.563194052506533E-14</v>
       </c>
       <c r="O3">
-        <v>2.084279230409498E-14</v>
+        <v>-2.084238241464804E-14</v>
       </c>
       <c r="P3">
-        <v>1.042149886381828E-14</v>
+        <v>3.126408623617648E-14</v>
       </c>
       <c r="Q3">
-        <v>-1.042129368337662E-14</v>
+        <v>1.457598818329276E-28</v>
       </c>
       <c r="R3">
-        <v>-2.605480782604222E-15</v>
+        <v>4.168501735934638E-14</v>
       </c>
       <c r="S3">
-        <v>-1.042145128182984E-14</v>
+        <v>-4.168533234406708E-14</v>
       </c>
       <c r="T3">
-        <v>1.563194052506512E-14</v>
+        <v>1.563194052506491E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921134225739668E-09</v>
+        <v>-1.921160278973869E-09</v>
       </c>
       <c r="V3">
-        <v>1.921118595618701E-09</v>
+        <v>1.921118595618707E-09</v>
       </c>
       <c r="W3">
-        <v>-1.042129368337688E-14</v>
+        <v>-1.042129368337675E-14</v>
       </c>
       <c r="X3">
-        <v>1.921139436440497E-09</v>
+        <v>1.921144647087342E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.921123806211562E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1238,37 +1238,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439221</v>
+        <v>0.5500000116439222</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648437</v>
+        <v>0.5500000121648461</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593786</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493894</v>
       </c>
       <c r="AL3">
-        <v>6.958342290082945E-13</v>
+        <v>7.685433945702405E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938806</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO3">
-        <v>7.172809081992514E-13</v>
+        <v>8.013809326450106E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952998</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1312,40 +1312,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.647452789181897E-14</v>
+        <v>-2.084258736675377E-14</v>
       </c>
       <c r="O4">
-        <v>2.0494532448286E-19</v>
+        <v>-2.084238241464805E-14</v>
       </c>
       <c r="P4">
-        <v>1.042149886420607E-14</v>
+        <v>3.126408623767725E-14</v>
       </c>
       <c r="Q4">
-        <v>3.126388105013057E-14</v>
+        <v>5.210646841688666E-15</v>
       </c>
       <c r="R4">
-        <v>1.823710657571828E-14</v>
+        <v>3.126372367975835E-14</v>
       </c>
       <c r="S4">
-        <v>-1.042145128182984E-14</v>
+        <v>-4.168533234492196E-14</v>
       </c>
       <c r="T4">
-        <v>3.126388105012979E-14</v>
+        <v>2.084258736675322E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921123804445992E-09</v>
+        <v>-1.92116027897387E-09</v>
       </c>
       <c r="V4">
-        <v>1.921118595618702E-09</v>
+        <v>1.921129016912396E-09</v>
       </c>
       <c r="W4">
-        <v>-2.605323420844148E-14</v>
+        <v>-2.084258736675343E-14</v>
       </c>
       <c r="X4">
-        <v>1.92112901514682E-09</v>
+        <v>1.92115506838102E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.92113422750525E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1369,37 +1369,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG4">
-        <v>0.550000011643922</v>
+        <v>0.5500000116439223</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648438</v>
+        <v>0.5500000121648462</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593786</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493894</v>
       </c>
       <c r="AL4">
-        <v>6.890106257295765E-13</v>
+        <v>7.683945270676785E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938806</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO4">
-        <v>7.172809081992514E-13</v>
+        <v>8.013809326450106E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952998</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1443,40 +1443,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.647452789181873E-14</v>
+        <v>5.210646841688443E-15</v>
       </c>
       <c r="O5">
-        <v>3.126388103699237E-14</v>
+        <v>2.605323420444175E-15</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>-4.68958215751956E-14</v>
+        <v>-1.563194052506526E-14</v>
       </c>
       <c r="R5">
-        <v>-1.563194051905205E-14</v>
+        <v>1.563194051738446E-14</v>
       </c>
       <c r="S5">
-        <v>-1.042129368831191E-14</v>
+        <v>5.564866742773285E-25</v>
       </c>
       <c r="T5">
-        <v>-1.04212936833763E-14</v>
+        <v>-5.210646841688304E-15</v>
       </c>
       <c r="U5">
-        <v>-1.563194051432713E-14</v>
+        <v>-7.815970258553262E-15</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>2.084258736675292E-14</v>
+        <v>1.042129368337654E-14</v>
       </c>
       <c r="X5">
-        <v>1.302661709638436E-14</v>
+        <v>2.605323421277954E-15</v>
       </c>
       <c r="Y5">
-        <v>1.112996488474544E-24</v>
+        <v>5.210646844155976E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1500,37 +1500,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG5">
-        <v>0.5500000116439221</v>
+        <v>0.5500000116439222</v>
       </c>
       <c r="AH5">
-        <v>0.5500000121648437</v>
+        <v>0.5500000121648461</v>
       </c>
       <c r="AI5">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ5">
-        <v>0.550000011643922</v>
+        <v>0.5500000116439223</v>
       </c>
       <c r="AK5">
-        <v>0.5500000121648438</v>
+        <v>0.5500000121648462</v>
       </c>
       <c r="AL5">
-        <v>6.958342290082945E-13</v>
+        <v>7.685433945702405E-13</v>
       </c>
       <c r="AM5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938806</v>
       </c>
       <c r="AN5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO5">
-        <v>6.890106257295765E-13</v>
+        <v>7.683945270676785E-13</v>
       </c>
       <c r="AP5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938806</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
     </row>
   </sheetData>
@@ -1718,40 +1718,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-5.210646841703619E-15</v>
+        <v>-4.168517473362979E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307626403360838E-10</v>
+        <v>-7.307135998765889E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039301998070404E-09</v>
+        <v>-2.039348867462817E-09</v>
       </c>
       <c r="Q2">
-        <v>-5.210646841703933E-15</v>
+        <v>3.647452789192597E-14</v>
       </c>
       <c r="R2">
-        <v>7.307736753759116E-10</v>
+        <v>7.307345823100009E-10</v>
       </c>
       <c r="S2">
-        <v>2.039293626134315E-09</v>
+        <v>2.039350549730954E-09</v>
       </c>
       <c r="T2">
-        <v>-1.563194052511138E-14</v>
+        <v>-3.64745278919269E-14</v>
       </c>
       <c r="U2">
-        <v>5.822472461485158E-09</v>
+        <v>5.822489034908671E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556070027894168E-09</v>
+        <v>-3.556041471919649E-09</v>
       </c>
       <c r="W2">
-        <v>1.563194052511127E-14</v>
+        <v>4.168517473363063E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822476173369687E-09</v>
+        <v>-5.822480030063267E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556073392180328E-09</v>
+        <v>3.556045658360128E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1772,40 +1772,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635724</v>
+        <v>0.6816683458635722</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780339</v>
+        <v>0.476190715578035</v>
       </c>
       <c r="AI2">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299565</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277805</v>
+        <v>0.4761907156277818</v>
       </c>
       <c r="AL2">
-        <v>5.711303927421647E-13</v>
+        <v>6.432774764008986E-13</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584274</v>
+        <v>-164.9034422584276</v>
       </c>
       <c r="AN2">
         <v>158.1097491654785</v>
       </c>
       <c r="AO2">
-        <v>5.797060480124924E-13</v>
+        <v>6.41788416834835E-13</v>
       </c>
       <c r="AP2">
-        <v>-164.9034422552288</v>
+        <v>-164.9034422552289</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642544</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1849,40 +1849,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052511148E-14</v>
+        <v>-2.084258736681533E-14</v>
       </c>
       <c r="O3">
-        <v>2.43592825013978E-10</v>
+        <v>2.4358624157863E-10</v>
       </c>
       <c r="P3">
-        <v>6.797639688603498E-10</v>
+        <v>6.797924494939111E-10</v>
       </c>
       <c r="Q3">
-        <v>5.210646841704039E-15</v>
+        <v>5.210646841703952E-15</v>
       </c>
       <c r="R3">
-        <v>-2.435693198687939E-10</v>
+        <v>-2.435652594021224E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797606048700007E-10</v>
+        <v>-6.797907674826806E-10</v>
       </c>
       <c r="T3">
-        <v>1.563194052511117E-14</v>
+        <v>2.084258736681489E-14</v>
       </c>
       <c r="U3">
-        <v>-1.94082718915065E-09</v>
+        <v>-1.940852376242838E-09</v>
       </c>
       <c r="V3">
-        <v>1.185348303885358E-09</v>
+        <v>1.18534658423576E-09</v>
       </c>
       <c r="W3">
-        <v>-2.605323420851883E-14</v>
+        <v>-1.563194052511128E-14</v>
       </c>
       <c r="X3">
-        <v>1.940826840932871E-09</v>
+        <v>1.940861380796754E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185339931623814E-09</v>
+        <v>-1.18534239808677E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1906,37 +1906,37 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187515</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443627</v>
+        <v>0.476190715644364</v>
       </c>
       <c r="AI3">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299565</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277805</v>
+        <v>0.4761907156277818</v>
       </c>
       <c r="AL3">
-        <v>5.646961758325169E-13</v>
+        <v>6.133293617349756E-13</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541627</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO3">
-        <v>5.797060480124924E-13</v>
+        <v>6.41788416834835E-13</v>
       </c>
       <c r="AP3">
-        <v>-164.9034422552288</v>
+        <v>-164.9034422552289</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642544</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1980,40 +1980,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.731711525874183E-14</v>
+        <v>-2.084258736681533E-14</v>
       </c>
       <c r="O4">
-        <v>2.435803546517197E-10</v>
+        <v>2.436020758991257E-10</v>
       </c>
       <c r="P4">
-        <v>6.797673328185873E-10</v>
+        <v>6.797958134521487E-10</v>
       </c>
       <c r="Q4">
-        <v>4.689582157533435E-14</v>
+        <v>5.210646841703952E-15</v>
       </c>
       <c r="R4">
-        <v>-2.435726838270309E-10</v>
+        <v>-2.435810937226179E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797673327864748E-10</v>
+        <v>-6.797941314409177E-10</v>
       </c>
       <c r="T4">
-        <v>3.12638810502221E-14</v>
+        <v>2.084258736681488E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940830553108888E-09</v>
+        <v>-1.94086148264686E-09</v>
       </c>
       <c r="V4">
-        <v>1.185356676110467E-09</v>
+        <v>1.185354956460869E-09</v>
       </c>
       <c r="W4">
-        <v>-3.647452789192596E-14</v>
+        <v>-1.563194052511128E-14</v>
       </c>
       <c r="X4">
-        <v>1.940839311295129E-09</v>
+        <v>1.940870487200776E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.18535667607403E-09</v>
+        <v>-1.185350770311878E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2034,40 +2034,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG4">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187516</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443628</v>
+        <v>0.4761907156443642</v>
       </c>
       <c r="AI4">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299565</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277805</v>
+        <v>0.4761907156277818</v>
       </c>
       <c r="AL4">
-        <v>5.528108508744215E-13</v>
+        <v>6.13700178497858E-13</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541627</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO4">
-        <v>5.797060480124924E-13</v>
+        <v>6.41788416834835E-13</v>
       </c>
       <c r="AP4">
-        <v>-164.9034422552288</v>
+        <v>-164.9034422552289</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642544</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2111,40 +2111,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.647452789192658E-14</v>
+        <v>-5.210646841703778E-15</v>
       </c>
       <c r="O5">
-        <v>2.241775583870784E-14</v>
+        <v>-8.409895592927389E-16</v>
       </c>
       <c r="P5">
-        <v>8.372225108521974E-15</v>
+        <v>6.690245989936012E-15</v>
       </c>
       <c r="Q5">
-        <v>-5.210646841703784E-14</v>
+        <v>-1.042129368340755E-14</v>
       </c>
       <c r="R5">
-        <v>-4.553202010561026E-15</v>
+        <v>1.95465329467323E-14</v>
       </c>
       <c r="S5">
-        <v>-5.008266871349968E-15</v>
+        <v>-6.690245989936013E-15</v>
       </c>
       <c r="T5">
-        <v>-1.563194052511097E-14</v>
+        <v>-5.577797751960017E-29</v>
       </c>
       <c r="U5">
-        <v>1.608068816806176E-14</v>
+        <v>3.11759056457326E-15</v>
       </c>
       <c r="V5">
-        <v>-3.363958237172006E-15</v>
+        <v>-7.550070791432994E-15</v>
       </c>
       <c r="W5">
-        <v>1.042129368340704E-14</v>
+        <v>-1.116234013750661E-28</v>
       </c>
       <c r="X5">
-        <v>-7.917160247732013E-15</v>
+        <v>1.928346791183177E-15</v>
       </c>
       <c r="Y5">
-        <v>1.173618334569398E-14</v>
+        <v>7.550070791432997E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2168,37 +2168,37 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG5">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187515</v>
       </c>
       <c r="AH5">
-        <v>0.4761907156443627</v>
+        <v>0.476190715644364</v>
       </c>
       <c r="AI5">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AJ5">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187516</v>
       </c>
       <c r="AK5">
-        <v>0.4761907156443628</v>
+        <v>0.4761907156443642</v>
       </c>
       <c r="AL5">
-        <v>5.646961758325169E-13</v>
+        <v>6.133293617349756E-13</v>
       </c>
       <c r="AM5">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541627</v>
       </c>
       <c r="AN5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO5">
-        <v>5.528108508744215E-13</v>
+        <v>6.13700178497858E-13</v>
       </c>
       <c r="AP5">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541627</v>
       </c>
       <c r="AQ5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
     </row>
   </sheetData>
@@ -2386,40 +2386,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-5.210646841703619E-15</v>
+        <v>-4.168517473362979E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307626403360838E-10</v>
+        <v>-7.307135998765889E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039301998070404E-09</v>
+        <v>-2.039348867462817E-09</v>
       </c>
       <c r="Q2">
-        <v>-5.210646841703933E-15</v>
+        <v>3.647452789192597E-14</v>
       </c>
       <c r="R2">
-        <v>7.307736753759116E-10</v>
+        <v>7.307345823100009E-10</v>
       </c>
       <c r="S2">
-        <v>2.039293626134315E-09</v>
+        <v>2.039350549730954E-09</v>
       </c>
       <c r="T2">
-        <v>-1.563194052511138E-14</v>
+        <v>-3.64745278919269E-14</v>
       </c>
       <c r="U2">
-        <v>5.822472461485158E-09</v>
+        <v>5.822489034908671E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556070027894168E-09</v>
+        <v>-3.556041471919649E-09</v>
       </c>
       <c r="W2">
-        <v>1.563194052511127E-14</v>
+        <v>4.168517473363063E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822476173369687E-09</v>
+        <v>-5.822480030063267E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556073392180328E-09</v>
+        <v>3.556045658360128E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2440,40 +2440,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635724</v>
+        <v>0.6816683458635722</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780339</v>
+        <v>0.476190715578035</v>
       </c>
       <c r="AI2">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299565</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277805</v>
+        <v>0.4761907156277818</v>
       </c>
       <c r="AL2">
-        <v>5.711303927421647E-13</v>
+        <v>6.432774764008986E-13</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584274</v>
+        <v>-164.9034422584276</v>
       </c>
       <c r="AN2">
         <v>158.1097491654785</v>
       </c>
       <c r="AO2">
-        <v>5.797060480124924E-13</v>
+        <v>6.41788416834835E-13</v>
       </c>
       <c r="AP2">
-        <v>-164.9034422552288</v>
+        <v>-164.9034422552289</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642544</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2517,40 +2517,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052511148E-14</v>
+        <v>-2.084258736681533E-14</v>
       </c>
       <c r="O3">
-        <v>2.43592825013978E-10</v>
+        <v>2.4358624157863E-10</v>
       </c>
       <c r="P3">
-        <v>6.797639688603498E-10</v>
+        <v>6.797924494939111E-10</v>
       </c>
       <c r="Q3">
-        <v>5.210646841704039E-15</v>
+        <v>5.210646841703952E-15</v>
       </c>
       <c r="R3">
-        <v>-2.435693198687939E-10</v>
+        <v>-2.435652594021224E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797606048700007E-10</v>
+        <v>-6.797907674826806E-10</v>
       </c>
       <c r="T3">
-        <v>1.563194052511117E-14</v>
+        <v>2.084258736681489E-14</v>
       </c>
       <c r="U3">
-        <v>-1.94082718915065E-09</v>
+        <v>-1.940852376242838E-09</v>
       </c>
       <c r="V3">
-        <v>1.185348303885358E-09</v>
+        <v>1.18534658423576E-09</v>
       </c>
       <c r="W3">
-        <v>-2.605323420851883E-14</v>
+        <v>-1.563194052511128E-14</v>
       </c>
       <c r="X3">
-        <v>1.940826840932871E-09</v>
+        <v>1.940861380796754E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185339931623814E-09</v>
+        <v>-1.18534239808677E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2574,37 +2574,37 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187515</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443627</v>
+        <v>0.476190715644364</v>
       </c>
       <c r="AI3">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299565</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277805</v>
+        <v>0.4761907156277818</v>
       </c>
       <c r="AL3">
-        <v>5.646961758325169E-13</v>
+        <v>6.133293617349756E-13</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541627</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO3">
-        <v>5.797060480124924E-13</v>
+        <v>6.41788416834835E-13</v>
       </c>
       <c r="AP3">
-        <v>-164.9034422552288</v>
+        <v>-164.9034422552289</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642544</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2648,40 +2648,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.731711525874183E-14</v>
+        <v>-2.084258736681533E-14</v>
       </c>
       <c r="O4">
-        <v>2.435803546517197E-10</v>
+        <v>2.436020758991257E-10</v>
       </c>
       <c r="P4">
-        <v>6.797673328185873E-10</v>
+        <v>6.797958134521487E-10</v>
       </c>
       <c r="Q4">
-        <v>4.689582157533435E-14</v>
+        <v>5.210646841703952E-15</v>
       </c>
       <c r="R4">
-        <v>-2.435726838270309E-10</v>
+        <v>-2.435810937226179E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797673327864748E-10</v>
+        <v>-6.797941314409177E-10</v>
       </c>
       <c r="T4">
-        <v>3.12638810502221E-14</v>
+        <v>2.084258736681488E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940830553108888E-09</v>
+        <v>-1.94086148264686E-09</v>
       </c>
       <c r="V4">
-        <v>1.185356676110467E-09</v>
+        <v>1.185354956460869E-09</v>
       </c>
       <c r="W4">
-        <v>-3.647452789192596E-14</v>
+        <v>-1.563194052511128E-14</v>
       </c>
       <c r="X4">
-        <v>1.940839311295129E-09</v>
+        <v>1.940870487200776E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.18535667607403E-09</v>
+        <v>-1.185350770311878E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2702,40 +2702,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG4">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187516</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443628</v>
+        <v>0.4761907156443642</v>
       </c>
       <c r="AI4">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299565</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277805</v>
+        <v>0.4761907156277818</v>
       </c>
       <c r="AL4">
-        <v>5.528108508744215E-13</v>
+        <v>6.13700178497858E-13</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541627</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO4">
-        <v>5.797060480124924E-13</v>
+        <v>6.41788416834835E-13</v>
       </c>
       <c r="AP4">
-        <v>-164.9034422552288</v>
+        <v>-164.9034422552289</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642544</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2779,40 +2779,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.647452789192658E-14</v>
+        <v>-5.210646841703778E-15</v>
       </c>
       <c r="O5">
-        <v>2.241775583870784E-14</v>
+        <v>-8.409895592927389E-16</v>
       </c>
       <c r="P5">
-        <v>8.372225108521974E-15</v>
+        <v>6.690245989936012E-15</v>
       </c>
       <c r="Q5">
-        <v>-5.210646841703784E-14</v>
+        <v>-1.042129368340755E-14</v>
       </c>
       <c r="R5">
-        <v>-4.553202010561026E-15</v>
+        <v>1.95465329467323E-14</v>
       </c>
       <c r="S5">
-        <v>-5.008266871349968E-15</v>
+        <v>-6.690245989936013E-15</v>
       </c>
       <c r="T5">
-        <v>-1.563194052511097E-14</v>
+        <v>-5.577797751960017E-29</v>
       </c>
       <c r="U5">
-        <v>1.608068816806176E-14</v>
+        <v>3.11759056457326E-15</v>
       </c>
       <c r="V5">
-        <v>-3.363958237172006E-15</v>
+        <v>-7.550070791432994E-15</v>
       </c>
       <c r="W5">
-        <v>1.042129368340704E-14</v>
+        <v>-1.116234013750661E-28</v>
       </c>
       <c r="X5">
-        <v>-7.917160247732013E-15</v>
+        <v>1.928346791183177E-15</v>
       </c>
       <c r="Y5">
-        <v>1.173618334569398E-14</v>
+        <v>7.550070791432997E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2836,37 +2836,37 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG5">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187515</v>
       </c>
       <c r="AH5">
-        <v>0.4761907156443627</v>
+        <v>0.476190715644364</v>
       </c>
       <c r="AI5">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AJ5">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187516</v>
       </c>
       <c r="AK5">
-        <v>0.4761907156443628</v>
+        <v>0.4761907156443642</v>
       </c>
       <c r="AL5">
-        <v>5.646961758325169E-13</v>
+        <v>6.133293617349756E-13</v>
       </c>
       <c r="AM5">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541627</v>
       </c>
       <c r="AN5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO5">
-        <v>5.528108508744215E-13</v>
+        <v>6.13700178497858E-13</v>
       </c>
       <c r="AP5">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541627</v>
       </c>
       <c r="AQ5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
     </row>
   </sheetData>
@@ -3054,40 +3054,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.552713678801798E-14</v>
+        <v>1.184237892933907E-14</v>
       </c>
       <c r="O2">
-        <v>9.473800830770053E-15</v>
+        <v>1.421075240056645E-14</v>
       </c>
       <c r="P2">
-        <v>9.4738002579307E-15</v>
+        <v>-1.421095760540074E-14</v>
       </c>
       <c r="Q2">
-        <v>-3.315866100215E-14</v>
+        <v>-1.184237892933912E-14</v>
       </c>
       <c r="R2">
-        <v>-9.473121301339567E-15</v>
+        <v>-8.288883408830723E-15</v>
       </c>
       <c r="S2">
-        <v>-2.36769336487564E-15</v>
+        <v>1.658011293004864E-14</v>
       </c>
       <c r="T2">
-        <v>-2.368475785867807E-14</v>
+        <v>1.421085471520722E-14</v>
       </c>
       <c r="U2">
-        <v>4.763113753521025E-09</v>
+        <v>4.763123227424159E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763123230914892E-09</v>
+        <v>-4.763132704818037E-09</v>
       </c>
       <c r="W2">
-        <v>1.421085471520671E-14</v>
+        <v>-9.473903143471525E-15</v>
       </c>
       <c r="X2">
-        <v>-4.763120858546819E-09</v>
+        <v>-4.763127963974161E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763123231316458E-09</v>
+        <v>4.763132705219603E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169619</v>
+        <v>0.4999999998169612</v>
       </c>
       <c r="AH2">
         <v>0.5000000001833943</v>
@@ -3120,28 +3120,28 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748074</v>
       </c>
       <c r="AK2">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255481</v>
       </c>
       <c r="AL2">
-        <v>6.444831364690113E-13</v>
+        <v>6.593151845052891E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
       </c>
       <c r="AN2">
-        <v>179.999999998755</v>
+        <v>179.9999999987551</v>
       </c>
       <c r="AO2">
-        <v>6.315000354601029E-13</v>
+        <v>6.795645057281439E-13</v>
       </c>
       <c r="AP2">
         <v>-179.999999990588</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3185,40 +3185,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-3.07901852162822E-14</v>
+        <v>-2.131628207281061E-14</v>
       </c>
       <c r="O3">
-        <v>-9.473567025341031E-15</v>
+        <v>-9.4735670233354E-15</v>
       </c>
       <c r="P3">
-        <v>3.363132670147779E-19</v>
+        <v>9.474239459512189E-15</v>
       </c>
       <c r="Q3">
-        <v>2.842170943041436E-14</v>
+        <v>1.657933050107492E-14</v>
       </c>
       <c r="R3">
-        <v>9.473642527617325E-15</v>
+        <v>1.065788041998121E-14</v>
       </c>
       <c r="S3">
-        <v>7.105166551896729E-15</v>
+        <v>-2.368736595139826E-15</v>
       </c>
       <c r="T3">
-        <v>1.894780628694243E-14</v>
+        <v>-2.50410267418357E-28</v>
       </c>
       <c r="U3">
-        <v>-1.587698268393112E-09</v>
+        <v>-1.587707742296247E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771721771992E-09</v>
+        <v>1.587717217719919E-09</v>
       </c>
       <c r="W3">
-        <v>-1.894780628694246E-14</v>
+        <v>1.966414390905433E-28</v>
       </c>
       <c r="X3">
-        <v>1.587700636913514E-09</v>
+        <v>1.587703005389296E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675302E-09</v>
+        <v>-1.5877172176753E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3242,37 +3242,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607562</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395999</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748074</v>
       </c>
       <c r="AK3">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255481</v>
       </c>
       <c r="AL3">
-        <v>6.198270686972455E-13</v>
+        <v>6.730747613869343E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO3">
-        <v>6.315000354601029E-13</v>
+        <v>6.795645057281439E-13</v>
       </c>
       <c r="AP3">
         <v>-179.999999990588</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3316,37 +3316,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323364454645E-14</v>
+        <v>-2.368475785867845E-14</v>
       </c>
       <c r="O4">
-        <v>-4.736615455521054E-15</v>
+        <v>-9.4735670233354E-15</v>
       </c>
       <c r="P4">
-        <v>-4.736615260736928E-15</v>
+        <v>-4.736615261794562E-15</v>
       </c>
       <c r="Q4">
-        <v>2.368475785867867E-14</v>
+        <v>1.894780628694283E-14</v>
       </c>
       <c r="R4">
-        <v>9.473642527617325E-15</v>
+        <v>1.065788041998121E-14</v>
       </c>
       <c r="S4">
-        <v>7.105166551896729E-15</v>
+        <v>7.10516655260182E-15</v>
       </c>
       <c r="T4">
-        <v>1.421085471520679E-14</v>
+        <v>-2.782434219755142E-28</v>
       </c>
       <c r="U4">
-        <v>-1.587698268393111E-09</v>
+        <v>-1.587707742296247E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719921E-09</v>
+        <v>1.587717217719922E-09</v>
       </c>
       <c r="W4">
-        <v>-1.894780628694251E-14</v>
+        <v>-4.736951571735467E-15</v>
       </c>
       <c r="X4">
-        <v>1.587700636913514E-09</v>
+        <v>1.587703005389296E-09</v>
       </c>
       <c r="Y4">
         <v>-1.587717217675302E-09</v>
@@ -3373,22 +3373,22 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607562</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395997</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748074</v>
       </c>
       <c r="AK4">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255481</v>
       </c>
       <c r="AL4">
-        <v>6.170194340544487E-13</v>
+        <v>6.730984480228701E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999878632</v>
@@ -3397,13 +3397,13 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>6.315000354601029E-13</v>
+        <v>6.795645057281439E-13</v>
       </c>
       <c r="AP4">
         <v>-179.999999990588</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -3447,40 +3447,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-7.105427357603588E-15</v>
+        <v>5.564672609296822E-29</v>
       </c>
       <c r="O5">
-        <v>-1.184237893871069E-15</v>
+        <v>-1.184237892366857E-15</v>
       </c>
       <c r="P5">
-        <v>1.003390050674056E-24</v>
+        <v>7.105427362009305E-15</v>
       </c>
       <c r="Q5">
-        <v>2.368475785867846E-15</v>
+        <v>-2.368475785867845E-15</v>
       </c>
       <c r="R5">
-        <v>3.552713676599176E-15</v>
+        <v>3.552713677601974E-15</v>
       </c>
       <c r="S5">
-        <v>7.105427362009305E-15</v>
+        <v>-2.368475787001973E-15</v>
       </c>
       <c r="T5">
-        <v>4.736951571735615E-15</v>
+        <v>-4.736951571735691E-15</v>
       </c>
       <c r="U5">
-        <v>7.105427353950457E-15</v>
+        <v>-2.50701573401048E-25</v>
       </c>
       <c r="V5">
-        <v>4.736951574003943E-15</v>
+        <v>4.73695157249887E-15</v>
       </c>
       <c r="W5">
-        <v>2.550616470161163E-29</v>
+        <v>-2.782434219755142E-29</v>
       </c>
       <c r="X5">
-        <v>2.368475785485825E-15</v>
+        <v>-2.36847578398161E-15</v>
       </c>
       <c r="Y5">
-        <v>4.736951572498858E-15</v>
+        <v>5.016934476152173E-25</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -3504,31 +3504,31 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607562</v>
       </c>
       <c r="AH5">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395999</v>
       </c>
       <c r="AI5">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607562</v>
       </c>
       <c r="AK5">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395997</v>
       </c>
       <c r="AL5">
-        <v>6.198270686972455E-13</v>
+        <v>6.730747613869343E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN5">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO5">
-        <v>6.170194340544487E-13</v>
+        <v>6.730984480228701E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999878632</v>
@@ -3722,40 +3722,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.552713678801798E-14</v>
+        <v>1.184237892933907E-14</v>
       </c>
       <c r="O2">
-        <v>9.473800830770053E-15</v>
+        <v>1.421075240056645E-14</v>
       </c>
       <c r="P2">
-        <v>9.4738002579307E-15</v>
+        <v>-1.421095760540074E-14</v>
       </c>
       <c r="Q2">
-        <v>-3.315866100215E-14</v>
+        <v>-1.184237892933912E-14</v>
       </c>
       <c r="R2">
-        <v>-9.473121301339567E-15</v>
+        <v>-8.288883408830723E-15</v>
       </c>
       <c r="S2">
-        <v>-2.36769336487564E-15</v>
+        <v>1.658011293004864E-14</v>
       </c>
       <c r="T2">
-        <v>-2.368475785867807E-14</v>
+        <v>1.421085471520722E-14</v>
       </c>
       <c r="U2">
-        <v>4.763113753521025E-09</v>
+        <v>4.763123227424159E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763123230914892E-09</v>
+        <v>-4.763132704818037E-09</v>
       </c>
       <c r="W2">
-        <v>1.421085471520671E-14</v>
+        <v>-9.473903143471525E-15</v>
       </c>
       <c r="X2">
-        <v>-4.763120858546819E-09</v>
+        <v>-4.763127963974161E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763123231316458E-09</v>
+        <v>4.763132705219603E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169619</v>
+        <v>0.4999999998169612</v>
       </c>
       <c r="AH2">
         <v>0.5000000001833943</v>
@@ -3788,28 +3788,28 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748074</v>
       </c>
       <c r="AK2">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255481</v>
       </c>
       <c r="AL2">
-        <v>6.444831364690113E-13</v>
+        <v>6.593151845052891E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
       </c>
       <c r="AN2">
-        <v>179.999999998755</v>
+        <v>179.9999999987551</v>
       </c>
       <c r="AO2">
-        <v>6.315000354601029E-13</v>
+        <v>6.795645057281439E-13</v>
       </c>
       <c r="AP2">
         <v>-179.999999990588</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3853,40 +3853,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-3.07901852162822E-14</v>
+        <v>-2.131628207281061E-14</v>
       </c>
       <c r="O3">
-        <v>-9.473567025341031E-15</v>
+        <v>-9.4735670233354E-15</v>
       </c>
       <c r="P3">
-        <v>3.363132670147779E-19</v>
+        <v>9.474239459512189E-15</v>
       </c>
       <c r="Q3">
-        <v>2.842170943041436E-14</v>
+        <v>1.657933050107492E-14</v>
       </c>
       <c r="R3">
-        <v>9.473642527617325E-15</v>
+        <v>1.065788041998121E-14</v>
       </c>
       <c r="S3">
-        <v>7.105166551896729E-15</v>
+        <v>-2.368736595139826E-15</v>
       </c>
       <c r="T3">
-        <v>1.894780628694243E-14</v>
+        <v>-2.50410267418357E-28</v>
       </c>
       <c r="U3">
-        <v>-1.587698268393112E-09</v>
+        <v>-1.587707742296247E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771721771992E-09</v>
+        <v>1.587717217719919E-09</v>
       </c>
       <c r="W3">
-        <v>-1.894780628694246E-14</v>
+        <v>1.966414390905433E-28</v>
       </c>
       <c r="X3">
-        <v>1.587700636913514E-09</v>
+        <v>1.587703005389296E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675302E-09</v>
+        <v>-1.5877172176753E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3910,37 +3910,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607562</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395999</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748074</v>
       </c>
       <c r="AK3">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255481</v>
       </c>
       <c r="AL3">
-        <v>6.198270686972455E-13</v>
+        <v>6.730747613869343E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO3">
-        <v>6.315000354601029E-13</v>
+        <v>6.795645057281439E-13</v>
       </c>
       <c r="AP3">
         <v>-179.999999990588</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3984,37 +3984,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323364454645E-14</v>
+        <v>-2.368475785867845E-14</v>
       </c>
       <c r="O4">
-        <v>-4.736615455521054E-15</v>
+        <v>-9.4735670233354E-15</v>
       </c>
       <c r="P4">
-        <v>-4.736615260736928E-15</v>
+        <v>-4.736615261794562E-15</v>
       </c>
       <c r="Q4">
-        <v>2.368475785867867E-14</v>
+        <v>1.894780628694283E-14</v>
       </c>
       <c r="R4">
-        <v>9.473642527617325E-15</v>
+        <v>1.065788041998121E-14</v>
       </c>
       <c r="S4">
-        <v>7.105166551896729E-15</v>
+        <v>7.10516655260182E-15</v>
       </c>
       <c r="T4">
-        <v>1.421085471520679E-14</v>
+        <v>-2.782434219755142E-28</v>
       </c>
       <c r="U4">
-        <v>-1.587698268393111E-09</v>
+        <v>-1.587707742296247E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719921E-09</v>
+        <v>1.587717217719922E-09</v>
       </c>
       <c r="W4">
-        <v>-1.894780628694251E-14</v>
+        <v>-4.736951571735467E-15</v>
       </c>
       <c r="X4">
-        <v>1.587700636913514E-09</v>
+        <v>1.587703005389296E-09</v>
       </c>
       <c r="Y4">
         <v>-1.587717217675302E-09</v>
@@ -4041,22 +4041,22 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607562</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395997</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748074</v>
       </c>
       <c r="AK4">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255481</v>
       </c>
       <c r="AL4">
-        <v>6.170194340544487E-13</v>
+        <v>6.730984480228701E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999878632</v>
@@ -4065,13 +4065,13 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>6.315000354601029E-13</v>
+        <v>6.795645057281439E-13</v>
       </c>
       <c r="AP4">
         <v>-179.999999990588</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -4115,40 +4115,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-7.105427357603588E-15</v>
+        <v>5.564672609296822E-29</v>
       </c>
       <c r="O5">
-        <v>-1.184237893871069E-15</v>
+        <v>-1.184237892366857E-15</v>
       </c>
       <c r="P5">
-        <v>1.003390050674056E-24</v>
+        <v>7.105427362009305E-15</v>
       </c>
       <c r="Q5">
-        <v>2.368475785867846E-15</v>
+        <v>-2.368475785867845E-15</v>
       </c>
       <c r="R5">
-        <v>3.552713676599176E-15</v>
+        <v>3.552713677601974E-15</v>
       </c>
       <c r="S5">
-        <v>7.105427362009305E-15</v>
+        <v>-2.368475787001973E-15</v>
       </c>
       <c r="T5">
-        <v>4.736951571735615E-15</v>
+        <v>-4.736951571735691E-15</v>
       </c>
       <c r="U5">
-        <v>7.105427353950457E-15</v>
+        <v>-2.50701573401048E-25</v>
       </c>
       <c r="V5">
-        <v>4.736951574003943E-15</v>
+        <v>4.73695157249887E-15</v>
       </c>
       <c r="W5">
-        <v>2.550616470161163E-29</v>
+        <v>-2.782434219755142E-29</v>
       </c>
       <c r="X5">
-        <v>2.368475785485825E-15</v>
+        <v>-2.36847578398161E-15</v>
       </c>
       <c r="Y5">
-        <v>4.736951572498858E-15</v>
+        <v>5.016934476152173E-25</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4172,31 +4172,31 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607562</v>
       </c>
       <c r="AH5">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395999</v>
       </c>
       <c r="AI5">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607562</v>
       </c>
       <c r="AK5">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395997</v>
       </c>
       <c r="AL5">
-        <v>6.198270686972455E-13</v>
+        <v>6.730747613869343E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN5">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO5">
-        <v>6.170194340544487E-13</v>
+        <v>6.730984480228701E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999878632</v>
@@ -4390,40 +4390,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.315866100233064E-14</v>
+        <v>9.473903143522919E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559561404307491E-10</v>
+        <v>-5.559500341474189E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551454232167158E-09</v>
+        <v>-1.551465295491497E-09</v>
       </c>
       <c r="Q2">
-        <v>-3.079018521644989E-14</v>
+        <v>-9.473903143522919E-15</v>
       </c>
       <c r="R2">
-        <v>5.559593133527217E-10</v>
+        <v>5.559504098992212E-10</v>
       </c>
       <c r="S2">
-        <v>1.551453443593572E-09</v>
+        <v>1.551467235752635E-09</v>
       </c>
       <c r="T2">
-        <v>-2.605323364468785E-14</v>
+        <v>4.736951571761574E-15</v>
       </c>
       <c r="U2">
-        <v>4.833135132335681E-09</v>
+        <v>4.833164775391392E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10890420585755E-09</v>
+        <v>-3.108904674376947E-09</v>
       </c>
       <c r="W2">
-        <v>2.842170943056861E-14</v>
+        <v>-4.736951571761578E-15</v>
       </c>
       <c r="X2">
-        <v>-4.833129912983906E-09</v>
+        <v>-4.833160238248292E-09</v>
       </c>
       <c r="Y2">
-        <v>3.10889576480678E-09</v>
+        <v>3.108903992451766E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4447,37 +4447,37 @@
         <v>1.000000000005802</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891383</v>
+        <v>0.6078088903891377</v>
       </c>
       <c r="AH2">
-        <v>0.434087010414059</v>
+        <v>0.4340870104140589</v>
       </c>
       <c r="AI2">
-        <v>1.000000000005801</v>
+        <v>1.000000000005802</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903608001</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL2">
-        <v>5.46181984527439E-13</v>
+        <v>5.535202897673698E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346804</v>
+        <v>160.6235536346805</v>
       </c>
       <c r="AO2">
-        <v>5.314381825294311E-13</v>
+        <v>5.723280028809368E-13</v>
       </c>
       <c r="AP2">
         <v>-166.2935793242505</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296894</v>
+        <v>160.6235536296895</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4521,40 +4521,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.657933050116516E-14</v>
+        <v>-2.605323364468814E-14</v>
       </c>
       <c r="O3">
-        <v>1.853223521364244E-10</v>
+        <v>1.853144042334214E-10</v>
       </c>
       <c r="P3">
-        <v>5.171562001099703E-10</v>
+        <v>5.171575645273297E-10</v>
       </c>
       <c r="Q3">
-        <v>1.657933050116512E-14</v>
+        <v>2.368475785880746E-14</v>
       </c>
       <c r="R3">
-        <v>-1.853178152235184E-10</v>
+        <v>-1.853126644906908E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171503807124743E-10</v>
+        <v>-5.171536849112303E-10</v>
       </c>
       <c r="T3">
-        <v>-2.368475785880892E-15</v>
+        <v>-2.58149640518719E-28</v>
       </c>
       <c r="U3">
-        <v>-1.611059962226827E-09</v>
+        <v>-1.611045601103884E-09</v>
       </c>
       <c r="V3">
-        <v>1.036302624036354E-09</v>
+        <v>1.03630650359915E-09</v>
       </c>
       <c r="W3">
-        <v>7.105427357642376E-15</v>
+        <v>-4.736951571761246E-15</v>
       </c>
       <c r="X3">
-        <v>1.611059586986259E-09</v>
+        <v>1.611044543654636E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036304670630893E-09</v>
+        <v>-1.036307867985008E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4578,37 +4578,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513545</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AI3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005802</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903608001</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL3">
-        <v>5.22768907759216E-13</v>
+        <v>5.677178152339269E-13</v>
       </c>
       <c r="AM3">
         <v>-166.2935793222524</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280257</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO3">
-        <v>5.314381825294311E-13</v>
+        <v>5.723280028809368E-13</v>
       </c>
       <c r="AP3">
         <v>-166.2935793242505</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296894</v>
+        <v>160.6235536296895</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4652,40 +4652,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.184237892940362E-14</v>
+        <v>-2.605323364468819E-14</v>
       </c>
       <c r="O4">
-        <v>1.85325149306599E-10</v>
+        <v>1.853227274084907E-10</v>
       </c>
       <c r="P4">
-        <v>5.171550493818961E-10</v>
+        <v>5.171544740178581E-10</v>
       </c>
       <c r="Q4">
-        <v>1.18423789294036E-14</v>
+        <v>2.605323364468821E-14</v>
       </c>
       <c r="R4">
-        <v>-1.853247739812273E-10</v>
+        <v>-1.853181904955852E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171517451298344E-10</v>
+        <v>-5.171564137459503E-10</v>
       </c>
       <c r="T4">
-        <v>-9.473903143523071E-15</v>
+        <v>4.736951571761224E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611059280018147E-09</v>
+        <v>-1.611055425367221E-09</v>
       </c>
       <c r="V4">
-        <v>1.036311747579304E-09</v>
+        <v>1.036316309350779E-09</v>
       </c>
       <c r="W4">
-        <v>1.184237892940381E-14</v>
+        <v>-4.736951571761224E-15</v>
       </c>
       <c r="X4">
-        <v>1.611063816909248E-09</v>
+        <v>1.611055050126653E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036308550193688E-09</v>
+        <v>-1.036315627110597E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4709,37 +4709,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513545</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AI4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005802</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903608001</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL4">
-        <v>5.288738006152195E-13</v>
+        <v>5.668273383046846E-13</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222524</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280257</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO4">
-        <v>5.314381825294311E-13</v>
+        <v>5.723280028809368E-13</v>
       </c>
       <c r="AP4">
         <v>-166.2935793242505</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296894</v>
+        <v>160.6235536296895</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -4783,40 +4783,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.368475785880805E-15</v>
+        <v>-2.368475785880716E-15</v>
       </c>
       <c r="O5">
-        <v>-2.421898107303883E-15</v>
+        <v>-4.843796214607753E-15</v>
       </c>
       <c r="P5">
-        <v>1.364417360179168E-15</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>4.736951571761546E-15</v>
+        <v>-2.36847578588074E-15</v>
       </c>
       <c r="R5">
-        <v>5.935444688724147E-15</v>
+        <v>6.924589981866961E-15</v>
       </c>
       <c r="S5">
-        <v>5.819344192265176E-15</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>7.105427357642199E-15</v>
+        <v>-2.368475785880764E-15</v>
       </c>
       <c r="U5">
-        <v>3.854650921464935E-15</v>
+        <v>7.709301842929857E-15</v>
       </c>
       <c r="V5">
-        <v>3.87956279484345E-15</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-7.105427357642177E-15</v>
+        <v>-2.343133886926863E-29</v>
       </c>
       <c r="X5">
-        <v>-3.416772699118137E-17</v>
+        <v>-1.016536767722491E-14</v>
       </c>
       <c r="Y5">
-        <v>-2.046626040268754E-15</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4840,37 +4840,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG5">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513545</v>
       </c>
       <c r="AH5">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AI5">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ5">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513545</v>
       </c>
       <c r="AK5">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AL5">
-        <v>5.22768907759216E-13</v>
+        <v>5.677178152339269E-13</v>
       </c>
       <c r="AM5">
         <v>-166.2935793222524</v>
       </c>
       <c r="AN5">
-        <v>160.6235536280257</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO5">
-        <v>5.288738006152195E-13</v>
+        <v>5.668273383046846E-13</v>
       </c>
       <c r="AP5">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222524</v>
       </c>
       <c r="AQ5">
-        <v>160.6235536280257</v>
+        <v>160.6235536280258</v>
       </c>
     </row>
   </sheetData>
@@ -5058,40 +5058,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.315866100233064E-14</v>
+        <v>9.473903143522919E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559561404307491E-10</v>
+        <v>-5.559500341474189E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551454232167158E-09</v>
+        <v>-1.551465295491497E-09</v>
       </c>
       <c r="Q2">
-        <v>-3.079018521644989E-14</v>
+        <v>-9.473903143522919E-15</v>
       </c>
       <c r="R2">
-        <v>5.559593133527217E-10</v>
+        <v>5.559504098992212E-10</v>
       </c>
       <c r="S2">
-        <v>1.551453443593572E-09</v>
+        <v>1.551467235752635E-09</v>
       </c>
       <c r="T2">
-        <v>-2.605323364468785E-14</v>
+        <v>4.736951571761574E-15</v>
       </c>
       <c r="U2">
-        <v>4.833135132335681E-09</v>
+        <v>4.833164775391392E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10890420585755E-09</v>
+        <v>-3.108904674376947E-09</v>
       </c>
       <c r="W2">
-        <v>2.842170943056861E-14</v>
+        <v>-4.736951571761578E-15</v>
       </c>
       <c r="X2">
-        <v>-4.833129912983906E-09</v>
+        <v>-4.833160238248292E-09</v>
       </c>
       <c r="Y2">
-        <v>3.10889576480678E-09</v>
+        <v>3.108903992451766E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5115,37 +5115,37 @@
         <v>1.000000000005802</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891383</v>
+        <v>0.6078088903891377</v>
       </c>
       <c r="AH2">
-        <v>0.434087010414059</v>
+        <v>0.4340870104140589</v>
       </c>
       <c r="AI2">
-        <v>1.000000000005801</v>
+        <v>1.000000000005802</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903608001</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL2">
-        <v>5.46181984527439E-13</v>
+        <v>5.535202897673698E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346804</v>
+        <v>160.6235536346805</v>
       </c>
       <c r="AO2">
-        <v>5.314381825294311E-13</v>
+        <v>5.723280028809368E-13</v>
       </c>
       <c r="AP2">
         <v>-166.2935793242505</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296894</v>
+        <v>160.6235536296895</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5189,40 +5189,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.657933050116516E-14</v>
+        <v>-2.605323364468814E-14</v>
       </c>
       <c r="O3">
-        <v>1.853223521364244E-10</v>
+        <v>1.853144042334214E-10</v>
       </c>
       <c r="P3">
-        <v>5.171562001099703E-10</v>
+        <v>5.171575645273297E-10</v>
       </c>
       <c r="Q3">
-        <v>1.657933050116512E-14</v>
+        <v>2.368475785880746E-14</v>
       </c>
       <c r="R3">
-        <v>-1.853178152235184E-10</v>
+        <v>-1.853126644906908E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171503807124743E-10</v>
+        <v>-5.171536849112303E-10</v>
       </c>
       <c r="T3">
-        <v>-2.368475785880892E-15</v>
+        <v>-2.58149640518719E-28</v>
       </c>
       <c r="U3">
-        <v>-1.611059962226827E-09</v>
+        <v>-1.611045601103884E-09</v>
       </c>
       <c r="V3">
-        <v>1.036302624036354E-09</v>
+        <v>1.03630650359915E-09</v>
       </c>
       <c r="W3">
-        <v>7.105427357642376E-15</v>
+        <v>-4.736951571761246E-15</v>
       </c>
       <c r="X3">
-        <v>1.611059586986259E-09</v>
+        <v>1.611044543654636E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036304670630893E-09</v>
+        <v>-1.036307867985008E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5246,37 +5246,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513545</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AI3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005802</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903608001</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL3">
-        <v>5.22768907759216E-13</v>
+        <v>5.677178152339269E-13</v>
       </c>
       <c r="AM3">
         <v>-166.2935793222524</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280257</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO3">
-        <v>5.314381825294311E-13</v>
+        <v>5.723280028809368E-13</v>
       </c>
       <c r="AP3">
         <v>-166.2935793242505</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296894</v>
+        <v>160.6235536296895</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5320,40 +5320,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.184237892940362E-14</v>
+        <v>-2.605323364468819E-14</v>
       </c>
       <c r="O4">
-        <v>1.85325149306599E-10</v>
+        <v>1.853227274084907E-10</v>
       </c>
       <c r="P4">
-        <v>5.171550493818961E-10</v>
+        <v>5.171544740178581E-10</v>
       </c>
       <c r="Q4">
-        <v>1.18423789294036E-14</v>
+        <v>2.605323364468821E-14</v>
       </c>
       <c r="R4">
-        <v>-1.853247739812273E-10</v>
+        <v>-1.853181904955852E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171517451298344E-10</v>
+        <v>-5.171564137459503E-10</v>
       </c>
       <c r="T4">
-        <v>-9.473903143523071E-15</v>
+        <v>4.736951571761224E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611059280018147E-09</v>
+        <v>-1.611055425367221E-09</v>
       </c>
       <c r="V4">
-        <v>1.036311747579304E-09</v>
+        <v>1.036316309350779E-09</v>
       </c>
       <c r="W4">
-        <v>1.184237892940381E-14</v>
+        <v>-4.736951571761224E-15</v>
       </c>
       <c r="X4">
-        <v>1.611063816909248E-09</v>
+        <v>1.611055050126653E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036308550193688E-09</v>
+        <v>-1.036315627110597E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5377,37 +5377,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513545</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AI4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005802</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903608001</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL4">
-        <v>5.288738006152195E-13</v>
+        <v>5.668273383046846E-13</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222524</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280257</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO4">
-        <v>5.314381825294311E-13</v>
+        <v>5.723280028809368E-13</v>
       </c>
       <c r="AP4">
         <v>-166.2935793242505</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296894</v>
+        <v>160.6235536296895</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -5451,40 +5451,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.368475785880805E-15</v>
+        <v>-2.368475785880716E-15</v>
       </c>
       <c r="O5">
-        <v>-2.421898107303883E-15</v>
+        <v>-4.843796214607753E-15</v>
       </c>
       <c r="P5">
-        <v>1.364417360179168E-15</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>4.736951571761546E-15</v>
+        <v>-2.36847578588074E-15</v>
       </c>
       <c r="R5">
-        <v>5.935444688724147E-15</v>
+        <v>6.924589981866961E-15</v>
       </c>
       <c r="S5">
-        <v>5.819344192265176E-15</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>7.105427357642199E-15</v>
+        <v>-2.368475785880764E-15</v>
       </c>
       <c r="U5">
-        <v>3.854650921464935E-15</v>
+        <v>7.709301842929857E-15</v>
       </c>
       <c r="V5">
-        <v>3.87956279484345E-15</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-7.105427357642177E-15</v>
+        <v>-2.343133886926863E-29</v>
       </c>
       <c r="X5">
-        <v>-3.416772699118137E-17</v>
+        <v>-1.016536767722491E-14</v>
       </c>
       <c r="Y5">
-        <v>-2.046626040268754E-15</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -5508,37 +5508,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG5">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513545</v>
       </c>
       <c r="AH5">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AI5">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ5">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513545</v>
       </c>
       <c r="AK5">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AL5">
-        <v>5.22768907759216E-13</v>
+        <v>5.677178152339269E-13</v>
       </c>
       <c r="AM5">
         <v>-166.2935793222524</v>
       </c>
       <c r="AN5">
-        <v>160.6235536280257</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO5">
-        <v>5.288738006152195E-13</v>
+        <v>5.668273383046846E-13</v>
       </c>
       <c r="AP5">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222524</v>
       </c>
       <c r="AQ5">
-        <v>160.6235536280257</v>
+        <v>160.6235536280258</v>
       </c>
     </row>
   </sheetData>
@@ -5729,40 +5729,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.94884235054028E-09</v>
+        <v>-2.948862651617142E-09</v>
       </c>
       <c r="O2">
-        <v>-7.361066242155732E-10</v>
+        <v>-7.361411575191921E-10</v>
       </c>
       <c r="P2">
-        <v>-7.383303693456334E-10</v>
+        <v>-7.382970586238677E-10</v>
       </c>
       <c r="Q2">
-        <v>2.948845797538076E-09</v>
+        <v>2.948863081422171E-09</v>
       </c>
       <c r="R2">
-        <v>7.36100816353643E-10</v>
+        <v>7.361304238950157E-10</v>
       </c>
       <c r="S2">
-        <v>7.383439055153656E-10</v>
+        <v>7.382970586876932E-10</v>
       </c>
       <c r="T2">
-        <v>-2.631846524302272E-12</v>
+        <v>-2.606824796903335E-12</v>
       </c>
       <c r="U2">
-        <v>-3.854400850473887E-09</v>
+        <v>-3.854446874703504E-09</v>
       </c>
       <c r="V2">
-        <v>3.853123584980458E-09</v>
+        <v>3.853120603571124E-09</v>
       </c>
       <c r="W2">
-        <v>2.642207730782315E-12</v>
+        <v>2.610278294481065E-12</v>
       </c>
       <c r="X2">
-        <v>3.854394944178976E-09</v>
+        <v>3.854464131964643E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.85312099519607E-09</v>
+        <v>-3.853120603498707E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5783,40 +5783,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3644696238511727</v>
+        <v>0.3644696238511717</v>
       </c>
       <c r="AH2">
-        <v>0.9700090737384316</v>
+        <v>0.9700090737384323</v>
       </c>
       <c r="AI2">
-        <v>0.9697945808474913</v>
+        <v>0.9697945808474918</v>
       </c>
       <c r="AJ2">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827575</v>
       </c>
       <c r="AK2">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589756</v>
       </c>
       <c r="AL2">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328796</v>
       </c>
       <c r="AM2">
-        <v>0.0343303849930081</v>
+        <v>0.03433038499328258</v>
       </c>
       <c r="AN2">
         <v>-100.8284562165842</v>
       </c>
       <c r="AO2">
-        <v>100.8308801221832</v>
+        <v>100.8308801221831</v>
       </c>
       <c r="AP2">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061703405</v>
       </c>
       <c r="AQ2">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR2">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5860,40 +5860,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.829509032428543E-10</v>
+        <v>9.829616952610999E-10</v>
       </c>
       <c r="O3">
-        <v>2.45384337333993E-10</v>
+        <v>2.453687952514986E-10</v>
       </c>
       <c r="P3">
-        <v>2.461148576417605E-10</v>
+        <v>2.460995950612052E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.829474564719908E-10</v>
+        <v>-9.829612656830041E-10</v>
       </c>
       <c r="R3">
-        <v>-2.453901452526561E-10</v>
+        <v>-2.453739557421681E-10</v>
       </c>
       <c r="S3">
-        <v>-2.461112088366907E-10</v>
+        <v>-2.460905709835093E-10</v>
       </c>
       <c r="T3">
-        <v>8.772843724385363E-13</v>
+        <v>8.74701125888421E-13</v>
       </c>
       <c r="U3">
-        <v>1.28478329136488E-09</v>
+        <v>1.284836554670175E-09</v>
       </c>
       <c r="V3">
-        <v>-1.284382976873689E-09</v>
+        <v>-1.284376542515057E-09</v>
       </c>
       <c r="W3">
-        <v>-8.669234234342492E-13</v>
+        <v>-8.71247885790962E-13</v>
       </c>
       <c r="X3">
-        <v>-1.284789197724162E-09</v>
+        <v>-1.284839076227131E-09</v>
       </c>
       <c r="Y3">
-        <v>1.284388352154362E-09</v>
+        <v>1.284378268997751E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5914,40 +5914,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3644696238932873</v>
+        <v>0.3644696238932861</v>
       </c>
       <c r="AH3">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658235</v>
       </c>
       <c r="AI3">
-        <v>0.9697945808280082</v>
+        <v>0.9697945808280086</v>
       </c>
       <c r="AJ3">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827575</v>
       </c>
       <c r="AK3">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589756</v>
       </c>
       <c r="AL3">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328796</v>
       </c>
       <c r="AM3">
-        <v>0.03433039249122443</v>
+        <v>0.03433039249160764</v>
       </c>
       <c r="AN3">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO3">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP3">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061703405</v>
       </c>
       <c r="AQ3">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR3">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5991,40 +5991,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.829578008657154E-10</v>
+        <v>9.829616911232345E-10</v>
       </c>
       <c r="O4">
-        <v>2.453688747668905E-10</v>
+        <v>2.453597691119614E-10</v>
       </c>
       <c r="P4">
-        <v>2.461419298535735E-10</v>
+        <v>2.461086191318096E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.829578070441466E-10</v>
+        <v>-9.829612615451386E-10</v>
       </c>
       <c r="R4">
-        <v>-2.453720929735819E-10</v>
+        <v>-2.453722292675204E-10</v>
       </c>
       <c r="S4">
-        <v>-2.461292569778994E-10</v>
+        <v>-2.461086191247181E-10</v>
       </c>
       <c r="T4">
-        <v>8.911003074866904E-13</v>
+        <v>8.816070244795432E-13</v>
       </c>
       <c r="U4">
-        <v>1.284800283523481E-09</v>
+        <v>1.284838281144823E-09</v>
       </c>
       <c r="V4">
-        <v>-1.284377797449745E-09</v>
+        <v>-1.28437481604041E-09</v>
       </c>
       <c r="W4">
-        <v>-8.807414274146606E-13</v>
+        <v>-8.781537843821052E-13</v>
       </c>
       <c r="X4">
-        <v>-1.284792650673458E-09</v>
+        <v>-1.284830050087593E-09</v>
       </c>
       <c r="Y4">
-        <v>1.284384899205066E-09</v>
+        <v>1.284374816048456E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6045,40 +6045,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3644696238932877</v>
+        <v>0.3644696238932862</v>
       </c>
       <c r="AH4">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658235</v>
       </c>
       <c r="AI4">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280087</v>
       </c>
       <c r="AJ4">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827575</v>
       </c>
       <c r="AK4">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589756</v>
       </c>
       <c r="AL4">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328796</v>
       </c>
       <c r="AM4">
-        <v>0.03433039249121426</v>
+        <v>0.03433039249159479</v>
       </c>
       <c r="AN4">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO4">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP4">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061703405</v>
       </c>
       <c r="AQ4">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR4">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -6122,40 +6122,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.588160272137461E-15</v>
+        <v>5.181492876328272E-15</v>
       </c>
       <c r="O5">
-        <v>8.692962449671304E-15</v>
+        <v>4.94468843052881E-15</v>
       </c>
       <c r="P5">
-        <v>-1.267286858255978E-14</v>
+        <v>4.512035302159231E-15</v>
       </c>
       <c r="Q5">
-        <v>5.603801340591168E-15</v>
+        <v>-5.182527342738953E-15</v>
       </c>
       <c r="R5">
-        <v>-1.310759064375078E-14</v>
+        <v>-1.322495840023984E-14</v>
       </c>
       <c r="S5">
-        <v>1.180963125864188E-14</v>
+        <v>3.648797978241331E-15</v>
       </c>
       <c r="T5">
-        <v>-2.591263671369467E-15</v>
+        <v>-3.449845896439235E-15</v>
       </c>
       <c r="U5">
-        <v>-1.569730261550422E-14</v>
+        <v>1.393297560367136E-15</v>
       </c>
       <c r="V5">
-        <v>-7.101747273912938E-15</v>
+        <v>8.632373239179001E-16</v>
       </c>
       <c r="W5">
-        <v>1.208868455068418E-14</v>
+        <v>5.176320544274876E-15</v>
       </c>
       <c r="X5">
-        <v>4.846246856038388E-15</v>
+        <v>-7.996313669487742E-15</v>
       </c>
       <c r="Y5">
-        <v>1.161378257607217E-14</v>
+        <v>5.375272626077132E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -6176,40 +6176,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3644696238932873</v>
+        <v>0.3644696238932861</v>
       </c>
       <c r="AH5">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658235</v>
       </c>
       <c r="AI5">
-        <v>0.9697945808280082</v>
+        <v>0.9697945808280086</v>
       </c>
       <c r="AJ5">
-        <v>0.3644696238932877</v>
+        <v>0.3644696238932862</v>
       </c>
       <c r="AK5">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658235</v>
       </c>
       <c r="AL5">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280087</v>
       </c>
       <c r="AM5">
-        <v>0.03433039249122443</v>
+        <v>0.03433039249160764</v>
       </c>
       <c r="AN5">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO5">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP5">
-        <v>0.03433039249121426</v>
+        <v>0.03433039249159479</v>
       </c>
       <c r="AQ5">
         <v>-100.8284562175402</v>
       </c>
       <c r="AR5">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
     </row>
   </sheetData>
@@ -6400,40 +6400,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.94884235054028E-09</v>
+        <v>-2.948862651617142E-09</v>
       </c>
       <c r="O2">
-        <v>-7.361066242155732E-10</v>
+        <v>-7.361411575191921E-10</v>
       </c>
       <c r="P2">
-        <v>-7.383303693456334E-10</v>
+        <v>-7.382970586238677E-10</v>
       </c>
       <c r="Q2">
-        <v>2.948845797538076E-09</v>
+        <v>2.948863081422171E-09</v>
       </c>
       <c r="R2">
-        <v>7.36100816353643E-10</v>
+        <v>7.361304238950157E-10</v>
       </c>
       <c r="S2">
-        <v>7.383439055153656E-10</v>
+        <v>7.382970586876932E-10</v>
       </c>
       <c r="T2">
-        <v>-2.631846524302272E-12</v>
+        <v>-2.606824796903335E-12</v>
       </c>
       <c r="U2">
-        <v>-3.854400850473887E-09</v>
+        <v>-3.854446874703504E-09</v>
       </c>
       <c r="V2">
-        <v>3.853123584980458E-09</v>
+        <v>3.853120603571124E-09</v>
       </c>
       <c r="W2">
-        <v>2.642207730782315E-12</v>
+        <v>2.610278294481065E-12</v>
       </c>
       <c r="X2">
-        <v>3.854394944178976E-09</v>
+        <v>3.854464131964643E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.85312099519607E-09</v>
+        <v>-3.853120603498707E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6454,40 +6454,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3644696238511727</v>
+        <v>0.3644696238511717</v>
       </c>
       <c r="AH2">
-        <v>0.9700090737384316</v>
+        <v>0.9700090737384323</v>
       </c>
       <c r="AI2">
-        <v>0.9697945808474913</v>
+        <v>0.9697945808474918</v>
       </c>
       <c r="AJ2">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827575</v>
       </c>
       <c r="AK2">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589756</v>
       </c>
       <c r="AL2">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328796</v>
       </c>
       <c r="AM2">
-        <v>0.0343303849930081</v>
+        <v>0.03433038499328258</v>
       </c>
       <c r="AN2">
         <v>-100.8284562165842</v>
       </c>
       <c r="AO2">
-        <v>100.8308801221832</v>
+        <v>100.8308801221831</v>
       </c>
       <c r="AP2">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061703405</v>
       </c>
       <c r="AQ2">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR2">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -6531,40 +6531,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.829509032428543E-10</v>
+        <v>9.829616952610999E-10</v>
       </c>
       <c r="O3">
-        <v>2.45384337333993E-10</v>
+        <v>2.453687952514986E-10</v>
       </c>
       <c r="P3">
-        <v>2.461148576417605E-10</v>
+        <v>2.460995950612052E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.829474564719908E-10</v>
+        <v>-9.829612656830041E-10</v>
       </c>
       <c r="R3">
-        <v>-2.453901452526561E-10</v>
+        <v>-2.453739557421681E-10</v>
       </c>
       <c r="S3">
-        <v>-2.461112088366907E-10</v>
+        <v>-2.460905709835093E-10</v>
       </c>
       <c r="T3">
-        <v>8.772843724385363E-13</v>
+        <v>8.74701125888421E-13</v>
       </c>
       <c r="U3">
-        <v>1.28478329136488E-09</v>
+        <v>1.284836554670175E-09</v>
       </c>
       <c r="V3">
-        <v>-1.284382976873689E-09</v>
+        <v>-1.284376542515057E-09</v>
       </c>
       <c r="W3">
-        <v>-8.669234234342492E-13</v>
+        <v>-8.71247885790962E-13</v>
       </c>
       <c r="X3">
-        <v>-1.284789197724162E-09</v>
+        <v>-1.284839076227131E-09</v>
       </c>
       <c r="Y3">
-        <v>1.284388352154362E-09</v>
+        <v>1.284378268997751E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6585,40 +6585,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3644696238932873</v>
+        <v>0.3644696238932861</v>
       </c>
       <c r="AH3">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658235</v>
       </c>
       <c r="AI3">
-        <v>0.9697945808280082</v>
+        <v>0.9697945808280086</v>
       </c>
       <c r="AJ3">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827575</v>
       </c>
       <c r="AK3">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589756</v>
       </c>
       <c r="AL3">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328796</v>
       </c>
       <c r="AM3">
-        <v>0.03433039249122443</v>
+        <v>0.03433039249160764</v>
       </c>
       <c r="AN3">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO3">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP3">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061703405</v>
       </c>
       <c r="AQ3">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR3">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6662,40 +6662,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.829578008657154E-10</v>
+        <v>9.829616911232345E-10</v>
       </c>
       <c r="O4">
-        <v>2.453688747668905E-10</v>
+        <v>2.453597691119614E-10</v>
       </c>
       <c r="P4">
-        <v>2.461419298535735E-10</v>
+        <v>2.461086191318096E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.829578070441466E-10</v>
+        <v>-9.829612615451386E-10</v>
       </c>
       <c r="R4">
-        <v>-2.453720929735819E-10</v>
+        <v>-2.453722292675204E-10</v>
       </c>
       <c r="S4">
-        <v>-2.461292569778994E-10</v>
+        <v>-2.461086191247181E-10</v>
       </c>
       <c r="T4">
-        <v>8.911003074866904E-13</v>
+        <v>8.816070244795432E-13</v>
       </c>
       <c r="U4">
-        <v>1.284800283523481E-09</v>
+        <v>1.284838281144823E-09</v>
       </c>
       <c r="V4">
-        <v>-1.284377797449745E-09</v>
+        <v>-1.28437481604041E-09</v>
       </c>
       <c r="W4">
-        <v>-8.807414274146606E-13</v>
+        <v>-8.781537843821052E-13</v>
       </c>
       <c r="X4">
-        <v>-1.284792650673458E-09</v>
+        <v>-1.284830050087593E-09</v>
       </c>
       <c r="Y4">
-        <v>1.284384899205066E-09</v>
+        <v>1.284374816048456E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6716,40 +6716,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3644696238932877</v>
+        <v>0.3644696238932862</v>
       </c>
       <c r="AH4">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658235</v>
       </c>
       <c r="AI4">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280087</v>
       </c>
       <c r="AJ4">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827575</v>
       </c>
       <c r="AK4">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589756</v>
       </c>
       <c r="AL4">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328796</v>
       </c>
       <c r="AM4">
-        <v>0.03433039249121426</v>
+        <v>0.03433039249159479</v>
       </c>
       <c r="AN4">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO4">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP4">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061703405</v>
       </c>
       <c r="AQ4">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR4">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -6793,40 +6793,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.588160272137461E-15</v>
+        <v>5.181492876328272E-15</v>
       </c>
       <c r="O5">
-        <v>8.692962449671304E-15</v>
+        <v>4.94468843052881E-15</v>
       </c>
       <c r="P5">
-        <v>-1.267286858255978E-14</v>
+        <v>4.512035302159231E-15</v>
       </c>
       <c r="Q5">
-        <v>5.603801340591168E-15</v>
+        <v>-5.182527342738953E-15</v>
       </c>
       <c r="R5">
-        <v>-1.310759064375078E-14</v>
+        <v>-1.322495840023984E-14</v>
       </c>
       <c r="S5">
-        <v>1.180963125864188E-14</v>
+        <v>3.648797978241331E-15</v>
       </c>
       <c r="T5">
-        <v>-2.591263671369467E-15</v>
+        <v>-3.449845896439235E-15</v>
       </c>
       <c r="U5">
-        <v>-1.569730261550422E-14</v>
+        <v>1.393297560367136E-15</v>
       </c>
       <c r="V5">
-        <v>-7.101747273912938E-15</v>
+        <v>8.632373239179001E-16</v>
       </c>
       <c r="W5">
-        <v>1.208868455068418E-14</v>
+        <v>5.176320544274876E-15</v>
       </c>
       <c r="X5">
-        <v>4.846246856038388E-15</v>
+        <v>-7.996313669487742E-15</v>
       </c>
       <c r="Y5">
-        <v>1.161378257607217E-14</v>
+        <v>5.375272626077132E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -6847,40 +6847,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3644696238932873</v>
+        <v>0.3644696238932861</v>
       </c>
       <c r="AH5">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658235</v>
       </c>
       <c r="AI5">
-        <v>0.9697945808280082</v>
+        <v>0.9697945808280086</v>
       </c>
       <c r="AJ5">
-        <v>0.3644696238932877</v>
+        <v>0.3644696238932862</v>
       </c>
       <c r="AK5">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658235</v>
       </c>
       <c r="AL5">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280087</v>
       </c>
       <c r="AM5">
-        <v>0.03433039249122443</v>
+        <v>0.03433039249160764</v>
       </c>
       <c r="AN5">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO5">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP5">
-        <v>0.03433039249121426</v>
+        <v>0.03433039249159479</v>
       </c>
       <c r="AQ5">
         <v>-100.8284562175402</v>
       </c>
       <c r="AR5">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
     </row>
   </sheetData>
@@ -7071,40 +7071,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.139219592425468E-09</v>
+        <v>-3.139247732412731E-09</v>
       </c>
       <c r="O2">
-        <v>-1.401002092550954E-09</v>
+        <v>-1.401017575502242E-09</v>
       </c>
       <c r="P2">
-        <v>-1.686109590965717E-10</v>
+        <v>-1.686133546399988E-10</v>
       </c>
       <c r="Q2">
-        <v>3.139210706545364E-09</v>
+        <v>3.139241214074367E-09</v>
       </c>
       <c r="R2">
-        <v>1.400998896781519E-09</v>
+        <v>1.40101685633878E-09</v>
       </c>
       <c r="S2">
-        <v>1.686291663183075E-10</v>
+        <v>1.686109591268402E-10</v>
       </c>
       <c r="T2">
-        <v>1.422976457147646E-09</v>
+        <v>1.422996829510209E-09</v>
       </c>
       <c r="U2">
-        <v>-2.225664220843995E-09</v>
+        <v>-2.225713271650315E-09</v>
       </c>
       <c r="V2">
-        <v>2.937193531378306E-09</v>
+        <v>2.937192812184574E-09</v>
       </c>
       <c r="W2">
-        <v>-1.422979959427625E-09</v>
+        <v>-1.422988105496738E-09</v>
       </c>
       <c r="X2">
-        <v>2.225661764558413E-09</v>
+        <v>2.225711154675554E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.937193288074692E-09</v>
+        <v>-2.937193531343961E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7125,25 +7125,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.618586631852206</v>
+        <v>0.6185866318522053</v>
       </c>
       <c r="AH2">
-        <v>0.9439982598637759</v>
+        <v>0.9439982598637764</v>
       </c>
       <c r="AI2">
         <v>1.056026550193052</v>
       </c>
       <c r="AJ2">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618183</v>
       </c>
       <c r="AK2">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799979</v>
       </c>
       <c r="AL2">
         <v>1.056026550181367</v>
       </c>
       <c r="AM2">
-        <v>-10.95931300975982</v>
+        <v>-10.95931300975972</v>
       </c>
       <c r="AN2">
         <v>-108.7637340183826</v>
@@ -7152,7 +7152,7 @@
         <v>106.7108886474994</v>
       </c>
       <c r="AP2">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684878</v>
       </c>
       <c r="AQ2">
         <v>-108.7637340185421</v>
@@ -7202,40 +7202,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046411355964419E-09</v>
+        <v>1.046416623139013E-09</v>
       </c>
       <c r="O3">
-        <v>4.669997386054615E-10</v>
+        <v>4.670073509977855E-10</v>
       </c>
       <c r="P3">
-        <v>5.620972387847775E-11</v>
+        <v>5.619774616133383E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046413374265002E-09</v>
+        <v>-1.046415159760569E-09</v>
       </c>
       <c r="R3">
-        <v>-4.67005730032552E-10</v>
+        <v>-4.67010865818903E-10</v>
       </c>
       <c r="S3">
-        <v>-5.620109885736391E-11</v>
+        <v>-5.620014170139906E-11</v>
       </c>
       <c r="T3">
-        <v>-4.743313944169963E-10</v>
+        <v>-4.743234604280117E-10</v>
       </c>
       <c r="U3">
-        <v>7.418852509511207E-10</v>
+        <v>7.419180848783192E-10</v>
       </c>
       <c r="V3">
-        <v>-9.790731336929091E-10</v>
+        <v>-9.790767296615706E-10</v>
       </c>
       <c r="W3">
-        <v>4.743325314274757E-10</v>
+        <v>4.743425772817969E-10</v>
       </c>
       <c r="X3">
-        <v>-7.418820348615546E-10</v>
+        <v>-7.419145294779318E-10</v>
       </c>
       <c r="Y3">
-        <v>9.790705001910644E-10</v>
+        <v>9.790760104716548E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7256,25 +7256,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650223</v>
       </c>
       <c r="AH3">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854051</v>
       </c>
       <c r="AI3">
         <v>1.056026550177472</v>
       </c>
       <c r="AJ3">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618183</v>
       </c>
       <c r="AK3">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799979</v>
       </c>
       <c r="AL3">
         <v>1.056026550181367</v>
       </c>
       <c r="AM3">
-        <v>-10.95931300587861</v>
+        <v>-10.95931300587847</v>
       </c>
       <c r="AN3">
         <v>-108.7637340185952</v>
@@ -7283,7 +7283,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP3">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684878</v>
       </c>
       <c r="AQ3">
         <v>-108.7637340185421</v>
@@ -7333,40 +7333,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046413584238996E-09</v>
+        <v>1.046423490826159E-09</v>
       </c>
       <c r="O4">
-        <v>4.670039726236747E-10</v>
+        <v>4.669946489431459E-10</v>
       </c>
       <c r="P4">
-        <v>5.621930605219267E-11</v>
+        <v>5.621211942190607E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046415602539579E-09</v>
+        <v>-1.046418502172435E-09</v>
       </c>
       <c r="R4">
-        <v>-4.67005730032552E-10</v>
+        <v>-4.669981637642634E-10</v>
       </c>
       <c r="S4">
-        <v>-5.621068103107879E-11</v>
+        <v>-5.620972387511395E-11</v>
       </c>
       <c r="T4">
-        <v>-4.743198873172808E-10</v>
+        <v>-4.743188210154422E-10</v>
       </c>
       <c r="U4">
-        <v>7.418838125636564E-10</v>
+        <v>7.419224000407125E-10</v>
       </c>
       <c r="V4">
-        <v>-9.790702569179802E-10</v>
+        <v>-9.79072414499177E-10</v>
       </c>
       <c r="W4">
-        <v>4.7432102432776E-10</v>
+        <v>4.743253166322235E-10</v>
       </c>
       <c r="X4">
-        <v>-7.418820348615546E-10</v>
+        <v>-7.419188446403251E-10</v>
       </c>
       <c r="Y4">
-        <v>9.790676234161357E-10</v>
+        <v>9.790731336967259E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7387,25 +7387,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650223</v>
       </c>
       <c r="AH4">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854051</v>
       </c>
       <c r="AI4">
         <v>1.056026550177472</v>
       </c>
       <c r="AJ4">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618183</v>
       </c>
       <c r="AK4">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799979</v>
       </c>
       <c r="AL4">
         <v>1.056026550181367</v>
       </c>
       <c r="AM4">
-        <v>-10.95931300587862</v>
+        <v>-10.95931300587847</v>
       </c>
       <c r="AN4">
         <v>-108.7637340185952</v>
@@ -7414,7 +7414,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP4">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684878</v>
       </c>
       <c r="AQ4">
         <v>-108.7637340185421</v>
@@ -7464,40 +7464,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.354062410371609E-15</v>
+        <v>-4.175895232348997E-15</v>
       </c>
       <c r="O5">
-        <v>-3.914993437194899E-15</v>
+        <v>5.292522766533201E-15</v>
       </c>
       <c r="P5">
-        <v>4.812315002236296E-16</v>
+        <v>-3.352699392948736E-15</v>
       </c>
       <c r="Q5">
-        <v>-4.778679730533062E-15</v>
+        <v>-2.527547226784867E-15</v>
       </c>
       <c r="R5">
-        <v>-6.786216421479811E-16</v>
+        <v>-1.198286090744703E-14</v>
       </c>
       <c r="S5">
-        <v>3.352699392948732E-15</v>
+        <v>9.58217371482813E-15</v>
       </c>
       <c r="T5">
-        <v>-4.40871370044616E-15</v>
+        <v>1.554796698513858E-15</v>
       </c>
       <c r="U5">
-        <v>-4.573329034300547E-15</v>
+        <v>-1.797984330581623E-15</v>
       </c>
       <c r="V5">
-        <v>-1.030136744706079E-14</v>
+        <v>-6.229474321879395E-15</v>
       </c>
       <c r="W5">
-        <v>6.148493414003481E-15</v>
+        <v>1.392035730751568E-14</v>
       </c>
       <c r="X5">
-        <v>4.953211945459205E-15</v>
+        <v>6.432171500009176E-15</v>
       </c>
       <c r="Y5">
-        <v>6.229474321879395E-15</v>
+        <v>2.876774928930658E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -7518,25 +7518,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650223</v>
       </c>
       <c r="AH5">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854051</v>
       </c>
       <c r="AI5">
         <v>1.056026550177472</v>
       </c>
       <c r="AJ5">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650223</v>
       </c>
       <c r="AK5">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854051</v>
       </c>
       <c r="AL5">
         <v>1.056026550177472</v>
       </c>
       <c r="AM5">
-        <v>-10.95931300587861</v>
+        <v>-10.95931300587847</v>
       </c>
       <c r="AN5">
         <v>-108.7637340185952</v>
@@ -7545,7 +7545,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP5">
-        <v>-10.95931300587862</v>
+        <v>-10.95931300587847</v>
       </c>
       <c r="AQ5">
         <v>-108.7637340185952</v>
@@ -8020,40 +8020,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.139219592425468E-09</v>
+        <v>-3.139247732412731E-09</v>
       </c>
       <c r="O2">
-        <v>-1.401002092550954E-09</v>
+        <v>-1.401017575502242E-09</v>
       </c>
       <c r="P2">
-        <v>-1.686109590965717E-10</v>
+        <v>-1.686133546399988E-10</v>
       </c>
       <c r="Q2">
-        <v>3.139210706545364E-09</v>
+        <v>3.139241214074367E-09</v>
       </c>
       <c r="R2">
-        <v>1.400998896781519E-09</v>
+        <v>1.40101685633878E-09</v>
       </c>
       <c r="S2">
-        <v>1.686291663183075E-10</v>
+        <v>1.686109591268402E-10</v>
       </c>
       <c r="T2">
-        <v>1.422976457147646E-09</v>
+        <v>1.422996829510209E-09</v>
       </c>
       <c r="U2">
-        <v>-2.225664220843995E-09</v>
+        <v>-2.225713271650315E-09</v>
       </c>
       <c r="V2">
-        <v>2.937193531378306E-09</v>
+        <v>2.937192812184574E-09</v>
       </c>
       <c r="W2">
-        <v>-1.422979959427625E-09</v>
+        <v>-1.422988105496738E-09</v>
       </c>
       <c r="X2">
-        <v>2.225661764558413E-09</v>
+        <v>2.225711154675554E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.937193288074692E-09</v>
+        <v>-2.937193531343961E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.618586631852206</v>
+        <v>0.6185866318522053</v>
       </c>
       <c r="AH2">
-        <v>0.9439982598637759</v>
+        <v>0.9439982598637764</v>
       </c>
       <c r="AI2">
         <v>1.056026550193052</v>
       </c>
       <c r="AJ2">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618183</v>
       </c>
       <c r="AK2">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799979</v>
       </c>
       <c r="AL2">
         <v>1.056026550181367</v>
       </c>
       <c r="AM2">
-        <v>-10.95931300975982</v>
+        <v>-10.95931300975972</v>
       </c>
       <c r="AN2">
         <v>-108.7637340183826</v>
@@ -8101,7 +8101,7 @@
         <v>106.7108886474994</v>
       </c>
       <c r="AP2">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684878</v>
       </c>
       <c r="AQ2">
         <v>-108.7637340185421</v>
@@ -8151,40 +8151,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046411355964419E-09</v>
+        <v>1.046416623139013E-09</v>
       </c>
       <c r="O3">
-        <v>4.669997386054615E-10</v>
+        <v>4.670073509977855E-10</v>
       </c>
       <c r="P3">
-        <v>5.620972387847775E-11</v>
+        <v>5.619774616133383E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046413374265002E-09</v>
+        <v>-1.046415159760569E-09</v>
       </c>
       <c r="R3">
-        <v>-4.67005730032552E-10</v>
+        <v>-4.67010865818903E-10</v>
       </c>
       <c r="S3">
-        <v>-5.620109885736391E-11</v>
+        <v>-5.620014170139906E-11</v>
       </c>
       <c r="T3">
-        <v>-4.743313944169963E-10</v>
+        <v>-4.743234604280117E-10</v>
       </c>
       <c r="U3">
-        <v>7.418852509511207E-10</v>
+        <v>7.419180848783192E-10</v>
       </c>
       <c r="V3">
-        <v>-9.790731336929091E-10</v>
+        <v>-9.790767296615706E-10</v>
       </c>
       <c r="W3">
-        <v>4.743325314274757E-10</v>
+        <v>4.743425772817969E-10</v>
       </c>
       <c r="X3">
-        <v>-7.418820348615546E-10</v>
+        <v>-7.419145294779318E-10</v>
       </c>
       <c r="Y3">
-        <v>9.790705001910644E-10</v>
+        <v>9.790760104716548E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8205,25 +8205,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650223</v>
       </c>
       <c r="AH3">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854051</v>
       </c>
       <c r="AI3">
         <v>1.056026550177472</v>
       </c>
       <c r="AJ3">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618183</v>
       </c>
       <c r="AK3">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799979</v>
       </c>
       <c r="AL3">
         <v>1.056026550181367</v>
       </c>
       <c r="AM3">
-        <v>-10.95931300587861</v>
+        <v>-10.95931300587847</v>
       </c>
       <c r="AN3">
         <v>-108.7637340185952</v>
@@ -8232,7 +8232,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP3">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684878</v>
       </c>
       <c r="AQ3">
         <v>-108.7637340185421</v>
@@ -8282,40 +8282,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046413584238996E-09</v>
+        <v>1.046423490826159E-09</v>
       </c>
       <c r="O4">
-        <v>4.670039726236747E-10</v>
+        <v>4.669946489431459E-10</v>
       </c>
       <c r="P4">
-        <v>5.621930605219267E-11</v>
+        <v>5.621211942190607E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046415602539579E-09</v>
+        <v>-1.046418502172435E-09</v>
       </c>
       <c r="R4">
-        <v>-4.67005730032552E-10</v>
+        <v>-4.669981637642634E-10</v>
       </c>
       <c r="S4">
-        <v>-5.621068103107879E-11</v>
+        <v>-5.620972387511395E-11</v>
       </c>
       <c r="T4">
-        <v>-4.743198873172808E-10</v>
+        <v>-4.743188210154422E-10</v>
       </c>
       <c r="U4">
-        <v>7.418838125636564E-10</v>
+        <v>7.419224000407125E-10</v>
       </c>
       <c r="V4">
-        <v>-9.790702569179802E-10</v>
+        <v>-9.79072414499177E-10</v>
       </c>
       <c r="W4">
-        <v>4.7432102432776E-10</v>
+        <v>4.743253166322235E-10</v>
       </c>
       <c r="X4">
-        <v>-7.418820348615546E-10</v>
+        <v>-7.419188446403251E-10</v>
       </c>
       <c r="Y4">
-        <v>9.790676234161357E-10</v>
+        <v>9.790731336967259E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8336,25 +8336,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650223</v>
       </c>
       <c r="AH4">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854051</v>
       </c>
       <c r="AI4">
         <v>1.056026550177472</v>
       </c>
       <c r="AJ4">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618183</v>
       </c>
       <c r="AK4">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799979</v>
       </c>
       <c r="AL4">
         <v>1.056026550181367</v>
       </c>
       <c r="AM4">
-        <v>-10.95931300587862</v>
+        <v>-10.95931300587847</v>
       </c>
       <c r="AN4">
         <v>-108.7637340185952</v>
@@ -8363,7 +8363,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP4">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684878</v>
       </c>
       <c r="AQ4">
         <v>-108.7637340185421</v>
@@ -8413,40 +8413,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.354062410371609E-15</v>
+        <v>-4.175895232348997E-15</v>
       </c>
       <c r="O5">
-        <v>-3.914993437194899E-15</v>
+        <v>5.292522766533201E-15</v>
       </c>
       <c r="P5">
-        <v>4.812315002236296E-16</v>
+        <v>-3.352699392948736E-15</v>
       </c>
       <c r="Q5">
-        <v>-4.778679730533062E-15</v>
+        <v>-2.527547226784867E-15</v>
       </c>
       <c r="R5">
-        <v>-6.786216421479811E-16</v>
+        <v>-1.198286090744703E-14</v>
       </c>
       <c r="S5">
-        <v>3.352699392948732E-15</v>
+        <v>9.58217371482813E-15</v>
       </c>
       <c r="T5">
-        <v>-4.40871370044616E-15</v>
+        <v>1.554796698513858E-15</v>
       </c>
       <c r="U5">
-        <v>-4.573329034300547E-15</v>
+        <v>-1.797984330581623E-15</v>
       </c>
       <c r="V5">
-        <v>-1.030136744706079E-14</v>
+        <v>-6.229474321879395E-15</v>
       </c>
       <c r="W5">
-        <v>6.148493414003481E-15</v>
+        <v>1.392035730751568E-14</v>
       </c>
       <c r="X5">
-        <v>4.953211945459205E-15</v>
+        <v>6.432171500009176E-15</v>
       </c>
       <c r="Y5">
-        <v>6.229474321879395E-15</v>
+        <v>2.876774928930658E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -8467,25 +8467,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650223</v>
       </c>
       <c r="AH5">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854051</v>
       </c>
       <c r="AI5">
         <v>1.056026550177472</v>
       </c>
       <c r="AJ5">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650223</v>
       </c>
       <c r="AK5">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854051</v>
       </c>
       <c r="AL5">
         <v>1.056026550177472</v>
       </c>
       <c r="AM5">
-        <v>-10.95931300587861</v>
+        <v>-10.95931300587847</v>
       </c>
       <c r="AN5">
         <v>-108.7637340185952</v>
@@ -8494,7 +8494,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP5">
-        <v>-10.95931300587862</v>
+        <v>-10.95931300587847</v>
       </c>
       <c r="AQ5">
         <v>-108.7637340185952</v>
@@ -8691,40 +8691,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.436079110586352E-09</v>
+        <v>-2.436080674562885E-09</v>
       </c>
       <c r="O2">
-        <v>-6.079657777500475E-10</v>
+        <v>-6.079364379060582E-10</v>
       </c>
       <c r="P2">
-        <v>-6.101204553926416E-10</v>
+        <v>-6.101019973508836E-10</v>
       </c>
       <c r="Q2">
-        <v>2.436080679235042E-09</v>
+        <v>2.436079498785876E-09</v>
       </c>
       <c r="R2">
-        <v>6.079719321320142E-10</v>
+        <v>6.079364380074192E-10</v>
       </c>
       <c r="S2">
-        <v>6.101150869350427E-10</v>
+        <v>6.101007306803419E-10</v>
       </c>
       <c r="T2">
-        <v>-2.477156175009268E-12</v>
+        <v>-2.483430214713716E-12</v>
       </c>
       <c r="U2">
-        <v>-3.186851092631166E-09</v>
+        <v>-3.186881153043595E-09</v>
       </c>
       <c r="V2">
-        <v>3.185593754630543E-09</v>
+        <v>3.185597283177868E-09</v>
       </c>
       <c r="W2">
-        <v>2.477157481281443E-12</v>
+        <v>2.483429654290485E-12</v>
       </c>
       <c r="X2">
-        <v>3.186849916508622E-09</v>
+        <v>3.186881153103493E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.185599032540144E-09</v>
+        <v>-3.185601776965841E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3310660019364454</v>
+        <v>0.3310660019364466</v>
       </c>
       <c r="AH2">
         <v>0.8818141464759023</v>
@@ -8754,31 +8754,31 @@
         <v>0.8815929672376949</v>
       </c>
       <c r="AJ2">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915785</v>
       </c>
       <c r="AK2">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970567</v>
       </c>
       <c r="AL2">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268873</v>
       </c>
       <c r="AM2">
-        <v>0.03897125581011066</v>
+        <v>0.03897125581010813</v>
       </c>
       <c r="AN2">
         <v>-100.8196771664425</v>
       </c>
       <c r="AO2">
-        <v>100.8224244169424</v>
+        <v>100.8224244169423</v>
       </c>
       <c r="AP2">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143543055</v>
       </c>
       <c r="AQ2">
         <v>-100.8196771680026</v>
       </c>
       <c r="AR2">
-        <v>100.8224244188999</v>
+        <v>100.8224244188998</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8822,40 +8822,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.120310797277046E-10</v>
+        <v>8.120295082844017E-10</v>
       </c>
       <c r="O3">
-        <v>2.026654161167396E-10</v>
+        <v>2.02646424529901E-10</v>
       </c>
       <c r="P3">
-        <v>2.033717961467276E-10</v>
+        <v>2.033628084509863E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.120295103727167E-10</v>
+        <v>-8.120306844217951E-10</v>
       </c>
       <c r="R3">
-        <v>-2.026666834107198E-10</v>
+        <v>-2.026423216648998E-10</v>
       </c>
       <c r="S3">
-        <v>-2.033771646944225E-10</v>
+        <v>-2.033661261051528E-10</v>
       </c>
       <c r="T3">
-        <v>8.18926310762044E-13</v>
+        <v>8.236299738461586E-13</v>
       </c>
       <c r="U3">
-        <v>1.062277503725596E-09</v>
+        <v>1.062294954638794E-09</v>
       </c>
       <c r="V3">
-        <v>-1.061870576647387E-09</v>
+        <v>-1.061868043103587E-09</v>
       </c>
       <c r="W3">
-        <v>-8.20493460712904E-13</v>
+        <v>-8.236307472359454E-13</v>
       </c>
       <c r="X3">
-        <v>-1.062273008804388E-09</v>
+        <v>-1.062295738753767E-09</v>
       </c>
       <c r="Y3">
-        <v>1.061865298684544E-09</v>
+        <v>1.061863157201558E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099559</v>
       </c>
       <c r="AH3">
         <v>0.8818141465041077</v>
@@ -8885,31 +8885,31 @@
         <v>0.8815929672232853</v>
       </c>
       <c r="AJ3">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915785</v>
       </c>
       <c r="AK3">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970567</v>
       </c>
       <c r="AL3">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268873</v>
       </c>
       <c r="AM3">
-        <v>0.03897126331067127</v>
+        <v>0.038971263310646</v>
       </c>
       <c r="AN3">
         <v>-100.8196771685226</v>
       </c>
       <c r="AO3">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
       <c r="AP3">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143543055</v>
       </c>
       <c r="AQ3">
         <v>-100.8196771680026</v>
       </c>
       <c r="AR3">
-        <v>100.8224244188999</v>
+        <v>100.8224244188998</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8953,40 +8953,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.120279421745101E-10</v>
+        <v>8.120295082844017E-10</v>
       </c>
       <c r="O4">
-        <v>2.026605291413727E-10</v>
+        <v>2.026428048597756E-10</v>
       </c>
       <c r="P4">
-        <v>2.033758979337838E-10</v>
+        <v>2.033689611315706E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.120295082393508E-10</v>
+        <v>-8.120244114487722E-10</v>
       </c>
       <c r="R4">
-        <v>-2.026576935816139E-10</v>
+        <v>-2.026428048485136E-10</v>
       </c>
       <c r="S4">
-        <v>-2.033771646944225E-10</v>
+        <v>-2.033717961354647E-10</v>
       </c>
       <c r="T4">
-        <v>8.20492420651829E-13</v>
+        <v>8.236299738460275E-13</v>
       </c>
       <c r="U4">
-        <v>1.062274184993485E-09</v>
+        <v>1.06228714099213E-09</v>
       </c>
       <c r="V4">
-        <v>-1.061869792525759E-09</v>
+        <v>-1.061866866921145E-09</v>
       </c>
       <c r="W4">
-        <v>-8.236299472243344E-13</v>
+        <v>-8.236264805044089E-13</v>
       </c>
       <c r="X4">
-        <v>-1.062270474193905E-09</v>
+        <v>-1.062287140985475E-09</v>
       </c>
       <c r="Y4">
-        <v>1.061865298684544E-09</v>
+        <v>1.061870576654042E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099559</v>
       </c>
       <c r="AH4">
         <v>0.8818141465041077</v>
@@ -9016,31 +9016,31 @@
         <v>0.8815929672232853</v>
       </c>
       <c r="AJ4">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915785</v>
       </c>
       <c r="AK4">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970567</v>
       </c>
       <c r="AL4">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268873</v>
       </c>
       <c r="AM4">
-        <v>0.03897126331066095</v>
+        <v>0.03897126331063675</v>
       </c>
       <c r="AN4">
         <v>-100.8196771685226</v>
       </c>
       <c r="AO4">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
       <c r="AP4">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143543055</v>
       </c>
       <c r="AQ4">
         <v>-100.8196771680026</v>
       </c>
       <c r="AR4">
-        <v>100.8224244188999</v>
+        <v>100.8224244188998</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -9084,40 +9084,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.925941554182964E-16</v>
+        <v>1.957904033147924E-15</v>
       </c>
       <c r="O5">
-        <v>3.031578904411784E-15</v>
+        <v>5.233474781031144E-15</v>
       </c>
       <c r="P5">
-        <v>-2.050893528067668E-15</v>
+        <v>-1.266771900166494E-15</v>
       </c>
       <c r="Q5">
-        <v>-2.350764859300087E-15</v>
+        <v>-3.918208102900693E-15</v>
       </c>
       <c r="R5">
-        <v>-4.494914553021373E-15</v>
+        <v>-1.326651448935595E-15</v>
       </c>
       <c r="S5">
-        <v>-2.050893528067668E-15</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>-7.838549571672339E-16</v>
+        <v>3.529880679224341E-15</v>
       </c>
       <c r="U5">
-        <v>4.736506359887981E-15</v>
+        <v>1.069475656151894E-14</v>
       </c>
       <c r="V5">
-        <v>-3.920608139505895E-16</v>
+        <v>-4.493847870085924E-15</v>
       </c>
       <c r="W5">
-        <v>-2.353964908106548E-15</v>
+        <v>-3.531214032893698E-15</v>
       </c>
       <c r="X5">
-        <v>-1.267305241634314E-15</v>
+        <v>-1.250459162418775E-14</v>
       </c>
       <c r="Y5">
-        <v>-3.920608139505897E-16</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099559</v>
       </c>
       <c r="AH5">
         <v>0.8818141465041077</v>
@@ -9147,7 +9147,7 @@
         <v>0.8815929672232853</v>
       </c>
       <c r="AJ5">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099559</v>
       </c>
       <c r="AK5">
         <v>0.8818141465041077</v>
@@ -9156,22 +9156,22 @@
         <v>0.8815929672232853</v>
       </c>
       <c r="AM5">
-        <v>0.03897126331067127</v>
+        <v>0.038971263310646</v>
       </c>
       <c r="AN5">
         <v>-100.8196771685226</v>
       </c>
       <c r="AO5">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
       <c r="AP5">
-        <v>0.03897126331066095</v>
+        <v>0.03897126331063675</v>
       </c>
       <c r="AQ5">
         <v>-100.8196771685226</v>
       </c>
       <c r="AR5">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
     </row>
   </sheetData>
@@ -9362,40 +9362,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.436079110586352E-09</v>
+        <v>-2.436080674562885E-09</v>
       </c>
       <c r="O2">
-        <v>-6.079657777500475E-10</v>
+        <v>-6.079364379060582E-10</v>
       </c>
       <c r="P2">
-        <v>-6.101204553926416E-10</v>
+        <v>-6.101019973508836E-10</v>
       </c>
       <c r="Q2">
-        <v>2.436080679235042E-09</v>
+        <v>2.436079498785876E-09</v>
       </c>
       <c r="R2">
-        <v>6.079719321320142E-10</v>
+        <v>6.079364380074192E-10</v>
       </c>
       <c r="S2">
-        <v>6.101150869350427E-10</v>
+        <v>6.101007306803419E-10</v>
       </c>
       <c r="T2">
-        <v>-2.477156175009268E-12</v>
+        <v>-2.483430214713716E-12</v>
       </c>
       <c r="U2">
-        <v>-3.186851092631166E-09</v>
+        <v>-3.186881153043595E-09</v>
       </c>
       <c r="V2">
-        <v>3.185593754630543E-09</v>
+        <v>3.185597283177868E-09</v>
       </c>
       <c r="W2">
-        <v>2.477157481281443E-12</v>
+        <v>2.483429654290485E-12</v>
       </c>
       <c r="X2">
-        <v>3.186849916508622E-09</v>
+        <v>3.186881153103493E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.185599032540144E-09</v>
+        <v>-3.185601776965841E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3310660019364454</v>
+        <v>0.3310660019364466</v>
       </c>
       <c r="AH2">
         <v>0.8818141464759023</v>
@@ -9425,31 +9425,31 @@
         <v>0.8815929672376949</v>
       </c>
       <c r="AJ2">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915785</v>
       </c>
       <c r="AK2">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970567</v>
       </c>
       <c r="AL2">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268873</v>
       </c>
       <c r="AM2">
-        <v>0.03897125581011066</v>
+        <v>0.03897125581010813</v>
       </c>
       <c r="AN2">
         <v>-100.8196771664425</v>
       </c>
       <c r="AO2">
-        <v>100.8224244169424</v>
+        <v>100.8224244169423</v>
       </c>
       <c r="AP2">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143543055</v>
       </c>
       <c r="AQ2">
         <v>-100.8196771680026</v>
       </c>
       <c r="AR2">
-        <v>100.8224244188999</v>
+        <v>100.8224244188998</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9493,40 +9493,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.120310797277046E-10</v>
+        <v>8.120295082844017E-10</v>
       </c>
       <c r="O3">
-        <v>2.026654161167396E-10</v>
+        <v>2.02646424529901E-10</v>
       </c>
       <c r="P3">
-        <v>2.033717961467276E-10</v>
+        <v>2.033628084509863E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.120295103727167E-10</v>
+        <v>-8.120306844217951E-10</v>
       </c>
       <c r="R3">
-        <v>-2.026666834107198E-10</v>
+        <v>-2.026423216648998E-10</v>
       </c>
       <c r="S3">
-        <v>-2.033771646944225E-10</v>
+        <v>-2.033661261051528E-10</v>
       </c>
       <c r="T3">
-        <v>8.18926310762044E-13</v>
+        <v>8.236299738461586E-13</v>
       </c>
       <c r="U3">
-        <v>1.062277503725596E-09</v>
+        <v>1.062294954638794E-09</v>
       </c>
       <c r="V3">
-        <v>-1.061870576647387E-09</v>
+        <v>-1.061868043103587E-09</v>
       </c>
       <c r="W3">
-        <v>-8.20493460712904E-13</v>
+        <v>-8.236307472359454E-13</v>
       </c>
       <c r="X3">
-        <v>-1.062273008804388E-09</v>
+        <v>-1.062295738753767E-09</v>
       </c>
       <c r="Y3">
-        <v>1.061865298684544E-09</v>
+        <v>1.061863157201558E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099559</v>
       </c>
       <c r="AH3">
         <v>0.8818141465041077</v>
@@ -9556,31 +9556,31 @@
         <v>0.8815929672232853</v>
       </c>
       <c r="AJ3">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915785</v>
       </c>
       <c r="AK3">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970567</v>
       </c>
       <c r="AL3">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268873</v>
       </c>
       <c r="AM3">
-        <v>0.03897126331067127</v>
+        <v>0.038971263310646</v>
       </c>
       <c r="AN3">
         <v>-100.8196771685226</v>
       </c>
       <c r="AO3">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
       <c r="AP3">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143543055</v>
       </c>
       <c r="AQ3">
         <v>-100.8196771680026</v>
       </c>
       <c r="AR3">
-        <v>100.8224244188999</v>
+        <v>100.8224244188998</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9624,40 +9624,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.120279421745101E-10</v>
+        <v>8.120295082844017E-10</v>
       </c>
       <c r="O4">
-        <v>2.026605291413727E-10</v>
+        <v>2.026428048597756E-10</v>
       </c>
       <c r="P4">
-        <v>2.033758979337838E-10</v>
+        <v>2.033689611315706E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.120295082393508E-10</v>
+        <v>-8.120244114487722E-10</v>
       </c>
       <c r="R4">
-        <v>-2.026576935816139E-10</v>
+        <v>-2.026428048485136E-10</v>
       </c>
       <c r="S4">
-        <v>-2.033771646944225E-10</v>
+        <v>-2.033717961354647E-10</v>
       </c>
       <c r="T4">
-        <v>8.20492420651829E-13</v>
+        <v>8.236299738460275E-13</v>
       </c>
       <c r="U4">
-        <v>1.062274184993485E-09</v>
+        <v>1.06228714099213E-09</v>
       </c>
       <c r="V4">
-        <v>-1.061869792525759E-09</v>
+        <v>-1.061866866921145E-09</v>
       </c>
       <c r="W4">
-        <v>-8.236299472243344E-13</v>
+        <v>-8.236264805044089E-13</v>
       </c>
       <c r="X4">
-        <v>-1.062270474193905E-09</v>
+        <v>-1.062287140985475E-09</v>
       </c>
       <c r="Y4">
-        <v>1.061865298684544E-09</v>
+        <v>1.061870576654042E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9678,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099559</v>
       </c>
       <c r="AH4">
         <v>0.8818141465041077</v>
@@ -9687,31 +9687,31 @@
         <v>0.8815929672232853</v>
       </c>
       <c r="AJ4">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915785</v>
       </c>
       <c r="AK4">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970567</v>
       </c>
       <c r="AL4">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268873</v>
       </c>
       <c r="AM4">
-        <v>0.03897126331066095</v>
+        <v>0.03897126331063675</v>
       </c>
       <c r="AN4">
         <v>-100.8196771685226</v>
       </c>
       <c r="AO4">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
       <c r="AP4">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143543055</v>
       </c>
       <c r="AQ4">
         <v>-100.8196771680026</v>
       </c>
       <c r="AR4">
-        <v>100.8224244188999</v>
+        <v>100.8224244188998</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -9755,40 +9755,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.925941554182964E-16</v>
+        <v>1.957904033147924E-15</v>
       </c>
       <c r="O5">
-        <v>3.031578904411784E-15</v>
+        <v>5.233474781031144E-15</v>
       </c>
       <c r="P5">
-        <v>-2.050893528067668E-15</v>
+        <v>-1.266771900166494E-15</v>
       </c>
       <c r="Q5">
-        <v>-2.350764859300087E-15</v>
+        <v>-3.918208102900693E-15</v>
       </c>
       <c r="R5">
-        <v>-4.494914553021373E-15</v>
+        <v>-1.326651448935595E-15</v>
       </c>
       <c r="S5">
-        <v>-2.050893528067668E-15</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>-7.838549571672339E-16</v>
+        <v>3.529880679224341E-15</v>
       </c>
       <c r="U5">
-        <v>4.736506359887981E-15</v>
+        <v>1.069475656151894E-14</v>
       </c>
       <c r="V5">
-        <v>-3.920608139505895E-16</v>
+        <v>-4.493847870085924E-15</v>
       </c>
       <c r="W5">
-        <v>-2.353964908106548E-15</v>
+        <v>-3.531214032893698E-15</v>
       </c>
       <c r="X5">
-        <v>-1.267305241634314E-15</v>
+        <v>-1.250459162418775E-14</v>
       </c>
       <c r="Y5">
-        <v>-3.920608139505897E-16</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099559</v>
       </c>
       <c r="AH5">
         <v>0.8818141465041077</v>
@@ -9818,7 +9818,7 @@
         <v>0.8815929672232853</v>
       </c>
       <c r="AJ5">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099559</v>
       </c>
       <c r="AK5">
         <v>0.8818141465041077</v>
@@ -9827,22 +9827,22 @@
         <v>0.8815929672232853</v>
       </c>
       <c r="AM5">
-        <v>0.03897126331067127</v>
+        <v>0.038971263310646</v>
       </c>
       <c r="AN5">
         <v>-100.8196771685226</v>
       </c>
       <c r="AO5">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
       <c r="AP5">
-        <v>0.03897126331066095</v>
+        <v>0.03897126331063675</v>
       </c>
       <c r="AQ5">
         <v>-100.8196771685226</v>
       </c>
       <c r="AR5">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
     </row>
   </sheetData>
@@ -10033,40 +10033,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624698165856549E-09</v>
+        <v>-2.62469016540123E-09</v>
       </c>
       <c r="O2">
-        <v>-1.142004805697549E-09</v>
+        <v>-1.141994461025104E-09</v>
       </c>
       <c r="P2">
-        <v>-1.703726607036822E-10</v>
+        <v>-1.70362541459069E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624701217478476E-09</v>
+        <v>2.624689113495726E-09</v>
       </c>
       <c r="R2">
-        <v>1.14200642144373E-09</v>
+        <v>1.141996391449631E-09</v>
       </c>
       <c r="S2">
-        <v>1.703704888078097E-10</v>
+        <v>1.703603695631971E-10</v>
       </c>
       <c r="T2">
-        <v>1.121951942779899E-09</v>
+        <v>1.121949428503997E-09</v>
       </c>
       <c r="U2">
-        <v>-1.951304766741755E-09</v>
+        <v>-1.951315613863775E-09</v>
       </c>
       <c r="V2">
-        <v>2.512283310569796E-09</v>
+        <v>2.512276825526377E-09</v>
       </c>
       <c r="W2">
-        <v>-1.121956443523471E-09</v>
+        <v>-1.121951510341531E-09</v>
       </c>
       <c r="X2">
-        <v>1.951303172229626E-09</v>
+        <v>1.951314984537866E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.512283939895705E-09</v>
+        <v>-2.512277454852286E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10087,34 +10087,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5411436570099359</v>
+        <v>0.5411436570099366</v>
       </c>
       <c r="AH2">
-        <v>0.8572501491769243</v>
+        <v>0.8572501491769245</v>
       </c>
       <c r="AI2">
         <v>0.9547462544936434</v>
       </c>
       <c r="AJ2">
-        <v>0.5411436570370807</v>
+        <v>0.541143657037081</v>
       </c>
       <c r="AK2">
-        <v>0.857250149196972</v>
+        <v>0.8572501491969723</v>
       </c>
       <c r="AL2">
         <v>0.9547462544833357</v>
       </c>
       <c r="AM2">
-        <v>-10.86424712076562</v>
+        <v>-10.86424712076563</v>
       </c>
       <c r="AN2">
         <v>-108.0574514187701</v>
       </c>
       <c r="AO2">
-        <v>106.1597915285525</v>
+        <v>106.1597915285524</v>
       </c>
       <c r="AP2">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684947</v>
       </c>
       <c r="AQ2">
         <v>-108.0574514195153</v>
@@ -10164,40 +10164,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.748985368250718E-10</v>
+        <v>8.748971922999204E-10</v>
       </c>
       <c r="O3">
-        <v>3.806727595537138E-10</v>
+        <v>3.806636312922774E-10</v>
       </c>
       <c r="P3">
-        <v>5.679088692437632E-11</v>
+        <v>5.678854223701774E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.748950022373036E-10</v>
+        <v>-8.748977612395803E-10</v>
       </c>
       <c r="R3">
-        <v>-3.806724025672109E-10</v>
+        <v>-3.806614073868916E-10</v>
       </c>
       <c r="S3">
-        <v>-5.679648952788408E-11</v>
+        <v>-5.67919728925676E-11</v>
       </c>
       <c r="T3">
-        <v>-3.739929529159103E-10</v>
+        <v>-3.739897584475309E-10</v>
       </c>
       <c r="U3">
-        <v>6.50419221006232E-10</v>
+        <v>6.504403493471392E-10</v>
       </c>
       <c r="V3">
-        <v>-8.374277701762521E-10</v>
+        <v>-8.374237409586809E-10</v>
       </c>
       <c r="W3">
-        <v>3.739909694896566E-10</v>
+        <v>3.739901939273154E-10</v>
       </c>
       <c r="X3">
-        <v>-6.504246762906006E-10</v>
+        <v>-6.504368032771851E-10</v>
       </c>
       <c r="Y3">
-        <v>8.374308553622091E-10</v>
+        <v>8.374274555013273E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10218,34 +10218,34 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461292</v>
       </c>
       <c r="AH3">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036544</v>
       </c>
       <c r="AI3">
         <v>0.9547462544799001</v>
       </c>
       <c r="AJ3">
-        <v>0.5411436570370807</v>
+        <v>0.541143657037081</v>
       </c>
       <c r="AK3">
-        <v>0.857250149196972</v>
+        <v>0.8572501491969723</v>
       </c>
       <c r="AL3">
         <v>0.9547462544833357</v>
       </c>
       <c r="AM3">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554403</v>
       </c>
       <c r="AN3">
         <v>-108.0574514197637</v>
       </c>
       <c r="AO3">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP3">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684947</v>
       </c>
       <c r="AQ3">
         <v>-108.0574514195153</v>
@@ -10295,40 +10295,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.748990199761086E-10</v>
+        <v>8.749031934555095E-10</v>
       </c>
       <c r="O4">
-        <v>3.806688988088347E-10</v>
+        <v>3.806614073926788E-10</v>
       </c>
       <c r="P4">
-        <v>5.679088692437632E-11</v>
+        <v>5.679197289835469E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749005202418561E-10</v>
+        <v>-8.74898727541654E-10</v>
       </c>
       <c r="R4">
-        <v>-3.806685418223318E-10</v>
+        <v>-3.806585118282323E-10</v>
       </c>
       <c r="S4">
-        <v>-5.679648952788408E-11</v>
+        <v>-5.67941448405256E-11</v>
       </c>
       <c r="T4">
-        <v>-3.739904354891527E-10</v>
+        <v>-3.739856898960891E-10</v>
       </c>
       <c r="U4">
-        <v>6.504204797196109E-10</v>
+        <v>6.504368032806048E-10</v>
       </c>
       <c r="V4">
-        <v>-8.374277701762521E-10</v>
+        <v>-8.374274554979074E-10</v>
       </c>
       <c r="W4">
-        <v>3.739894183649726E-10</v>
+        <v>3.739851590738E-10</v>
       </c>
       <c r="X4">
-        <v>-6.504259350039794E-10</v>
+        <v>-6.504377473122192E-10</v>
       </c>
       <c r="Y4">
-        <v>8.374308553622091E-10</v>
+        <v>8.374268261446379E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10349,34 +10349,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461292</v>
       </c>
       <c r="AH4">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036544</v>
       </c>
       <c r="AI4">
         <v>0.9547462544799001</v>
       </c>
       <c r="AJ4">
-        <v>0.5411436570370807</v>
+        <v>0.541143657037081</v>
       </c>
       <c r="AK4">
-        <v>0.857250149196972</v>
+        <v>0.8572501491969723</v>
       </c>
       <c r="AL4">
         <v>0.9547462544833357</v>
       </c>
       <c r="AM4">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554403</v>
       </c>
       <c r="AN4">
         <v>-108.0574514197637</v>
       </c>
       <c r="AO4">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP4">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684947</v>
       </c>
       <c r="AQ4">
         <v>-108.0574514195153</v>
@@ -10426,40 +10426,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.371221105142404E-15</v>
+        <v>-1.50028889729351E-15</v>
       </c>
       <c r="O5">
-        <v>2.287353155564767E-15</v>
+        <v>3.335849398024963E-15</v>
       </c>
       <c r="P5">
-        <v>2.801304647437079E-15</v>
+        <v>-2.171947957992446E-15</v>
       </c>
       <c r="Q5">
-        <v>4.224315187309081E-15</v>
+        <v>3.207177326824139E-15</v>
       </c>
       <c r="R5">
-        <v>-1.762457674413422E-15</v>
+        <v>-6.293566894446161E-16</v>
       </c>
       <c r="S5">
-        <v>-7.947296652759649E-15</v>
+        <v>-1.085973978996223E-15</v>
       </c>
       <c r="T5">
-        <v>2.15506348017203E-15</v>
+        <v>-1.017137860484945E-15</v>
       </c>
       <c r="U5">
-        <v>-6.084644477859612E-15</v>
+        <v>5.319099801680997E-15</v>
       </c>
       <c r="V5">
-        <v>-1.542591268547811E-15</v>
+        <v>-6.293566894446323E-16</v>
       </c>
       <c r="W5">
-        <v>-1.789549348581906E-15</v>
+        <v>-2.892604512883999E-16</v>
       </c>
       <c r="X5">
-        <v>-4.931687027106146E-16</v>
+        <v>-1.930372439588153E-15</v>
       </c>
       <c r="Y5">
-        <v>7.114400108358195E-15</v>
+        <v>-3.146783447223162E-16</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -10480,40 +10480,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461292</v>
       </c>
       <c r="AH5">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036544</v>
       </c>
       <c r="AI5">
         <v>0.9547462544799001</v>
       </c>
       <c r="AJ5">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461292</v>
       </c>
       <c r="AK5">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036544</v>
       </c>
       <c r="AL5">
         <v>0.9547462544799001</v>
       </c>
       <c r="AM5">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554403</v>
       </c>
       <c r="AN5">
         <v>-108.0574514197637</v>
       </c>
       <c r="AO5">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP5">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554403</v>
       </c>
       <c r="AQ5">
         <v>-108.0574514197637</v>
       </c>
       <c r="AR5">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
     </row>
   </sheetData>
@@ -10704,40 +10704,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624698165856549E-09</v>
+        <v>-2.62469016540123E-09</v>
       </c>
       <c r="O2">
-        <v>-1.142004805697549E-09</v>
+        <v>-1.141994461025104E-09</v>
       </c>
       <c r="P2">
-        <v>-1.703726607036822E-10</v>
+        <v>-1.70362541459069E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624701217478476E-09</v>
+        <v>2.624689113495726E-09</v>
       </c>
       <c r="R2">
-        <v>1.14200642144373E-09</v>
+        <v>1.141996391449631E-09</v>
       </c>
       <c r="S2">
-        <v>1.703704888078097E-10</v>
+        <v>1.703603695631971E-10</v>
       </c>
       <c r="T2">
-        <v>1.121951942779899E-09</v>
+        <v>1.121949428503997E-09</v>
       </c>
       <c r="U2">
-        <v>-1.951304766741755E-09</v>
+        <v>-1.951315613863775E-09</v>
       </c>
       <c r="V2">
-        <v>2.512283310569796E-09</v>
+        <v>2.512276825526377E-09</v>
       </c>
       <c r="W2">
-        <v>-1.121956443523471E-09</v>
+        <v>-1.121951510341531E-09</v>
       </c>
       <c r="X2">
-        <v>1.951303172229626E-09</v>
+        <v>1.951314984537866E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.512283939895705E-09</v>
+        <v>-2.512277454852286E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10758,34 +10758,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5411436570099359</v>
+        <v>0.5411436570099366</v>
       </c>
       <c r="AH2">
-        <v>0.8572501491769243</v>
+        <v>0.8572501491769245</v>
       </c>
       <c r="AI2">
         <v>0.9547462544936434</v>
       </c>
       <c r="AJ2">
-        <v>0.5411436570370807</v>
+        <v>0.541143657037081</v>
       </c>
       <c r="AK2">
-        <v>0.857250149196972</v>
+        <v>0.8572501491969723</v>
       </c>
       <c r="AL2">
         <v>0.9547462544833357</v>
       </c>
       <c r="AM2">
-        <v>-10.86424712076562</v>
+        <v>-10.86424712076563</v>
       </c>
       <c r="AN2">
         <v>-108.0574514187701</v>
       </c>
       <c r="AO2">
-        <v>106.1597915285525</v>
+        <v>106.1597915285524</v>
       </c>
       <c r="AP2">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684947</v>
       </c>
       <c r="AQ2">
         <v>-108.0574514195153</v>
@@ -10835,40 +10835,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.748985368250718E-10</v>
+        <v>8.748971922999204E-10</v>
       </c>
       <c r="O3">
-        <v>3.806727595537138E-10</v>
+        <v>3.806636312922774E-10</v>
       </c>
       <c r="P3">
-        <v>5.679088692437632E-11</v>
+        <v>5.678854223701774E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.748950022373036E-10</v>
+        <v>-8.748977612395803E-10</v>
       </c>
       <c r="R3">
-        <v>-3.806724025672109E-10</v>
+        <v>-3.806614073868916E-10</v>
       </c>
       <c r="S3">
-        <v>-5.679648952788408E-11</v>
+        <v>-5.67919728925676E-11</v>
       </c>
       <c r="T3">
-        <v>-3.739929529159103E-10</v>
+        <v>-3.739897584475309E-10</v>
       </c>
       <c r="U3">
-        <v>6.50419221006232E-10</v>
+        <v>6.504403493471392E-10</v>
       </c>
       <c r="V3">
-        <v>-8.374277701762521E-10</v>
+        <v>-8.374237409586809E-10</v>
       </c>
       <c r="W3">
-        <v>3.739909694896566E-10</v>
+        <v>3.739901939273154E-10</v>
       </c>
       <c r="X3">
-        <v>-6.504246762906006E-10</v>
+        <v>-6.504368032771851E-10</v>
       </c>
       <c r="Y3">
-        <v>8.374308553622091E-10</v>
+        <v>8.374274555013273E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10889,34 +10889,34 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461292</v>
       </c>
       <c r="AH3">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036544</v>
       </c>
       <c r="AI3">
         <v>0.9547462544799001</v>
       </c>
       <c r="AJ3">
-        <v>0.5411436570370807</v>
+        <v>0.541143657037081</v>
       </c>
       <c r="AK3">
-        <v>0.857250149196972</v>
+        <v>0.8572501491969723</v>
       </c>
       <c r="AL3">
         <v>0.9547462544833357</v>
       </c>
       <c r="AM3">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554403</v>
       </c>
       <c r="AN3">
         <v>-108.0574514197637</v>
       </c>
       <c r="AO3">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP3">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684947</v>
       </c>
       <c r="AQ3">
         <v>-108.0574514195153</v>
@@ -10966,40 +10966,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.748990199761086E-10</v>
+        <v>8.749031934555095E-10</v>
       </c>
       <c r="O4">
-        <v>3.806688988088347E-10</v>
+        <v>3.806614073926788E-10</v>
       </c>
       <c r="P4">
-        <v>5.679088692437632E-11</v>
+        <v>5.679197289835469E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749005202418561E-10</v>
+        <v>-8.74898727541654E-10</v>
       </c>
       <c r="R4">
-        <v>-3.806685418223318E-10</v>
+        <v>-3.806585118282323E-10</v>
       </c>
       <c r="S4">
-        <v>-5.679648952788408E-11</v>
+        <v>-5.67941448405256E-11</v>
       </c>
       <c r="T4">
-        <v>-3.739904354891527E-10</v>
+        <v>-3.739856898960891E-10</v>
       </c>
       <c r="U4">
-        <v>6.504204797196109E-10</v>
+        <v>6.504368032806048E-10</v>
       </c>
       <c r="V4">
-        <v>-8.374277701762521E-10</v>
+        <v>-8.374274554979074E-10</v>
       </c>
       <c r="W4">
-        <v>3.739894183649726E-10</v>
+        <v>3.739851590738E-10</v>
       </c>
       <c r="X4">
-        <v>-6.504259350039794E-10</v>
+        <v>-6.504377473122192E-10</v>
       </c>
       <c r="Y4">
-        <v>8.374308553622091E-10</v>
+        <v>8.374268261446379E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11020,34 +11020,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461292</v>
       </c>
       <c r="AH4">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036544</v>
       </c>
       <c r="AI4">
         <v>0.9547462544799001</v>
       </c>
       <c r="AJ4">
-        <v>0.5411436570370807</v>
+        <v>0.541143657037081</v>
       </c>
       <c r="AK4">
-        <v>0.857250149196972</v>
+        <v>0.8572501491969723</v>
       </c>
       <c r="AL4">
         <v>0.9547462544833357</v>
       </c>
       <c r="AM4">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554403</v>
       </c>
       <c r="AN4">
         <v>-108.0574514197637</v>
       </c>
       <c r="AO4">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP4">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684947</v>
       </c>
       <c r="AQ4">
         <v>-108.0574514195153</v>
@@ -11097,40 +11097,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.371221105142404E-15</v>
+        <v>-1.50028889729351E-15</v>
       </c>
       <c r="O5">
-        <v>2.287353155564767E-15</v>
+        <v>3.335849398024963E-15</v>
       </c>
       <c r="P5">
-        <v>2.801304647437079E-15</v>
+        <v>-2.171947957992446E-15</v>
       </c>
       <c r="Q5">
-        <v>4.224315187309081E-15</v>
+        <v>3.207177326824139E-15</v>
       </c>
       <c r="R5">
-        <v>-1.762457674413422E-15</v>
+        <v>-6.293566894446161E-16</v>
       </c>
       <c r="S5">
-        <v>-7.947296652759649E-15</v>
+        <v>-1.085973978996223E-15</v>
       </c>
       <c r="T5">
-        <v>2.15506348017203E-15</v>
+        <v>-1.017137860484945E-15</v>
       </c>
       <c r="U5">
-        <v>-6.084644477859612E-15</v>
+        <v>5.319099801680997E-15</v>
       </c>
       <c r="V5">
-        <v>-1.542591268547811E-15</v>
+        <v>-6.293566894446323E-16</v>
       </c>
       <c r="W5">
-        <v>-1.789549348581906E-15</v>
+        <v>-2.892604512883999E-16</v>
       </c>
       <c r="X5">
-        <v>-4.931687027106146E-16</v>
+        <v>-1.930372439588153E-15</v>
       </c>
       <c r="Y5">
-        <v>7.114400108358195E-15</v>
+        <v>-3.146783447223162E-16</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -11151,40 +11151,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461292</v>
       </c>
       <c r="AH5">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036544</v>
       </c>
       <c r="AI5">
         <v>0.9547462544799001</v>
       </c>
       <c r="AJ5">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461292</v>
       </c>
       <c r="AK5">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036544</v>
       </c>
       <c r="AL5">
         <v>0.9547462544799001</v>
       </c>
       <c r="AM5">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554403</v>
       </c>
       <c r="AN5">
         <v>-108.0574514197637</v>
       </c>
       <c r="AO5">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP5">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554403</v>
       </c>
       <c r="AQ5">
         <v>-108.0574514197637</v>
       </c>
       <c r="AR5">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
     </row>
   </sheetData>
@@ -11375,40 +11375,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.966594444817775E-09</v>
+        <v>-2.966667174662996E-09</v>
       </c>
       <c r="O2">
-        <v>-7.427858474330292E-10</v>
+        <v>-7.427754558940931E-10</v>
       </c>
       <c r="P2">
-        <v>-7.405165719961207E-10</v>
+        <v>-7.405512073371613E-10</v>
       </c>
       <c r="Q2">
-        <v>2.966587515107981E-09</v>
+        <v>2.966649856016008E-09</v>
       </c>
       <c r="R2">
-        <v>7.427858457958462E-10</v>
+        <v>7.427823814291783E-10</v>
       </c>
       <c r="S2">
-        <v>7.405096499513564E-10</v>
+        <v>7.405477423742113E-10</v>
       </c>
       <c r="T2">
-        <v>-2.65079955848289E-12</v>
+        <v>-2.650821413031352E-12</v>
       </c>
       <c r="U2">
-        <v>3.830056346635137E-09</v>
+        <v>3.830051154768279E-09</v>
       </c>
       <c r="V2">
-        <v>-3.831374825723406E-09</v>
+        <v>-3.831367909478416E-09</v>
       </c>
       <c r="W2">
-        <v>2.661187527839053E-12</v>
+        <v>2.657742934350383E-12</v>
       </c>
       <c r="X2">
-        <v>-3.830049419479215E-09</v>
+        <v>-3.830045957193955E-09</v>
       </c>
       <c r="Y2">
-        <v>3.83136097084238E-09</v>
+        <v>3.831374835593876E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11429,37 +11429,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.731129729105334</v>
+        <v>0.7311297291053332</v>
       </c>
       <c r="AH2">
-        <v>0.3655648643427205</v>
+        <v>0.3655648643427208</v>
       </c>
       <c r="AI2">
-        <v>0.3655648647626211</v>
+        <v>0.3655648647626226</v>
       </c>
       <c r="AJ2">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211742</v>
       </c>
       <c r="AK2">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042841</v>
       </c>
       <c r="AL2">
-        <v>0.3655648648168982</v>
+        <v>0.3655648648169002</v>
       </c>
       <c r="AM2">
-        <v>0.01721676665953011</v>
+        <v>0.01721676665972497</v>
       </c>
       <c r="AN2">
-        <v>-179.9827832337043</v>
+        <v>-179.9827832337045</v>
       </c>
       <c r="AO2">
         <v>-179.9827832329747</v>
       </c>
       <c r="AP2">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806567149</v>
       </c>
       <c r="AQ2">
-        <v>-179.9827832258909</v>
+        <v>-179.9827832258911</v>
       </c>
       <c r="AR2">
         <v>-179.9827832379762</v>
@@ -11506,40 +11506,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.888555787380985E-10</v>
+        <v>9.888625033086399E-10</v>
       </c>
       <c r="O3">
-        <v>2.475906656009488E-10</v>
+        <v>2.475872038360229E-10</v>
       </c>
       <c r="P3">
-        <v>2.468527143023846E-10</v>
+        <v>2.468527122210006E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.888625064235835E-10</v>
+        <v>-9.888694299534319E-10</v>
       </c>
       <c r="R3">
-        <v>-2.4758373889967E-10</v>
+        <v>-2.475872053477042E-10</v>
       </c>
       <c r="S3">
-        <v>-2.468527121716248E-10</v>
+        <v>-2.468561754975909E-10</v>
       </c>
       <c r="T3">
-        <v>8.859059940012773E-13</v>
+        <v>8.928347273159733E-13</v>
       </c>
       <c r="U3">
-        <v>-1.276687758925944E-09</v>
+        <v>-1.276692954955579E-09</v>
       </c>
       <c r="V3">
-        <v>1.277113401874783E-09</v>
+        <v>1.277120328526722E-09</v>
       </c>
       <c r="W3">
-        <v>-8.824447413288261E-13</v>
+        <v>-8.928368006068606E-13</v>
       </c>
       <c r="X3">
-        <v>1.276687761063328E-09</v>
+        <v>1.27669815000052E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.27712032847069E-09</v>
+        <v>-1.277120329511389E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11560,37 +11560,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264544</v>
       </c>
       <c r="AH3">
-        <v>0.3655648642914716</v>
+        <v>0.3655648642914717</v>
       </c>
       <c r="AI3">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349927</v>
       </c>
       <c r="AJ3">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211742</v>
       </c>
       <c r="AK3">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042841</v>
       </c>
       <c r="AL3">
-        <v>0.3655648648168982</v>
+        <v>0.3655648648169002</v>
       </c>
       <c r="AM3">
-        <v>0.01721676853406251</v>
+        <v>0.01721676853426677</v>
       </c>
       <c r="AN3">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232866</v>
       </c>
       <c r="AO3">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP3">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806567149</v>
       </c>
       <c r="AQ3">
-        <v>-179.9827832258909</v>
+        <v>-179.9827832258911</v>
       </c>
       <c r="AR3">
         <v>-179.9827832379762</v>
@@ -11637,40 +11637,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.888625095527948E-10</v>
+        <v>9.888659666346028E-10</v>
       </c>
       <c r="O4">
-        <v>2.475975943342557E-10</v>
+        <v>2.475941325693307E-10</v>
       </c>
       <c r="P4">
-        <v>2.468388589171386E-10</v>
+        <v>2.468527101396169E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.888694372382794E-10</v>
+        <v>-9.888763566053582E-10</v>
       </c>
       <c r="R4">
-        <v>-2.475975942848984E-10</v>
+        <v>-2.475941340810111E-10</v>
       </c>
       <c r="S4">
-        <v>-2.468388588677625E-10</v>
+        <v>-2.468631021495221E-10</v>
       </c>
       <c r="T4">
-        <v>8.720547715336597E-13</v>
+        <v>8.928357680083479E-13</v>
       </c>
       <c r="U4">
-        <v>-1.276694683496479E-09</v>
+        <v>-1.276699879526115E-09</v>
       </c>
       <c r="V4">
-        <v>1.277120324363946E-09</v>
+        <v>1.277127255178654E-09</v>
       </c>
       <c r="W4">
-        <v>-8.68593518861029E-13</v>
+        <v>-8.928388819916378E-13</v>
       </c>
       <c r="X4">
-        <v>1.276694683552479E-09</v>
+        <v>1.276705074571057E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.277120324307921E-09</v>
+        <v>-1.277120331592773E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11691,37 +11691,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264544</v>
       </c>
       <c r="AH4">
-        <v>0.3655648642914715</v>
+        <v>0.3655648642914718</v>
       </c>
       <c r="AI4">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349929</v>
       </c>
       <c r="AJ4">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211742</v>
       </c>
       <c r="AK4">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042841</v>
       </c>
       <c r="AL4">
-        <v>0.3655648648168982</v>
+        <v>0.3655648648169002</v>
       </c>
       <c r="AM4">
-        <v>0.01721676853407541</v>
+        <v>0.01721676853426432</v>
       </c>
       <c r="AN4">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232866</v>
       </c>
       <c r="AO4">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP4">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806567149</v>
       </c>
       <c r="AQ4">
-        <v>-179.9827832258909</v>
+        <v>-179.9827832258911</v>
       </c>
       <c r="AR4">
         <v>-179.9827832379762</v>
@@ -11768,40 +11768,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-5.203462084578851E-18</v>
+        <v>-3.12207725078435E-18</v>
       </c>
       <c r="O5">
-        <v>-1.04069291012509E-18</v>
+        <v>-3.465407346414037E-15</v>
       </c>
       <c r="P5">
-        <v>3.463325965743355E-15</v>
+        <v>-6.926651931486748E-15</v>
       </c>
       <c r="Q5">
-        <v>-6.921448464252509E-15</v>
+        <v>-6.925611233920161E-15</v>
       </c>
       <c r="R5">
-        <v>1.731819084233424E-14</v>
+        <v>5.194988940890718E-15</v>
       </c>
       <c r="S5">
-        <v>-1.038997789723006E-14</v>
+        <v>-2.081383845924868E-18</v>
       </c>
       <c r="T5">
-        <v>1.731662981584273E-14</v>
+        <v>1.038997788950563E-14</v>
       </c>
       <c r="U5">
-        <v>3.463325960593811E-15</v>
+        <v>6.92561122827751E-15</v>
       </c>
       <c r="V5">
-        <v>1.040691922958227E-18</v>
+        <v>-2.081383845924868E-18</v>
       </c>
       <c r="W5">
-        <v>-1.731871120067657E-14</v>
+        <v>-3.4654073480024E-15</v>
       </c>
       <c r="X5">
-        <v>-5.189785476340089E-15</v>
+        <v>1.561039365171858E-18</v>
       </c>
       <c r="Y5">
-        <v>-3.12207576886837E-18</v>
+        <v>6.926651931486751E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -11822,40 +11822,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264544</v>
       </c>
       <c r="AH5">
-        <v>0.3655648642914716</v>
+        <v>0.3655648642914717</v>
       </c>
       <c r="AI5">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349927</v>
       </c>
       <c r="AJ5">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264544</v>
       </c>
       <c r="AK5">
-        <v>0.3655648642914715</v>
+        <v>0.3655648642914718</v>
       </c>
       <c r="AL5">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349929</v>
       </c>
       <c r="AM5">
-        <v>0.01721676853406251</v>
+        <v>0.01721676853426677</v>
       </c>
       <c r="AN5">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232866</v>
       </c>
       <c r="AO5">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP5">
-        <v>0.01721676853407541</v>
+        <v>0.01721676853426432</v>
       </c>
       <c r="AQ5">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232866</v>
       </c>
       <c r="AR5">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
     </row>
   </sheetData>
@@ -12046,40 +12046,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.966594444817775E-09</v>
+        <v>-2.966667174662996E-09</v>
       </c>
       <c r="O2">
-        <v>-7.427858474330292E-10</v>
+        <v>-7.427754558940931E-10</v>
       </c>
       <c r="P2">
-        <v>-7.405165719961207E-10</v>
+        <v>-7.405512073371613E-10</v>
       </c>
       <c r="Q2">
-        <v>2.966587515107981E-09</v>
+        <v>2.966649856016008E-09</v>
       </c>
       <c r="R2">
-        <v>7.427858457958462E-10</v>
+        <v>7.427823814291783E-10</v>
       </c>
       <c r="S2">
-        <v>7.405096499513564E-10</v>
+        <v>7.405477423742113E-10</v>
       </c>
       <c r="T2">
-        <v>-2.65079955848289E-12</v>
+        <v>-2.650821413031352E-12</v>
       </c>
       <c r="U2">
-        <v>3.830056346635137E-09</v>
+        <v>3.830051154768279E-09</v>
       </c>
       <c r="V2">
-        <v>-3.831374825723406E-09</v>
+        <v>-3.831367909478416E-09</v>
       </c>
       <c r="W2">
-        <v>2.661187527839053E-12</v>
+        <v>2.657742934350383E-12</v>
       </c>
       <c r="X2">
-        <v>-3.830049419479215E-09</v>
+        <v>-3.830045957193955E-09</v>
       </c>
       <c r="Y2">
-        <v>3.83136097084238E-09</v>
+        <v>3.831374835593876E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12100,37 +12100,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.731129729105334</v>
+        <v>0.7311297291053332</v>
       </c>
       <c r="AH2">
-        <v>0.3655648643427205</v>
+        <v>0.3655648643427208</v>
       </c>
       <c r="AI2">
-        <v>0.3655648647626211</v>
+        <v>0.3655648647626226</v>
       </c>
       <c r="AJ2">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211742</v>
       </c>
       <c r="AK2">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042841</v>
       </c>
       <c r="AL2">
-        <v>0.3655648648168982</v>
+        <v>0.3655648648169002</v>
       </c>
       <c r="AM2">
-        <v>0.01721676665953011</v>
+        <v>0.01721676665972497</v>
       </c>
       <c r="AN2">
-        <v>-179.9827832337043</v>
+        <v>-179.9827832337045</v>
       </c>
       <c r="AO2">
         <v>-179.9827832329747</v>
       </c>
       <c r="AP2">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806567149</v>
       </c>
       <c r="AQ2">
-        <v>-179.9827832258909</v>
+        <v>-179.9827832258911</v>
       </c>
       <c r="AR2">
         <v>-179.9827832379762</v>
@@ -12177,40 +12177,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.888555787380985E-10</v>
+        <v>9.888625033086399E-10</v>
       </c>
       <c r="O3">
-        <v>2.475906656009488E-10</v>
+        <v>2.475872038360229E-10</v>
       </c>
       <c r="P3">
-        <v>2.468527143023846E-10</v>
+        <v>2.468527122210006E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.888625064235835E-10</v>
+        <v>-9.888694299534319E-10</v>
       </c>
       <c r="R3">
-        <v>-2.4758373889967E-10</v>
+        <v>-2.475872053477042E-10</v>
       </c>
       <c r="S3">
-        <v>-2.468527121716248E-10</v>
+        <v>-2.468561754975909E-10</v>
       </c>
       <c r="T3">
-        <v>8.859059940012773E-13</v>
+        <v>8.928347273159733E-13</v>
       </c>
       <c r="U3">
-        <v>-1.276687758925944E-09</v>
+        <v>-1.276692954955579E-09</v>
       </c>
       <c r="V3">
-        <v>1.277113401874783E-09</v>
+        <v>1.277120328526722E-09</v>
       </c>
       <c r="W3">
-        <v>-8.824447413288261E-13</v>
+        <v>-8.928368006068606E-13</v>
       </c>
       <c r="X3">
-        <v>1.276687761063328E-09</v>
+        <v>1.27669815000052E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.27712032847069E-09</v>
+        <v>-1.277120329511389E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12231,37 +12231,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264544</v>
       </c>
       <c r="AH3">
-        <v>0.3655648642914716</v>
+        <v>0.3655648642914717</v>
       </c>
       <c r="AI3">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349927</v>
       </c>
       <c r="AJ3">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211742</v>
       </c>
       <c r="AK3">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042841</v>
       </c>
       <c r="AL3">
-        <v>0.3655648648168982</v>
+        <v>0.3655648648169002</v>
       </c>
       <c r="AM3">
-        <v>0.01721676853406251</v>
+        <v>0.01721676853426677</v>
       </c>
       <c r="AN3">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232866</v>
       </c>
       <c r="AO3">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP3">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806567149</v>
       </c>
       <c r="AQ3">
-        <v>-179.9827832258909</v>
+        <v>-179.9827832258911</v>
       </c>
       <c r="AR3">
         <v>-179.9827832379762</v>
@@ -12308,40 +12308,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.888625095527948E-10</v>
+        <v>9.888659666346028E-10</v>
       </c>
       <c r="O4">
-        <v>2.475975943342557E-10</v>
+        <v>2.475941325693307E-10</v>
       </c>
       <c r="P4">
-        <v>2.468388589171386E-10</v>
+        <v>2.468527101396169E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.888694372382794E-10</v>
+        <v>-9.888763566053582E-10</v>
       </c>
       <c r="R4">
-        <v>-2.475975942848984E-10</v>
+        <v>-2.475941340810111E-10</v>
       </c>
       <c r="S4">
-        <v>-2.468388588677625E-10</v>
+        <v>-2.468631021495221E-10</v>
       </c>
       <c r="T4">
-        <v>8.720547715336597E-13</v>
+        <v>8.928357680083479E-13</v>
       </c>
       <c r="U4">
-        <v>-1.276694683496479E-09</v>
+        <v>-1.276699879526115E-09</v>
       </c>
       <c r="V4">
-        <v>1.277120324363946E-09</v>
+        <v>1.277127255178654E-09</v>
       </c>
       <c r="W4">
-        <v>-8.68593518861029E-13</v>
+        <v>-8.928388819916378E-13</v>
       </c>
       <c r="X4">
-        <v>1.276694683552479E-09</v>
+        <v>1.276705074571057E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.277120324307921E-09</v>
+        <v>-1.277120331592773E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12362,37 +12362,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264544</v>
       </c>
       <c r="AH4">
-        <v>0.3655648642914715</v>
+        <v>0.3655648642914718</v>
       </c>
       <c r="AI4">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349929</v>
       </c>
       <c r="AJ4">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211742</v>
       </c>
       <c r="AK4">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042841</v>
       </c>
       <c r="AL4">
-        <v>0.3655648648168982</v>
+        <v>0.3655648648169002</v>
       </c>
       <c r="AM4">
-        <v>0.01721676853407541</v>
+        <v>0.01721676853426432</v>
       </c>
       <c r="AN4">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232866</v>
       </c>
       <c r="AO4">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP4">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806567149</v>
       </c>
       <c r="AQ4">
-        <v>-179.9827832258909</v>
+        <v>-179.9827832258911</v>
       </c>
       <c r="AR4">
         <v>-179.9827832379762</v>
@@ -12439,40 +12439,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-5.203462084578851E-18</v>
+        <v>-3.12207725078435E-18</v>
       </c>
       <c r="O5">
-        <v>-1.04069291012509E-18</v>
+        <v>-3.465407346414037E-15</v>
       </c>
       <c r="P5">
-        <v>3.463325965743355E-15</v>
+        <v>-6.926651931486748E-15</v>
       </c>
       <c r="Q5">
-        <v>-6.921448464252509E-15</v>
+        <v>-6.925611233920161E-15</v>
       </c>
       <c r="R5">
-        <v>1.731819084233424E-14</v>
+        <v>5.194988940890718E-15</v>
       </c>
       <c r="S5">
-        <v>-1.038997789723006E-14</v>
+        <v>-2.081383845924868E-18</v>
       </c>
       <c r="T5">
-        <v>1.731662981584273E-14</v>
+        <v>1.038997788950563E-14</v>
       </c>
       <c r="U5">
-        <v>3.463325960593811E-15</v>
+        <v>6.92561122827751E-15</v>
       </c>
       <c r="V5">
-        <v>1.040691922958227E-18</v>
+        <v>-2.081383845924868E-18</v>
       </c>
       <c r="W5">
-        <v>-1.731871120067657E-14</v>
+        <v>-3.4654073480024E-15</v>
       </c>
       <c r="X5">
-        <v>-5.189785476340089E-15</v>
+        <v>1.561039365171858E-18</v>
       </c>
       <c r="Y5">
-        <v>-3.12207576886837E-18</v>
+        <v>6.926651931486751E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -12493,40 +12493,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264544</v>
       </c>
       <c r="AH5">
-        <v>0.3655648642914716</v>
+        <v>0.3655648642914717</v>
       </c>
       <c r="AI5">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349927</v>
       </c>
       <c r="AJ5">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264544</v>
       </c>
       <c r="AK5">
-        <v>0.3655648642914715</v>
+        <v>0.3655648642914718</v>
       </c>
       <c r="AL5">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349929</v>
       </c>
       <c r="AM5">
-        <v>0.01721676853406251</v>
+        <v>0.01721676853426677</v>
       </c>
       <c r="AN5">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232866</v>
       </c>
       <c r="AO5">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP5">
-        <v>0.01721676853407541</v>
+        <v>0.01721676853426432</v>
       </c>
       <c r="AQ5">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232866</v>
       </c>
       <c r="AR5">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
     </row>
   </sheetData>
@@ -12717,40 +12717,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.278231802026923E-09</v>
+        <v>-2.278266433252347E-09</v>
       </c>
       <c r="O2">
-        <v>-1.906604959041384E-09</v>
+        <v>-1.906581699791467E-09</v>
       </c>
       <c r="P2">
-        <v>-3.133038894016867E-09</v>
+        <v>-3.133067480150766E-09</v>
       </c>
       <c r="Q2">
-        <v>2.278216474817314E-09</v>
+        <v>2.278262671331738E-09</v>
       </c>
       <c r="R2">
-        <v>1.906610443287048E-09</v>
+        <v>1.906587184037133E-09</v>
       </c>
       <c r="S2">
-        <v>3.13304799895207E-09</v>
+        <v>3.133066180992081E-09</v>
       </c>
       <c r="T2">
-        <v>7.137893502907106E-10</v>
+        <v>7.137876841096168E-10</v>
       </c>
       <c r="U2">
-        <v>4.345325343376213E-09</v>
+        <v>4.345329962293114E-09</v>
       </c>
       <c r="V2">
-        <v>-7.970592407331584E-10</v>
+        <v>-7.970234578171943E-10</v>
       </c>
       <c r="W2">
-        <v>-7.137761083512936E-10</v>
+        <v>-7.137833632521493E-10</v>
       </c>
       <c r="X2">
-        <v>-4.345322649016282E-09</v>
+        <v>-4.345327267933185E-09</v>
       </c>
       <c r="Y2">
-        <v>7.970611854591325E-10</v>
+        <v>7.970250845528227E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12771,40 +12771,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8551989639615296</v>
+        <v>0.8551989639615293</v>
       </c>
       <c r="AH2">
-        <v>0.6449366187237823</v>
+        <v>0.6449366187237821</v>
       </c>
       <c r="AI2">
-        <v>0.4394789399935438</v>
+        <v>0.4394789399935445</v>
       </c>
       <c r="AJ2">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682257</v>
       </c>
       <c r="AK2">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054976</v>
       </c>
       <c r="AL2">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293728</v>
       </c>
       <c r="AM2">
-        <v>-3.955340391003942</v>
+        <v>-3.955340391003822</v>
       </c>
       <c r="AN2">
-        <v>-153.8366771790808</v>
+        <v>-153.836677179081</v>
       </c>
       <c r="AO2">
         <v>128.6205387876522</v>
       </c>
       <c r="AP2">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389995965</v>
       </c>
       <c r="AQ2">
-        <v>-153.8366771755843</v>
+        <v>-153.8366771755844</v>
       </c>
       <c r="AR2">
-        <v>128.6205387908427</v>
+        <v>128.6205387908429</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12848,40 +12848,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.59400196238488E-10</v>
+        <v>7.59414061656973E-10</v>
       </c>
       <c r="O3">
-        <v>6.355277063261667E-10</v>
+        <v>6.35539805919449E-10</v>
       </c>
       <c r="P3">
-        <v>1.044346285917938E-09</v>
+        <v>1.044364495366273E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.593999167991227E-10</v>
+        <v>-7.594140616535959E-10</v>
       </c>
       <c r="R3">
-        <v>-6.355222222681689E-10</v>
+        <v>-6.355344176552214E-10</v>
       </c>
       <c r="S3">
-        <v>-1.04434628589449E-09</v>
+        <v>-1.044365794712548E-09</v>
       </c>
       <c r="T3">
-        <v>-2.379236497362841E-10</v>
+        <v>-2.379286691492349E-10</v>
       </c>
       <c r="U3">
-        <v>-1.448440819116298E-09</v>
+        <v>-1.448468912819089E-09</v>
       </c>
       <c r="V3">
-        <v>2.656686404044149E-10</v>
+        <v>2.656725293774791E-10</v>
       </c>
       <c r="W3">
-        <v>2.37927691127108E-10</v>
+        <v>2.379286691530663E-10</v>
       </c>
       <c r="X3">
-        <v>1.448443513263297E-09</v>
+        <v>1.448457944776627E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.656686403778097E-10</v>
+        <v>-2.656709028546926E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12902,40 +12902,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8551989639704577</v>
+        <v>0.8551989639704576</v>
       </c>
       <c r="AH3">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994029</v>
       </c>
       <c r="AI3">
-        <v>0.4394789400413149</v>
+        <v>0.4394789400413152</v>
       </c>
       <c r="AJ3">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682257</v>
       </c>
       <c r="AK3">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054976</v>
       </c>
       <c r="AL3">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293728</v>
       </c>
       <c r="AM3">
-        <v>-3.955340389660154</v>
+        <v>-3.955340389660044</v>
       </c>
       <c r="AN3">
-        <v>-153.8366771744188</v>
+        <v>-153.8366771744189</v>
       </c>
       <c r="AO3">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
       <c r="AP3">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389995965</v>
       </c>
       <c r="AQ3">
-        <v>-153.8366771755843</v>
+        <v>-153.8366771755844</v>
       </c>
       <c r="AR3">
-        <v>128.6205387908427</v>
+        <v>128.6205387908429</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12979,40 +12979,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.593964342874844E-10</v>
+        <v>7.594186619159424E-10</v>
       </c>
       <c r="O4">
-        <v>6.355277063261667E-10</v>
+        <v>6.355452899539882E-10</v>
       </c>
       <c r="P4">
-        <v>1.044354100408491E-09</v>
+        <v>1.044364495366273E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.594004756710998E-10</v>
+        <v>-7.594186619125654E-10</v>
       </c>
       <c r="R4">
-        <v>-6.355222222681689E-10</v>
+        <v>-6.355452899305284E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044356699124489E-09</v>
+        <v>-1.044365794712548E-09</v>
       </c>
       <c r="T4">
-        <v>-2.379193289133033E-10</v>
+        <v>-2.379208658112388E-10</v>
       </c>
       <c r="U4">
-        <v>-1.448440819116297E-09</v>
+        <v>-1.448466218698705E-09</v>
       </c>
       <c r="V4">
-        <v>2.656855413469193E-10</v>
+        <v>2.656725293774794E-10</v>
       </c>
       <c r="W4">
-        <v>2.379196083531234E-10</v>
+        <v>2.379208658150702E-10</v>
       </c>
       <c r="X4">
-        <v>1.448443513263297E-09</v>
+        <v>1.448466218725321E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.656822883279526E-10</v>
+        <v>-2.656709028546926E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13033,40 +13033,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8551989639704578</v>
+        <v>0.8551989639704576</v>
       </c>
       <c r="AH4">
-        <v>0.6449366186994031</v>
+        <v>0.644936618699403</v>
       </c>
       <c r="AI4">
-        <v>0.439478940041315</v>
+        <v>0.4394789400413153</v>
       </c>
       <c r="AJ4">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682257</v>
       </c>
       <c r="AK4">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054976</v>
       </c>
       <c r="AL4">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293728</v>
       </c>
       <c r="AM4">
-        <v>-3.955340389660157</v>
+        <v>-3.955340389660045</v>
       </c>
       <c r="AN4">
-        <v>-153.8366771744188</v>
+        <v>-153.8366771744189</v>
       </c>
       <c r="AO4">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
       <c r="AP4">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389995965</v>
       </c>
       <c r="AQ4">
-        <v>-153.8366771755843</v>
+        <v>-153.8366771755844</v>
       </c>
       <c r="AR4">
-        <v>128.6205387908427</v>
+        <v>128.6205387908429</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -13110,40 +13110,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.794359885505045E-16</v>
+        <v>-5.588719771009934E-16</v>
       </c>
       <c r="O5">
-        <v>6.831094730990787E-15</v>
+        <v>-6.855043173784277E-15</v>
       </c>
       <c r="P5">
-        <v>-6.505984722056529E-15</v>
+        <v>2.598739445592238E-15</v>
       </c>
       <c r="Q5">
-        <v>-8.082773984619657E-15</v>
+        <v>2.794359885504968E-16</v>
       </c>
       <c r="R5">
-        <v>1.394957077550346E-15</v>
+        <v>6.855043173784279E-15</v>
       </c>
       <c r="S5">
-        <v>7.814490552928611E-15</v>
+        <v>-3.252992361028257E-15</v>
       </c>
       <c r="T5">
-        <v>-4.041386992309828E-15</v>
+        <v>-8.082773984619656E-15</v>
       </c>
       <c r="U5">
-        <v>-4.789688558698208E-17</v>
+        <v>-3.367650479908398E-15</v>
       </c>
       <c r="V5">
-        <v>-5.197478891184448E-15</v>
+        <v>-3.252992361028257E-15</v>
       </c>
       <c r="W5">
-        <v>5.588719771010093E-16</v>
+        <v>4.041386992309828E-15</v>
       </c>
       <c r="X5">
-        <v>4.089077461477074E-15</v>
+        <v>3.3676504799084E-15</v>
       </c>
       <c r="Y5">
-        <v>1.690094250442543E-14</v>
+        <v>-2.598739445592239E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -13164,40 +13164,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.8551989639704577</v>
+        <v>0.8551989639704576</v>
       </c>
       <c r="AH5">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994029</v>
       </c>
       <c r="AI5">
-        <v>0.4394789400413149</v>
+        <v>0.4394789400413152</v>
       </c>
       <c r="AJ5">
-        <v>0.8551989639704578</v>
+        <v>0.8551989639704576</v>
       </c>
       <c r="AK5">
-        <v>0.6449366186994031</v>
+        <v>0.644936618699403</v>
       </c>
       <c r="AL5">
-        <v>0.439478940041315</v>
+        <v>0.4394789400413153</v>
       </c>
       <c r="AM5">
-        <v>-3.955340389660154</v>
+        <v>-3.955340389660044</v>
       </c>
       <c r="AN5">
-        <v>-153.8366771744188</v>
+        <v>-153.8366771744189</v>
       </c>
       <c r="AO5">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
       <c r="AP5">
-        <v>-3.955340389660157</v>
+        <v>-3.955340389660045</v>
       </c>
       <c r="AQ5">
-        <v>-153.8366771744188</v>
+        <v>-153.8366771744189</v>
       </c>
       <c r="AR5">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
     </row>
   </sheetData>
@@ -13388,40 +13388,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.278231802026923E-09</v>
+        <v>-2.278266433252347E-09</v>
       </c>
       <c r="O2">
-        <v>-1.906604959041384E-09</v>
+        <v>-1.906581699791467E-09</v>
       </c>
       <c r="P2">
-        <v>-3.133038894016867E-09</v>
+        <v>-3.133067480150766E-09</v>
       </c>
       <c r="Q2">
-        <v>2.278216474817314E-09</v>
+        <v>2.278262671331738E-09</v>
       </c>
       <c r="R2">
-        <v>1.906610443287048E-09</v>
+        <v>1.906587184037133E-09</v>
       </c>
       <c r="S2">
-        <v>3.13304799895207E-09</v>
+        <v>3.133066180992081E-09</v>
       </c>
       <c r="T2">
-        <v>7.137893502907106E-10</v>
+        <v>7.137876841096168E-10</v>
       </c>
       <c r="U2">
-        <v>4.345325343376213E-09</v>
+        <v>4.345329962293114E-09</v>
       </c>
       <c r="V2">
-        <v>-7.970592407331584E-10</v>
+        <v>-7.970234578171943E-10</v>
       </c>
       <c r="W2">
-        <v>-7.137761083512936E-10</v>
+        <v>-7.137833632521493E-10</v>
       </c>
       <c r="X2">
-        <v>-4.345322649016282E-09</v>
+        <v>-4.345327267933185E-09</v>
       </c>
       <c r="Y2">
-        <v>7.970611854591325E-10</v>
+        <v>7.970250845528227E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13442,40 +13442,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8551989639615296</v>
+        <v>0.8551989639615293</v>
       </c>
       <c r="AH2">
-        <v>0.6449366187237823</v>
+        <v>0.6449366187237821</v>
       </c>
       <c r="AI2">
-        <v>0.4394789399935438</v>
+        <v>0.4394789399935445</v>
       </c>
       <c r="AJ2">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682257</v>
       </c>
       <c r="AK2">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054976</v>
       </c>
       <c r="AL2">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293728</v>
       </c>
       <c r="AM2">
-        <v>-3.955340391003942</v>
+        <v>-3.955340391003822</v>
       </c>
       <c r="AN2">
-        <v>-153.8366771790808</v>
+        <v>-153.836677179081</v>
       </c>
       <c r="AO2">
         <v>128.6205387876522</v>
       </c>
       <c r="AP2">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389995965</v>
       </c>
       <c r="AQ2">
-        <v>-153.8366771755843</v>
+        <v>-153.8366771755844</v>
       </c>
       <c r="AR2">
-        <v>128.6205387908427</v>
+        <v>128.6205387908429</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13519,40 +13519,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.59400196238488E-10</v>
+        <v>7.59414061656973E-10</v>
       </c>
       <c r="O3">
-        <v>6.355277063261667E-10</v>
+        <v>6.35539805919449E-10</v>
       </c>
       <c r="P3">
-        <v>1.044346285917938E-09</v>
+        <v>1.044364495366273E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.593999167991227E-10</v>
+        <v>-7.594140616535959E-10</v>
       </c>
       <c r="R3">
-        <v>-6.355222222681689E-10</v>
+        <v>-6.355344176552214E-10</v>
       </c>
       <c r="S3">
-        <v>-1.04434628589449E-09</v>
+        <v>-1.044365794712548E-09</v>
       </c>
       <c r="T3">
-        <v>-2.379236497362841E-10</v>
+        <v>-2.379286691492349E-10</v>
       </c>
       <c r="U3">
-        <v>-1.448440819116298E-09</v>
+        <v>-1.448468912819089E-09</v>
       </c>
       <c r="V3">
-        <v>2.656686404044149E-10</v>
+        <v>2.656725293774791E-10</v>
       </c>
       <c r="W3">
-        <v>2.37927691127108E-10</v>
+        <v>2.379286691530663E-10</v>
       </c>
       <c r="X3">
-        <v>1.448443513263297E-09</v>
+        <v>1.448457944776627E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.656686403778097E-10</v>
+        <v>-2.656709028546926E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13573,40 +13573,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8551989639704577</v>
+        <v>0.8551989639704576</v>
       </c>
       <c r="AH3">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994029</v>
       </c>
       <c r="AI3">
-        <v>0.4394789400413149</v>
+        <v>0.4394789400413152</v>
       </c>
       <c r="AJ3">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682257</v>
       </c>
       <c r="AK3">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054976</v>
       </c>
       <c r="AL3">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293728</v>
       </c>
       <c r="AM3">
-        <v>-3.955340389660154</v>
+        <v>-3.955340389660044</v>
       </c>
       <c r="AN3">
-        <v>-153.8366771744188</v>
+        <v>-153.8366771744189</v>
       </c>
       <c r="AO3">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
       <c r="AP3">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389995965</v>
       </c>
       <c r="AQ3">
-        <v>-153.8366771755843</v>
+        <v>-153.8366771755844</v>
       </c>
       <c r="AR3">
-        <v>128.6205387908427</v>
+        <v>128.6205387908429</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13650,40 +13650,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.593964342874844E-10</v>
+        <v>7.594186619159424E-10</v>
       </c>
       <c r="O4">
-        <v>6.355277063261667E-10</v>
+        <v>6.355452899539882E-10</v>
       </c>
       <c r="P4">
-        <v>1.044354100408491E-09</v>
+        <v>1.044364495366273E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.594004756710998E-10</v>
+        <v>-7.594186619125654E-10</v>
       </c>
       <c r="R4">
-        <v>-6.355222222681689E-10</v>
+        <v>-6.355452899305284E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044356699124489E-09</v>
+        <v>-1.044365794712548E-09</v>
       </c>
       <c r="T4">
-        <v>-2.379193289133033E-10</v>
+        <v>-2.379208658112388E-10</v>
       </c>
       <c r="U4">
-        <v>-1.448440819116297E-09</v>
+        <v>-1.448466218698705E-09</v>
       </c>
       <c r="V4">
-        <v>2.656855413469193E-10</v>
+        <v>2.656725293774794E-10</v>
       </c>
       <c r="W4">
-        <v>2.379196083531234E-10</v>
+        <v>2.379208658150702E-10</v>
       </c>
       <c r="X4">
-        <v>1.448443513263297E-09</v>
+        <v>1.448466218725321E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.656822883279526E-10</v>
+        <v>-2.656709028546926E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13704,40 +13704,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8551989639704578</v>
+        <v>0.8551989639704576</v>
       </c>
       <c r="AH4">
-        <v>0.6449366186994031</v>
+        <v>0.644936618699403</v>
       </c>
       <c r="AI4">
-        <v>0.439478940041315</v>
+        <v>0.4394789400413153</v>
       </c>
       <c r="AJ4">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682257</v>
       </c>
       <c r="AK4">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054976</v>
       </c>
       <c r="AL4">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293728</v>
       </c>
       <c r="AM4">
-        <v>-3.955340389660157</v>
+        <v>-3.955340389660045</v>
       </c>
       <c r="AN4">
-        <v>-153.8366771744188</v>
+        <v>-153.8366771744189</v>
       </c>
       <c r="AO4">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
       <c r="AP4">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389995965</v>
       </c>
       <c r="AQ4">
-        <v>-153.8366771755843</v>
+        <v>-153.8366771755844</v>
       </c>
       <c r="AR4">
-        <v>128.6205387908427</v>
+        <v>128.6205387908429</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -13781,40 +13781,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.794359885505045E-16</v>
+        <v>-5.588719771009934E-16</v>
       </c>
       <c r="O5">
-        <v>6.831094730990787E-15</v>
+        <v>-6.855043173784277E-15</v>
       </c>
       <c r="P5">
-        <v>-6.505984722056529E-15</v>
+        <v>2.598739445592238E-15</v>
       </c>
       <c r="Q5">
-        <v>-8.082773984619657E-15</v>
+        <v>2.794359885504968E-16</v>
       </c>
       <c r="R5">
-        <v>1.394957077550346E-15</v>
+        <v>6.855043173784279E-15</v>
       </c>
       <c r="S5">
-        <v>7.814490552928611E-15</v>
+        <v>-3.252992361028257E-15</v>
       </c>
       <c r="T5">
-        <v>-4.041386992309828E-15</v>
+        <v>-8.082773984619656E-15</v>
       </c>
       <c r="U5">
-        <v>-4.789688558698208E-17</v>
+        <v>-3.367650479908398E-15</v>
       </c>
       <c r="V5">
-        <v>-5.197478891184448E-15</v>
+        <v>-3.252992361028257E-15</v>
       </c>
       <c r="W5">
-        <v>5.588719771010093E-16</v>
+        <v>4.041386992309828E-15</v>
       </c>
       <c r="X5">
-        <v>4.089077461477074E-15</v>
+        <v>3.3676504799084E-15</v>
       </c>
       <c r="Y5">
-        <v>1.690094250442543E-14</v>
+        <v>-2.598739445592239E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -13835,40 +13835,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.8551989639704577</v>
+        <v>0.8551989639704576</v>
       </c>
       <c r="AH5">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994029</v>
       </c>
       <c r="AI5">
-        <v>0.4394789400413149</v>
+        <v>0.4394789400413152</v>
       </c>
       <c r="AJ5">
-        <v>0.8551989639704578</v>
+        <v>0.8551989639704576</v>
       </c>
       <c r="AK5">
-        <v>0.6449366186994031</v>
+        <v>0.644936618699403</v>
       </c>
       <c r="AL5">
-        <v>0.439478940041315</v>
+        <v>0.4394789400413153</v>
       </c>
       <c r="AM5">
-        <v>-3.955340389660154</v>
+        <v>-3.955340389660044</v>
       </c>
       <c r="AN5">
-        <v>-153.8366771744188</v>
+        <v>-153.8366771744189</v>
       </c>
       <c r="AO5">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
       <c r="AP5">
-        <v>-3.955340389660157</v>
+        <v>-3.955340389660045</v>
       </c>
       <c r="AQ5">
-        <v>-153.8366771744188</v>
+        <v>-153.8366771744189</v>
       </c>
       <c r="AR5">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
     </row>
   </sheetData>
@@ -14059,40 +14059,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.452713813269776E-09</v>
+        <v>-2.452716965830473E-09</v>
       </c>
       <c r="O2">
-        <v>-6.142666265342984E-10</v>
+        <v>-6.142579717595501E-10</v>
       </c>
       <c r="P2">
-        <v>-6.120965779141675E-10</v>
+        <v>-6.121044437432625E-10</v>
       </c>
       <c r="Q2">
-        <v>2.452716961636622E-09</v>
+        <v>2.452718539527935E-09</v>
       </c>
       <c r="R2">
-        <v>6.142642663090649E-10</v>
+        <v>6.142548258105809E-10</v>
       </c>
       <c r="S2">
-        <v>6.121012994056265E-10</v>
+        <v>6.12106016969932E-10</v>
       </c>
       <c r="T2">
-        <v>-2.51443876828862E-12</v>
+        <v>-2.498703888153617E-12</v>
       </c>
       <c r="U2">
-        <v>3.163959092006597E-09</v>
+        <v>3.163959094960026E-09</v>
       </c>
       <c r="V2">
-        <v>-3.165206875102102E-09</v>
+        <v>-3.16521317216869E-09</v>
       </c>
       <c r="W2">
-        <v>2.511292711747048E-12</v>
+        <v>2.498704485448831E-12</v>
       </c>
       <c r="X2">
-        <v>-3.163957518800134E-09</v>
+        <v>-3.163960669212875E-09</v>
       </c>
       <c r="Y2">
-        <v>3.165206877129818E-09</v>
+        <v>3.165216320313251E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -14113,40 +14113,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6643916361876107</v>
+        <v>0.6643916361876102</v>
       </c>
       <c r="AH2">
-        <v>0.3321958179292133</v>
+        <v>0.3321958179292131</v>
       </c>
       <c r="AI2">
-        <v>0.3321958182584022</v>
+        <v>0.3321958182584023</v>
       </c>
       <c r="AJ2">
-        <v>0.6643916362152703</v>
+        <v>0.6643916362152701</v>
       </c>
       <c r="AK2">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009136</v>
       </c>
       <c r="AL2">
-        <v>0.332195818314362</v>
+        <v>0.3321958183143618</v>
       </c>
       <c r="AM2">
-        <v>0.01955212036734578</v>
+        <v>0.01955212036734163</v>
       </c>
       <c r="AN2">
-        <v>-179.9804478777209</v>
+        <v>-179.9804478777207</v>
       </c>
       <c r="AO2">
-        <v>-179.9804478815424</v>
+        <v>-179.9804478815422</v>
       </c>
       <c r="AP2">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177370216</v>
       </c>
       <c r="AQ2">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640088</v>
       </c>
       <c r="AR2">
-        <v>-179.9804478924417</v>
+        <v>-179.9804478924416</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -14190,40 +14190,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.175597300036313E-10</v>
+        <v>8.175691747980243E-10</v>
       </c>
       <c r="O3">
-        <v>2.047471499825206E-10</v>
+        <v>2.04746361036862E-10</v>
       </c>
       <c r="P3">
-        <v>2.040342903627215E-10</v>
+        <v>2.040358639581323E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.175628782570906E-10</v>
+        <v>-8.175738977208698E-10</v>
       </c>
       <c r="R3">
-        <v>-2.04749508686353E-10</v>
+        <v>-2.047463604215567E-10</v>
       </c>
       <c r="S3">
-        <v>-2.04032716688951E-10</v>
+        <v>-2.040374364012103E-10</v>
       </c>
       <c r="T3">
-        <v>8.423385994180972E-13</v>
+        <v>8.329002488792684E-13</v>
       </c>
       <c r="U3">
-        <v>-1.054653033347676E-09</v>
+        <v>-1.054646739234527E-09</v>
       </c>
       <c r="V3">
-        <v>1.05507105739579E-09</v>
+        <v>1.055071057932778E-09</v>
       </c>
       <c r="W3">
-        <v>-8.391924758707792E-13</v>
+        <v>-8.26607471497086E-13</v>
       </c>
       <c r="X3">
-        <v>1.054648311802245E-09</v>
+        <v>1.054645165685398E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.055071056812497E-09</v>
+        <v>-1.055074205614283E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -14247,37 +14247,37 @@
         <v>0.6643916362244899</v>
       </c>
       <c r="AH3">
-        <v>0.3321958178914815</v>
+        <v>0.3321958178914806</v>
       </c>
       <c r="AI3">
         <v>0.3321958183330152</v>
       </c>
       <c r="AJ3">
-        <v>0.6643916362152703</v>
+        <v>0.6643916362152701</v>
       </c>
       <c r="AK3">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009136</v>
       </c>
       <c r="AL3">
-        <v>0.332195818314362</v>
+        <v>0.3321958183143618</v>
       </c>
       <c r="AM3">
-        <v>0.01955212224240663</v>
+        <v>0.01955212224250374</v>
       </c>
       <c r="AN3">
         <v>-179.9804478594382</v>
       </c>
       <c r="AO3">
-        <v>-179.9804478960748</v>
+        <v>-179.9804478960747</v>
       </c>
       <c r="AP3">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177370216</v>
       </c>
       <c r="AQ3">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640088</v>
       </c>
       <c r="AR3">
-        <v>-179.9804478924417</v>
+        <v>-179.9804478924416</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -14321,40 +14321,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.175691758719999E-10</v>
+        <v>8.175597321515822E-10</v>
       </c>
       <c r="O4">
-        <v>2.047534443641613E-10</v>
+        <v>2.047526575664552E-10</v>
       </c>
       <c r="P4">
-        <v>2.040342903627216E-10</v>
+        <v>2.040327146193593E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.17572321977508E-10</v>
+        <v>-8.175707483820967E-10</v>
       </c>
       <c r="R4">
-        <v>-2.047558052159459E-10</v>
+        <v>-2.047463604215567E-10</v>
       </c>
       <c r="S4">
-        <v>-2.040358638797751E-10</v>
+        <v>-2.04031142019562E-10</v>
       </c>
       <c r="T4">
-        <v>8.297530580558909E-13</v>
+        <v>8.360442177749825E-13</v>
       </c>
       <c r="U4">
-        <v>-1.054653031199723E-09</v>
+        <v>-1.054653031468214E-09</v>
       </c>
       <c r="V4">
-        <v>1.055071057395791E-09</v>
+        <v>1.055077351240452E-09</v>
       </c>
       <c r="W4">
-        <v>-8.329013161527888E-13</v>
+        <v>-8.32900779165977E-13</v>
       </c>
       <c r="X4">
-        <v>1.054654604035933E-09</v>
+        <v>1.054645165685398E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.055071057886472E-09</v>
+        <v>-1.055074203466334E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -14378,22 +14378,22 @@
         <v>0.6643916362244899</v>
       </c>
       <c r="AH4">
-        <v>0.3321958178914816</v>
+        <v>0.3321958178914805</v>
       </c>
       <c r="AI4">
-        <v>0.3321958183330153</v>
+        <v>0.3321958183330151</v>
       </c>
       <c r="AJ4">
-        <v>0.6643916362152703</v>
+        <v>0.6643916362152701</v>
       </c>
       <c r="AK4">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009136</v>
       </c>
       <c r="AL4">
-        <v>0.332195818314362</v>
+        <v>0.3321958183143618</v>
       </c>
       <c r="AM4">
-        <v>0.01955212224242221</v>
+        <v>0.01955212224249868</v>
       </c>
       <c r="AN4">
         <v>-179.9804478594382</v>
@@ -14402,13 +14402,13 @@
         <v>-179.9804478960748</v>
       </c>
       <c r="AP4">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177370216</v>
       </c>
       <c r="AQ4">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640088</v>
       </c>
       <c r="AR4">
-        <v>-179.9804478924417</v>
+        <v>-179.9804478924416</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -14452,40 +14452,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.102053775512821E-14</v>
+        <v>3.14826479768986E-15</v>
       </c>
       <c r="O5">
-        <v>-3.935062501633718E-15</v>
+        <v>-1.610964721441642E-18</v>
       </c>
       <c r="P5">
-        <v>-1.073974469983202E-18</v>
+        <v>1.574669386622958E-15</v>
       </c>
       <c r="Q5">
-        <v>4.72508213522432E-15</v>
+        <v>-9.442646442117942E-15</v>
       </c>
       <c r="R5">
-        <v>4.721860206664272E-15</v>
+        <v>7.889456579924713E-16</v>
       </c>
       <c r="S5">
-        <v>4.721860210928895E-15</v>
+        <v>2.147948939972714E-18</v>
       </c>
       <c r="T5">
-        <v>1.573219519690486E-14</v>
+        <v>-3.146116846738222E-15</v>
       </c>
       <c r="U5">
-        <v>3.145848349521005E-15</v>
+        <v>4.720786230183296E-15</v>
       </c>
       <c r="V5">
-        <v>3.14719082430594E-15</v>
+        <v>-3.146653837070947E-15</v>
       </c>
       <c r="W5">
-        <v>-1.258715232564244E-14</v>
+        <v>3.143968895786585E-15</v>
       </c>
       <c r="X5">
-        <v>-3.145579855400764E-15</v>
+        <v>-6.294113146124153E-15</v>
       </c>
       <c r="Y5">
-        <v>-3.145579862600966E-15</v>
+        <v>-6.294381648611879E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -14509,7 +14509,7 @@
         <v>0.6643916362244899</v>
       </c>
       <c r="AH5">
-        <v>0.3321958178914815</v>
+        <v>0.3321958178914806</v>
       </c>
       <c r="AI5">
         <v>0.3321958183330152</v>
@@ -14518,22 +14518,22 @@
         <v>0.6643916362244899</v>
       </c>
       <c r="AK5">
-        <v>0.3321958178914816</v>
+        <v>0.3321958178914805</v>
       </c>
       <c r="AL5">
-        <v>0.3321958183330153</v>
+        <v>0.3321958183330151</v>
       </c>
       <c r="AM5">
-        <v>0.01955212224240663</v>
+        <v>0.01955212224250374</v>
       </c>
       <c r="AN5">
         <v>-179.9804478594382</v>
       </c>
       <c r="AO5">
-        <v>-179.9804478960748</v>
+        <v>-179.9804478960747</v>
       </c>
       <c r="AP5">
-        <v>0.01955212224242221</v>
+        <v>0.01955212224249868</v>
       </c>
       <c r="AQ5">
         <v>-179.9804478594382</v>
@@ -15008,40 +15008,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.452713813269776E-09</v>
+        <v>-2.452716965830473E-09</v>
       </c>
       <c r="O2">
-        <v>-6.142666265342984E-10</v>
+        <v>-6.142579717595501E-10</v>
       </c>
       <c r="P2">
-        <v>-6.120965779141675E-10</v>
+        <v>-6.121044437432625E-10</v>
       </c>
       <c r="Q2">
-        <v>2.452716961636622E-09</v>
+        <v>2.452718539527935E-09</v>
       </c>
       <c r="R2">
-        <v>6.142642663090649E-10</v>
+        <v>6.142548258105809E-10</v>
       </c>
       <c r="S2">
-        <v>6.121012994056265E-10</v>
+        <v>6.12106016969932E-10</v>
       </c>
       <c r="T2">
-        <v>-2.51443876828862E-12</v>
+        <v>-2.498703888153617E-12</v>
       </c>
       <c r="U2">
-        <v>3.163959092006597E-09</v>
+        <v>3.163959094960026E-09</v>
       </c>
       <c r="V2">
-        <v>-3.165206875102102E-09</v>
+        <v>-3.16521317216869E-09</v>
       </c>
       <c r="W2">
-        <v>2.511292711747048E-12</v>
+        <v>2.498704485448831E-12</v>
       </c>
       <c r="X2">
-        <v>-3.163957518800134E-09</v>
+        <v>-3.163960669212875E-09</v>
       </c>
       <c r="Y2">
-        <v>3.165206877129818E-09</v>
+        <v>3.165216320313251E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15062,40 +15062,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6643916361876107</v>
+        <v>0.6643916361876102</v>
       </c>
       <c r="AH2">
-        <v>0.3321958179292133</v>
+        <v>0.3321958179292131</v>
       </c>
       <c r="AI2">
-        <v>0.3321958182584022</v>
+        <v>0.3321958182584023</v>
       </c>
       <c r="AJ2">
-        <v>0.6643916362152703</v>
+        <v>0.6643916362152701</v>
       </c>
       <c r="AK2">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009136</v>
       </c>
       <c r="AL2">
-        <v>0.332195818314362</v>
+        <v>0.3321958183143618</v>
       </c>
       <c r="AM2">
-        <v>0.01955212036734578</v>
+        <v>0.01955212036734163</v>
       </c>
       <c r="AN2">
-        <v>-179.9804478777209</v>
+        <v>-179.9804478777207</v>
       </c>
       <c r="AO2">
-        <v>-179.9804478815424</v>
+        <v>-179.9804478815422</v>
       </c>
       <c r="AP2">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177370216</v>
       </c>
       <c r="AQ2">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640088</v>
       </c>
       <c r="AR2">
-        <v>-179.9804478924417</v>
+        <v>-179.9804478924416</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -15139,40 +15139,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.175597300036313E-10</v>
+        <v>8.175691747980243E-10</v>
       </c>
       <c r="O3">
-        <v>2.047471499825206E-10</v>
+        <v>2.04746361036862E-10</v>
       </c>
       <c r="P3">
-        <v>2.040342903627215E-10</v>
+        <v>2.040358639581323E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.175628782570906E-10</v>
+        <v>-8.175738977208698E-10</v>
       </c>
       <c r="R3">
-        <v>-2.04749508686353E-10</v>
+        <v>-2.047463604215567E-10</v>
       </c>
       <c r="S3">
-        <v>-2.04032716688951E-10</v>
+        <v>-2.040374364012103E-10</v>
       </c>
       <c r="T3">
-        <v>8.423385994180972E-13</v>
+        <v>8.329002488792684E-13</v>
       </c>
       <c r="U3">
-        <v>-1.054653033347676E-09</v>
+        <v>-1.054646739234527E-09</v>
       </c>
       <c r="V3">
-        <v>1.05507105739579E-09</v>
+        <v>1.055071057932778E-09</v>
       </c>
       <c r="W3">
-        <v>-8.391924758707792E-13</v>
+        <v>-8.26607471497086E-13</v>
       </c>
       <c r="X3">
-        <v>1.054648311802245E-09</v>
+        <v>1.054645165685398E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.055071056812497E-09</v>
+        <v>-1.055074205614283E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15196,37 +15196,37 @@
         <v>0.6643916362244899</v>
       </c>
       <c r="AH3">
-        <v>0.3321958178914815</v>
+        <v>0.3321958178914806</v>
       </c>
       <c r="AI3">
         <v>0.3321958183330152</v>
       </c>
       <c r="AJ3">
-        <v>0.6643916362152703</v>
+        <v>0.6643916362152701</v>
       </c>
       <c r="AK3">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009136</v>
       </c>
       <c r="AL3">
-        <v>0.332195818314362</v>
+        <v>0.3321958183143618</v>
       </c>
       <c r="AM3">
-        <v>0.01955212224240663</v>
+        <v>0.01955212224250374</v>
       </c>
       <c r="AN3">
         <v>-179.9804478594382</v>
       </c>
       <c r="AO3">
-        <v>-179.9804478960748</v>
+        <v>-179.9804478960747</v>
       </c>
       <c r="AP3">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177370216</v>
       </c>
       <c r="AQ3">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640088</v>
       </c>
       <c r="AR3">
-        <v>-179.9804478924417</v>
+        <v>-179.9804478924416</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -15270,40 +15270,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.175691758719999E-10</v>
+        <v>8.175597321515822E-10</v>
       </c>
       <c r="O4">
-        <v>2.047534443641613E-10</v>
+        <v>2.047526575664552E-10</v>
       </c>
       <c r="P4">
-        <v>2.040342903627216E-10</v>
+        <v>2.040327146193593E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.17572321977508E-10</v>
+        <v>-8.175707483820967E-10</v>
       </c>
       <c r="R4">
-        <v>-2.047558052159459E-10</v>
+        <v>-2.047463604215567E-10</v>
       </c>
       <c r="S4">
-        <v>-2.040358638797751E-10</v>
+        <v>-2.04031142019562E-10</v>
       </c>
       <c r="T4">
-        <v>8.297530580558909E-13</v>
+        <v>8.360442177749825E-13</v>
       </c>
       <c r="U4">
-        <v>-1.054653031199723E-09</v>
+        <v>-1.054653031468214E-09</v>
       </c>
       <c r="V4">
-        <v>1.055071057395791E-09</v>
+        <v>1.055077351240452E-09</v>
       </c>
       <c r="W4">
-        <v>-8.329013161527888E-13</v>
+        <v>-8.32900779165977E-13</v>
       </c>
       <c r="X4">
-        <v>1.054654604035933E-09</v>
+        <v>1.054645165685398E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.055071057886472E-09</v>
+        <v>-1.055074203466334E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15327,22 +15327,22 @@
         <v>0.6643916362244899</v>
       </c>
       <c r="AH4">
-        <v>0.3321958178914816</v>
+        <v>0.3321958178914805</v>
       </c>
       <c r="AI4">
-        <v>0.3321958183330153</v>
+        <v>0.3321958183330151</v>
       </c>
       <c r="AJ4">
-        <v>0.6643916362152703</v>
+        <v>0.6643916362152701</v>
       </c>
       <c r="AK4">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009136</v>
       </c>
       <c r="AL4">
-        <v>0.332195818314362</v>
+        <v>0.3321958183143618</v>
       </c>
       <c r="AM4">
-        <v>0.01955212224242221</v>
+        <v>0.01955212224249868</v>
       </c>
       <c r="AN4">
         <v>-179.9804478594382</v>
@@ -15351,13 +15351,13 @@
         <v>-179.9804478960748</v>
       </c>
       <c r="AP4">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177370216</v>
       </c>
       <c r="AQ4">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640088</v>
       </c>
       <c r="AR4">
-        <v>-179.9804478924417</v>
+        <v>-179.9804478924416</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -15401,40 +15401,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.102053775512821E-14</v>
+        <v>3.14826479768986E-15</v>
       </c>
       <c r="O5">
-        <v>-3.935062501633718E-15</v>
+        <v>-1.610964721441642E-18</v>
       </c>
       <c r="P5">
-        <v>-1.073974469983202E-18</v>
+        <v>1.574669386622958E-15</v>
       </c>
       <c r="Q5">
-        <v>4.72508213522432E-15</v>
+        <v>-9.442646442117942E-15</v>
       </c>
       <c r="R5">
-        <v>4.721860206664272E-15</v>
+        <v>7.889456579924713E-16</v>
       </c>
       <c r="S5">
-        <v>4.721860210928895E-15</v>
+        <v>2.147948939972714E-18</v>
       </c>
       <c r="T5">
-        <v>1.573219519690486E-14</v>
+        <v>-3.146116846738222E-15</v>
       </c>
       <c r="U5">
-        <v>3.145848349521005E-15</v>
+        <v>4.720786230183296E-15</v>
       </c>
       <c r="V5">
-        <v>3.14719082430594E-15</v>
+        <v>-3.146653837070947E-15</v>
       </c>
       <c r="W5">
-        <v>-1.258715232564244E-14</v>
+        <v>3.143968895786585E-15</v>
       </c>
       <c r="X5">
-        <v>-3.145579855400764E-15</v>
+        <v>-6.294113146124153E-15</v>
       </c>
       <c r="Y5">
-        <v>-3.145579862600966E-15</v>
+        <v>-6.294381648611879E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -15458,7 +15458,7 @@
         <v>0.6643916362244899</v>
       </c>
       <c r="AH5">
-        <v>0.3321958178914815</v>
+        <v>0.3321958178914806</v>
       </c>
       <c r="AI5">
         <v>0.3321958183330152</v>
@@ -15467,22 +15467,22 @@
         <v>0.6643916362244899</v>
       </c>
       <c r="AK5">
-        <v>0.3321958178914816</v>
+        <v>0.3321958178914805</v>
       </c>
       <c r="AL5">
-        <v>0.3321958183330153</v>
+        <v>0.3321958183330151</v>
       </c>
       <c r="AM5">
-        <v>0.01955212224240663</v>
+        <v>0.01955212224250374</v>
       </c>
       <c r="AN5">
         <v>-179.9804478594382</v>
       </c>
       <c r="AO5">
-        <v>-179.9804478960748</v>
+        <v>-179.9804478960747</v>
       </c>
       <c r="AP5">
-        <v>0.01955212224242221</v>
+        <v>0.01955212224249868</v>
       </c>
       <c r="AQ5">
         <v>-179.9804478594382</v>
@@ -15679,40 +15679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.947732187685656E-09</v>
+        <v>-1.947732545079406E-09</v>
       </c>
       <c r="O2">
-        <v>-1.540759954701227E-09</v>
+        <v>-1.540746719251521E-09</v>
       </c>
       <c r="P2">
-        <v>-2.50700879379198E-09</v>
+        <v>-2.507016556296905E-09</v>
       </c>
       <c r="Q2">
-        <v>1.94773103912013E-09</v>
+        <v>1.947730975336759E-09</v>
       </c>
       <c r="R2">
-        <v>1.540761173850042E-09</v>
+        <v>1.54074572908727E-09</v>
       </c>
       <c r="S2">
-        <v>2.507012675407328E-09</v>
+        <v>2.507015049365141E-09</v>
       </c>
       <c r="T2">
-        <v>5.630588652124292E-10</v>
+        <v>5.630807337553651E-10</v>
       </c>
       <c r="U2">
-        <v>3.619484074601491E-09</v>
+        <v>3.61948566536267E-09</v>
       </c>
       <c r="V2">
-        <v>-8.229365081041307E-10</v>
+        <v>-8.229385617462088E-10</v>
       </c>
       <c r="W2">
-        <v>-5.630624291119064E-10</v>
+        <v>-5.630769879338419E-10</v>
       </c>
       <c r="X2">
-        <v>-3.619483522058694E-09</v>
+        <v>-3.619480237676749E-09</v>
       </c>
       <c r="Y2">
-        <v>8.229375351396139E-10</v>
+        <v>8.229348408660562E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15733,37 +15733,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7668755422478361</v>
+        <v>0.7668755422478357</v>
       </c>
       <c r="AH2">
-        <v>0.5649615026650584</v>
+        <v>0.5649615026650582</v>
       </c>
       <c r="AI2">
-        <v>0.3790339612538544</v>
+        <v>0.3790339612538538</v>
       </c>
       <c r="AJ2">
         <v>0.766875542263605</v>
       </c>
       <c r="AK2">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571299</v>
       </c>
       <c r="AL2">
-        <v>0.3790339613129893</v>
+        <v>0.3790339613129888</v>
       </c>
       <c r="AM2">
-        <v>-3.827350193674409</v>
+        <v>-3.82735019367442</v>
       </c>
       <c r="AN2">
-        <v>-155.6209588726733</v>
+        <v>-155.6209588726732</v>
       </c>
       <c r="AO2">
-        <v>131.3836767675908</v>
+        <v>131.3836767675909</v>
       </c>
       <c r="AP2">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423935</v>
       </c>
       <c r="AQ2">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665842</v>
       </c>
       <c r="AR2">
         <v>131.3836767695575</v>
@@ -15810,40 +15810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.492344779439791E-10</v>
+        <v>6.492319382280036E-10</v>
       </c>
       <c r="O3">
-        <v>5.135762410906598E-10</v>
+        <v>5.135821638256883E-10</v>
       </c>
       <c r="P3">
-        <v>8.356720034777761E-10</v>
+        <v>8.356731904566837E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.492320020055594E-10</v>
+        <v>-6.492337504974227E-10</v>
       </c>
       <c r="R3">
-        <v>-5.135752505230399E-10</v>
+        <v>-5.135831543126348E-10</v>
       </c>
       <c r="S3">
-        <v>-8.356752912004675E-10</v>
+        <v>-8.356752912004662E-10</v>
       </c>
       <c r="T3">
-        <v>-1.876844335929147E-10</v>
+        <v>-1.876951860041968E-10</v>
       </c>
       <c r="U3">
-        <v>-1.206495491750352E-09</v>
+        <v>-1.20649721495876E-09</v>
       </c>
       <c r="V3">
-        <v>2.7431668187722E-10</v>
+        <v>2.743153347404415E-10</v>
       </c>
       <c r="W3">
-        <v>1.876806271856973E-10</v>
+        <v>1.876953072477572E-10</v>
       </c>
       <c r="X3">
-        <v>1.206490064302802E-09</v>
+        <v>1.206502642453983E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.743183822428196E-10</v>
+        <v>-2.743183822428195E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15864,25 +15864,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7668755422688612</v>
+        <v>0.7668755422688611</v>
       </c>
       <c r="AH3">
-        <v>0.5649615026544882</v>
+        <v>0.5649615026544871</v>
       </c>
       <c r="AI3">
-        <v>0.3790339613327008</v>
+        <v>0.3790339613327006</v>
       </c>
       <c r="AJ3">
         <v>0.766875542263605</v>
       </c>
       <c r="AK3">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571299</v>
       </c>
       <c r="AL3">
-        <v>0.3790339613129893</v>
+        <v>0.3790339613129888</v>
       </c>
       <c r="AM3">
-        <v>-3.82735019200716</v>
+        <v>-3.827350192007102</v>
       </c>
       <c r="AN3">
         <v>-155.6209588645546</v>
@@ -15891,10 +15891,10 @@
         <v>131.3836767702131</v>
       </c>
       <c r="AP3">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423935</v>
       </c>
       <c r="AQ3">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665842</v>
       </c>
       <c r="AR3">
         <v>131.3836767695575</v>
@@ -15941,40 +15941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.492341142236083E-10</v>
+        <v>6.492391873289412E-10</v>
       </c>
       <c r="O4">
-        <v>5.135811162337812E-10</v>
+        <v>5.135797262541279E-10</v>
       </c>
       <c r="P4">
-        <v>8.356767985354375E-10</v>
+        <v>8.35671683162034E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.492351415955339E-10</v>
+        <v>-6.492373750478914E-10</v>
       </c>
       <c r="R4">
-        <v>-5.135821067207271E-10</v>
+        <v>-5.135831543126348E-10</v>
       </c>
       <c r="S4">
-        <v>-8.356741042215592E-10</v>
+        <v>-8.356758846899203E-10</v>
       </c>
       <c r="T4">
-        <v>-1.876898704186179E-10</v>
+        <v>-1.87695670964691E-10</v>
       </c>
       <c r="U4">
-        <v>-1.206493282437289E-09</v>
+        <v>-1.206498319615291E-09</v>
       </c>
       <c r="V4">
-        <v>2.743221033612427E-10</v>
+        <v>2.743116136458462E-10</v>
       </c>
       <c r="W4">
-        <v>1.876881187668819E-10</v>
+        <v>1.876955497280043E-10</v>
       </c>
       <c r="X4">
-        <v>1.206498709932512E-09</v>
+        <v>1.206502642453983E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.743197293795984E-10</v>
+        <v>-2.743177086744302E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15998,22 +15998,22 @@
         <v>0.7668755422688611</v>
       </c>
       <c r="AH4">
-        <v>0.5649615026544883</v>
+        <v>0.5649615026544872</v>
       </c>
       <c r="AI4">
-        <v>0.379033961332701</v>
+        <v>0.3790339613327005</v>
       </c>
       <c r="AJ4">
         <v>0.766875542263605</v>
       </c>
       <c r="AK4">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571299</v>
       </c>
       <c r="AL4">
-        <v>0.3790339613129893</v>
+        <v>0.3790339613129888</v>
       </c>
       <c r="AM4">
-        <v>-3.827350192007162</v>
+        <v>-3.827350192007105</v>
       </c>
       <c r="AN4">
         <v>-155.6209588645546</v>
@@ -16022,10 +16022,10 @@
         <v>131.3836767702131</v>
       </c>
       <c r="AP4">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423935</v>
       </c>
       <c r="AQ4">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665842</v>
       </c>
       <c r="AR4">
         <v>131.3836767695575</v>
@@ -16072,40 +16072,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.418475852050459E-15</v>
+        <v>-4.288207838924815E-15</v>
       </c>
       <c r="O5">
-        <v>-9.903162138164328E-15</v>
+        <v>2.551700809048186E-15</v>
       </c>
       <c r="P5">
-        <v>-3.287763011743777E-15</v>
+        <v>2.10078410348226E-15</v>
       </c>
       <c r="Q5">
-        <v>1.084834493208066E-15</v>
+        <v>4.288207838924815E-15</v>
       </c>
       <c r="R5">
-        <v>2.380506936268104E-15</v>
+        <v>-1.332915028784121E-15</v>
       </c>
       <c r="S5">
-        <v>-4.795057661095283E-15</v>
+        <v>-3.203157410899885E-16</v>
       </c>
       <c r="T5">
-        <v>8.940136048443003E-15</v>
+        <v>3.927650777617464E-15</v>
       </c>
       <c r="U5">
-        <v>7.264809045688521E-15</v>
+        <v>4.094556358144138E-15</v>
       </c>
       <c r="V5">
-        <v>-1.700389427119773E-15</v>
+        <v>3.047526205926282E-15</v>
       </c>
       <c r="W5">
-        <v>-1.099489152990008E-14</v>
+        <v>-3.927650777617464E-15</v>
       </c>
       <c r="X5">
-        <v>-3.902933814560615E-16</v>
+        <v>-3.542228092272135E-15</v>
       </c>
       <c r="Y5">
-        <v>-5.421484022449313E-15</v>
+        <v>-5.068231374136043E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -16126,25 +16126,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7668755422688612</v>
+        <v>0.7668755422688611</v>
       </c>
       <c r="AH5">
-        <v>0.5649615026544882</v>
+        <v>0.5649615026544871</v>
       </c>
       <c r="AI5">
-        <v>0.3790339613327008</v>
+        <v>0.3790339613327006</v>
       </c>
       <c r="AJ5">
         <v>0.7668755422688611</v>
       </c>
       <c r="AK5">
-        <v>0.5649615026544883</v>
+        <v>0.5649615026544872</v>
       </c>
       <c r="AL5">
-        <v>0.379033961332701</v>
+        <v>0.3790339613327005</v>
       </c>
       <c r="AM5">
-        <v>-3.82735019200716</v>
+        <v>-3.827350192007102</v>
       </c>
       <c r="AN5">
         <v>-155.6209588645546</v>
@@ -16153,7 +16153,7 @@
         <v>131.3836767702131</v>
       </c>
       <c r="AP5">
-        <v>-3.827350192007162</v>
+        <v>-3.827350192007105</v>
       </c>
       <c r="AQ5">
         <v>-155.6209588645546</v>
@@ -16350,40 +16350,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.947732187685656E-09</v>
+        <v>-1.947732545079406E-09</v>
       </c>
       <c r="O2">
-        <v>-1.540759954701227E-09</v>
+        <v>-1.540746719251521E-09</v>
       </c>
       <c r="P2">
-        <v>-2.50700879379198E-09</v>
+        <v>-2.507016556296905E-09</v>
       </c>
       <c r="Q2">
-        <v>1.94773103912013E-09</v>
+        <v>1.947730975336759E-09</v>
       </c>
       <c r="R2">
-        <v>1.540761173850042E-09</v>
+        <v>1.54074572908727E-09</v>
       </c>
       <c r="S2">
-        <v>2.507012675407328E-09</v>
+        <v>2.507015049365141E-09</v>
       </c>
       <c r="T2">
-        <v>5.630588652124292E-10</v>
+        <v>5.630807337553651E-10</v>
       </c>
       <c r="U2">
-        <v>3.619484074601491E-09</v>
+        <v>3.61948566536267E-09</v>
       </c>
       <c r="V2">
-        <v>-8.229365081041307E-10</v>
+        <v>-8.229385617462088E-10</v>
       </c>
       <c r="W2">
-        <v>-5.630624291119064E-10</v>
+        <v>-5.630769879338419E-10</v>
       </c>
       <c r="X2">
-        <v>-3.619483522058694E-09</v>
+        <v>-3.619480237676749E-09</v>
       </c>
       <c r="Y2">
-        <v>8.229375351396139E-10</v>
+        <v>8.229348408660562E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -16404,37 +16404,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7668755422478361</v>
+        <v>0.7668755422478357</v>
       </c>
       <c r="AH2">
-        <v>0.5649615026650584</v>
+        <v>0.5649615026650582</v>
       </c>
       <c r="AI2">
-        <v>0.3790339612538544</v>
+        <v>0.3790339612538538</v>
       </c>
       <c r="AJ2">
         <v>0.766875542263605</v>
       </c>
       <c r="AK2">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571299</v>
       </c>
       <c r="AL2">
-        <v>0.3790339613129893</v>
+        <v>0.3790339613129888</v>
       </c>
       <c r="AM2">
-        <v>-3.827350193674409</v>
+        <v>-3.82735019367442</v>
       </c>
       <c r="AN2">
-        <v>-155.6209588726733</v>
+        <v>-155.6209588726732</v>
       </c>
       <c r="AO2">
-        <v>131.3836767675908</v>
+        <v>131.3836767675909</v>
       </c>
       <c r="AP2">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423935</v>
       </c>
       <c r="AQ2">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665842</v>
       </c>
       <c r="AR2">
         <v>131.3836767695575</v>
@@ -16481,40 +16481,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.492344779439791E-10</v>
+        <v>6.492319382280036E-10</v>
       </c>
       <c r="O3">
-        <v>5.135762410906598E-10</v>
+        <v>5.135821638256883E-10</v>
       </c>
       <c r="P3">
-        <v>8.356720034777761E-10</v>
+        <v>8.356731904566837E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.492320020055594E-10</v>
+        <v>-6.492337504974227E-10</v>
       </c>
       <c r="R3">
-        <v>-5.135752505230399E-10</v>
+        <v>-5.135831543126348E-10</v>
       </c>
       <c r="S3">
-        <v>-8.356752912004675E-10</v>
+        <v>-8.356752912004662E-10</v>
       </c>
       <c r="T3">
-        <v>-1.876844335929147E-10</v>
+        <v>-1.876951860041968E-10</v>
       </c>
       <c r="U3">
-        <v>-1.206495491750352E-09</v>
+        <v>-1.20649721495876E-09</v>
       </c>
       <c r="V3">
-        <v>2.7431668187722E-10</v>
+        <v>2.743153347404415E-10</v>
       </c>
       <c r="W3">
-        <v>1.876806271856973E-10</v>
+        <v>1.876953072477572E-10</v>
       </c>
       <c r="X3">
-        <v>1.206490064302802E-09</v>
+        <v>1.206502642453983E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.743183822428196E-10</v>
+        <v>-2.743183822428195E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -16535,25 +16535,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7668755422688612</v>
+        <v>0.7668755422688611</v>
       </c>
       <c r="AH3">
-        <v>0.5649615026544882</v>
+        <v>0.5649615026544871</v>
       </c>
       <c r="AI3">
-        <v>0.3790339613327008</v>
+        <v>0.3790339613327006</v>
       </c>
       <c r="AJ3">
         <v>0.766875542263605</v>
       </c>
       <c r="AK3">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571299</v>
       </c>
       <c r="AL3">
-        <v>0.3790339613129893</v>
+        <v>0.3790339613129888</v>
       </c>
       <c r="AM3">
-        <v>-3.82735019200716</v>
+        <v>-3.827350192007102</v>
       </c>
       <c r="AN3">
         <v>-155.6209588645546</v>
@@ -16562,10 +16562,10 @@
         <v>131.3836767702131</v>
       </c>
       <c r="AP3">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423935</v>
       </c>
       <c r="AQ3">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665842</v>
       </c>
       <c r="AR3">
         <v>131.3836767695575</v>
@@ -16612,40 +16612,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.492341142236083E-10</v>
+        <v>6.492391873289412E-10</v>
       </c>
       <c r="O4">
-        <v>5.135811162337812E-10</v>
+        <v>5.135797262541279E-10</v>
       </c>
       <c r="P4">
-        <v>8.356767985354375E-10</v>
+        <v>8.35671683162034E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.492351415955339E-10</v>
+        <v>-6.492373750478914E-10</v>
       </c>
       <c r="R4">
-        <v>-5.135821067207271E-10</v>
+        <v>-5.135831543126348E-10</v>
       </c>
       <c r="S4">
-        <v>-8.356741042215592E-10</v>
+        <v>-8.356758846899203E-10</v>
       </c>
       <c r="T4">
-        <v>-1.876898704186179E-10</v>
+        <v>-1.87695670964691E-10</v>
       </c>
       <c r="U4">
-        <v>-1.206493282437289E-09</v>
+        <v>-1.206498319615291E-09</v>
       </c>
       <c r="V4">
-        <v>2.743221033612427E-10</v>
+        <v>2.743116136458462E-10</v>
       </c>
       <c r="W4">
-        <v>1.876881187668819E-10</v>
+        <v>1.876955497280043E-10</v>
       </c>
       <c r="X4">
-        <v>1.206498709932512E-09</v>
+        <v>1.206502642453983E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.743197293795984E-10</v>
+        <v>-2.743177086744302E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -16669,22 +16669,22 @@
         <v>0.7668755422688611</v>
       </c>
       <c r="AH4">
-        <v>0.5649615026544883</v>
+        <v>0.5649615026544872</v>
       </c>
       <c r="AI4">
-        <v>0.379033961332701</v>
+        <v>0.3790339613327005</v>
       </c>
       <c r="AJ4">
         <v>0.766875542263605</v>
       </c>
       <c r="AK4">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571299</v>
       </c>
       <c r="AL4">
-        <v>0.3790339613129893</v>
+        <v>0.3790339613129888</v>
       </c>
       <c r="AM4">
-        <v>-3.827350192007162</v>
+        <v>-3.827350192007105</v>
       </c>
       <c r="AN4">
         <v>-155.6209588645546</v>
@@ -16693,10 +16693,10 @@
         <v>131.3836767702131</v>
       </c>
       <c r="AP4">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423935</v>
       </c>
       <c r="AQ4">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665842</v>
       </c>
       <c r="AR4">
         <v>131.3836767695575</v>
@@ -16743,40 +16743,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.418475852050459E-15</v>
+        <v>-4.288207838924815E-15</v>
       </c>
       <c r="O5">
-        <v>-9.903162138164328E-15</v>
+        <v>2.551700809048186E-15</v>
       </c>
       <c r="P5">
-        <v>-3.287763011743777E-15</v>
+        <v>2.10078410348226E-15</v>
       </c>
       <c r="Q5">
-        <v>1.084834493208066E-15</v>
+        <v>4.288207838924815E-15</v>
       </c>
       <c r="R5">
-        <v>2.380506936268104E-15</v>
+        <v>-1.332915028784121E-15</v>
       </c>
       <c r="S5">
-        <v>-4.795057661095283E-15</v>
+        <v>-3.203157410899885E-16</v>
       </c>
       <c r="T5">
-        <v>8.940136048443003E-15</v>
+        <v>3.927650777617464E-15</v>
       </c>
       <c r="U5">
-        <v>7.264809045688521E-15</v>
+        <v>4.094556358144138E-15</v>
       </c>
       <c r="V5">
-        <v>-1.700389427119773E-15</v>
+        <v>3.047526205926282E-15</v>
       </c>
       <c r="W5">
-        <v>-1.099489152990008E-14</v>
+        <v>-3.927650777617464E-15</v>
       </c>
       <c r="X5">
-        <v>-3.902933814560615E-16</v>
+        <v>-3.542228092272135E-15</v>
       </c>
       <c r="Y5">
-        <v>-5.421484022449313E-15</v>
+        <v>-5.068231374136043E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -16797,25 +16797,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7668755422688612</v>
+        <v>0.7668755422688611</v>
       </c>
       <c r="AH5">
-        <v>0.5649615026544882</v>
+        <v>0.5649615026544871</v>
       </c>
       <c r="AI5">
-        <v>0.3790339613327008</v>
+        <v>0.3790339613327006</v>
       </c>
       <c r="AJ5">
         <v>0.7668755422688611</v>
       </c>
       <c r="AK5">
-        <v>0.5649615026544883</v>
+        <v>0.5649615026544872</v>
       </c>
       <c r="AL5">
-        <v>0.379033961332701</v>
+        <v>0.3790339613327005</v>
       </c>
       <c r="AM5">
-        <v>-3.82735019200716</v>
+        <v>-3.827350192007102</v>
       </c>
       <c r="AN5">
         <v>-155.6209588645546</v>
@@ -16824,7 +16824,7 @@
         <v>131.3836767702131</v>
       </c>
       <c r="AP5">
-        <v>-3.827350192007162</v>
+        <v>-3.827350192007105</v>
       </c>
       <c r="AQ5">
         <v>-155.6209588645546</v>
@@ -18408,40 +18408,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>6.451026010115471E-29</v>
+        <v>-5.731711525857139E-14</v>
       </c>
       <c r="O2">
-        <v>2.084254351699379E-14</v>
+        <v>4.168513090061141E-14</v>
       </c>
       <c r="P2">
-        <v>1.042124915140882E-14</v>
+        <v>-7.294910034354926E-14</v>
       </c>
       <c r="Q2">
-        <v>-1.563194052506518E-14</v>
+        <v>4.168517473350634E-14</v>
       </c>
       <c r="R2">
-        <v>-2.604851335189882E-15</v>
+        <v>-2.084211529496252E-14</v>
       </c>
       <c r="S2">
-        <v>-1.042082090060242E-14</v>
+        <v>6.252823490665141E-14</v>
       </c>
       <c r="T2">
-        <v>-5.210646841688372E-15</v>
+        <v>-5.210646841688453E-14</v>
       </c>
       <c r="U2">
-        <v>5.763371413985835E-09</v>
+        <v>5.763376624632682E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763387050089312E-09</v>
+        <v>-5.763407892676701E-09</v>
       </c>
       <c r="W2">
-        <v>5.210646841688178E-15</v>
+        <v>4.689582157519596E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763366202853099E-09</v>
+        <v>-5.763381834793624E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763397471868894E-09</v>
+        <v>5.763402682515755E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -18465,37 +18465,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057475</v>
+        <v>0.5500000117057481</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.5500000121030199</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593786</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493894</v>
       </c>
       <c r="AL2">
-        <v>7.093487145426187E-13</v>
+        <v>7.993156825706E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995568</v>
+        <v>-179.9999999995571</v>
       </c>
       <c r="AN2">
         <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>7.172809081992514E-13</v>
+        <v>8.013809326450106E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952998</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -18539,40 +18539,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.898436390184559E-28</v>
+        <v>-1.563194052506533E-14</v>
       </c>
       <c r="O3">
-        <v>2.084279230409498E-14</v>
+        <v>-2.084238241464804E-14</v>
       </c>
       <c r="P3">
-        <v>1.042149886381828E-14</v>
+        <v>3.126408623617648E-14</v>
       </c>
       <c r="Q3">
-        <v>-1.042129368337662E-14</v>
+        <v>1.457598818329276E-28</v>
       </c>
       <c r="R3">
-        <v>-2.605480782604222E-15</v>
+        <v>4.168501735934638E-14</v>
       </c>
       <c r="S3">
-        <v>-1.042145128182984E-14</v>
+        <v>-4.168533234406708E-14</v>
       </c>
       <c r="T3">
-        <v>1.563194052506512E-14</v>
+        <v>1.563194052506491E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921134225739668E-09</v>
+        <v>-1.921160278973869E-09</v>
       </c>
       <c r="V3">
-        <v>1.921118595618701E-09</v>
+        <v>1.921118595618707E-09</v>
       </c>
       <c r="W3">
-        <v>-1.042129368337688E-14</v>
+        <v>-1.042129368337675E-14</v>
       </c>
       <c r="X3">
-        <v>1.921139436440497E-09</v>
+        <v>1.921144647087342E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.921123806211562E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -18596,37 +18596,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439221</v>
+        <v>0.5500000116439222</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648437</v>
+        <v>0.5500000121648461</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593786</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493894</v>
       </c>
       <c r="AL3">
-        <v>6.958342290082945E-13</v>
+        <v>7.685433945702405E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938806</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO3">
-        <v>7.172809081992514E-13</v>
+        <v>8.013809326450106E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952998</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -18670,40 +18670,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.647452789181897E-14</v>
+        <v>-2.084258736675377E-14</v>
       </c>
       <c r="O4">
-        <v>2.0494532448286E-19</v>
+        <v>-2.084238241464805E-14</v>
       </c>
       <c r="P4">
-        <v>1.042149886420607E-14</v>
+        <v>3.126408623767725E-14</v>
       </c>
       <c r="Q4">
-        <v>3.126388105013057E-14</v>
+        <v>5.210646841688666E-15</v>
       </c>
       <c r="R4">
-        <v>1.823710657571828E-14</v>
+        <v>3.126372367975835E-14</v>
       </c>
       <c r="S4">
-        <v>-1.042145128182984E-14</v>
+        <v>-4.168533234492196E-14</v>
       </c>
       <c r="T4">
-        <v>3.126388105012979E-14</v>
+        <v>2.084258736675322E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921123804445992E-09</v>
+        <v>-1.92116027897387E-09</v>
       </c>
       <c r="V4">
-        <v>1.921118595618702E-09</v>
+        <v>1.921129016912396E-09</v>
       </c>
       <c r="W4">
-        <v>-2.605323420844148E-14</v>
+        <v>-2.084258736675343E-14</v>
       </c>
       <c r="X4">
-        <v>1.92112901514682E-09</v>
+        <v>1.92115506838102E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.92113422750525E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -18727,37 +18727,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG4">
-        <v>0.550000011643922</v>
+        <v>0.5500000116439223</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648438</v>
+        <v>0.5500000121648462</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593786</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493894</v>
       </c>
       <c r="AL4">
-        <v>6.890106257295765E-13</v>
+        <v>7.683945270676785E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938806</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO4">
-        <v>7.172809081992514E-13</v>
+        <v>8.013809326450106E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952998</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -18801,40 +18801,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.647452789181873E-14</v>
+        <v>5.210646841688443E-15</v>
       </c>
       <c r="O5">
-        <v>3.126388103699237E-14</v>
+        <v>2.605323420444175E-15</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>-4.68958215751956E-14</v>
+        <v>-1.563194052506526E-14</v>
       </c>
       <c r="R5">
-        <v>-1.563194051905205E-14</v>
+        <v>1.563194051738446E-14</v>
       </c>
       <c r="S5">
-        <v>-1.042129368831191E-14</v>
+        <v>5.564866742773285E-25</v>
       </c>
       <c r="T5">
-        <v>-1.04212936833763E-14</v>
+        <v>-5.210646841688304E-15</v>
       </c>
       <c r="U5">
-        <v>-1.563194051432713E-14</v>
+        <v>-7.815970258553262E-15</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>2.084258736675292E-14</v>
+        <v>1.042129368337654E-14</v>
       </c>
       <c r="X5">
-        <v>1.302661709638436E-14</v>
+        <v>2.605323421277954E-15</v>
       </c>
       <c r="Y5">
-        <v>1.112996488474544E-24</v>
+        <v>5.210646844155976E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -18858,37 +18858,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG5">
-        <v>0.5500000116439221</v>
+        <v>0.5500000116439222</v>
       </c>
       <c r="AH5">
-        <v>0.5500000121648437</v>
+        <v>0.5500000121648461</v>
       </c>
       <c r="AI5">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ5">
-        <v>0.550000011643922</v>
+        <v>0.5500000116439223</v>
       </c>
       <c r="AK5">
-        <v>0.5500000121648438</v>
+        <v>0.5500000121648462</v>
       </c>
       <c r="AL5">
-        <v>6.958342290082945E-13</v>
+        <v>7.685433945702405E-13</v>
       </c>
       <c r="AM5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938806</v>
       </c>
       <c r="AN5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO5">
-        <v>6.890106257295765E-13</v>
+        <v>7.683945270676785E-13</v>
       </c>
       <c r="AP5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938806</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
     </row>
   </sheetData>
